--- a/storage/excel/sum11_2.xlsx
+++ b/storage/excel/sum11_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>บทที่ 11 ข้อมูลแหล่งพลังงาน</t>
   </si>
@@ -119,15 +119,9 @@
     <t>ถ่าน</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o266_nu834</t>
-  </si>
-  <si>
     <t>กก.</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o266_nu833</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o266_nu835</t>
   </si>
   <si>
@@ -137,12 +131,6 @@
     <t>แกลบ</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o267_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_nu833</t>
-  </si>
-  <si>
     <t xml:space="preserve">  ขนส่งโดยไม่ใช้เชื้อเพลิง</t>
   </si>
   <si>
@@ -158,12 +146,6 @@
     <t>วัสดุเหลือใช้ทางการเกษตร</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o268_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_nu833</t>
-  </si>
-  <si>
     <t xml:space="preserve">  ขนส่งโดยใช้เชื้อเพลิง</t>
   </si>
   <si>
@@ -179,12 +161,6 @@
     <t>เบนซิน 95</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o269_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o269_nu833</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o269_nu835</t>
   </si>
   <si>
@@ -197,9 +173,6 @@
     <t>ลิตร</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o267_ra832(225)</t>
   </si>
   <si>
@@ -212,9 +185,6 @@
     <t>แก๊สโซฮอล์ 95</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o229_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o267_ra832(226)</t>
   </si>
   <si>
@@ -227,9 +197,6 @@
     <t>แก๊สโซฮอล์ อี 20</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o230_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti809_ch810_o230_nu819</t>
   </si>
   <si>
@@ -239,9 +206,6 @@
     <t>แก๊สโซฮอล์ อี 85</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o231_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o268_ra832(225)</t>
   </si>
   <si>
@@ -254,9 +218,6 @@
     <t>น้ำมันดีเซล</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o232_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o268_ra832(226)</t>
   </si>
   <si>
@@ -269,9 +230,6 @@
     <t xml:space="preserve">ก๊าซธรรมชาติ </t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o233_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti809_ch810_o233_nu819</t>
   </si>
   <si>
@@ -284,9 +242,6 @@
     <t>ก๊าซธรรมชาติ</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o234_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o286_ra832(225)</t>
   </si>
   <si>
@@ -302,9 +257,6 @@
     <t>ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o235_nu820</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o286_ra832(226)</t>
   </si>
   <si>
@@ -317,9 +269,6 @@
     <t>อื่นๆ</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu826</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu827, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu827, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu827</t>
   </si>
   <si>
@@ -327,12 +276,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3002, no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002, no_ra808_o81_ti809_ch810_o228_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o228_ra812(225)</t>
@@ -613,12 +556,9 @@
       </right>
     </border>
     <border>
-      <right style="thin">
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -632,15 +572,18 @@
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -761,12 +704,30 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -779,7 +740,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,10 +755,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,24 +764,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -834,6 +774,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1084,7 @@
   <dimension ref="A1:DP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="BS24" sqref="BS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1707,337 +1653,337 @@
       <c r="DP6" s="26"/>
     </row>
     <row r="7" spans="1:120">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="J7" s="59" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="R7" s="59" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="R7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Z7" s="59" t="s">
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Z7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AH7" s="59" t="s">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AH7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AP7" s="59" t="s">
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AP7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="60" t="s">
+      <c r="AX7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BG7" s="60"/>
-      <c r="BH7" s="60"/>
-      <c r="BI7" s="60"/>
-      <c r="BJ7" s="60"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="41"/>
+      <c r="BH7" s="41"/>
+      <c r="BI7" s="41"/>
+      <c r="BJ7" s="41"/>
       <c r="BK7" s="6"/>
-      <c r="BL7" s="60" t="s">
+      <c r="BL7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="BM7" s="60"/>
-      <c r="BN7" s="60"/>
-      <c r="BO7" s="60"/>
-      <c r="BP7" s="60"/>
-      <c r="BQ7" s="60"/>
-      <c r="BR7" s="60"/>
-      <c r="BS7" s="60"/>
-      <c r="BT7" s="60"/>
-      <c r="BU7" s="60"/>
-      <c r="BV7" s="60"/>
-      <c r="BW7" s="60"/>
-      <c r="BX7" s="60"/>
-      <c r="BY7" s="60"/>
-      <c r="CA7" s="59" t="s">
+      <c r="BM7" s="41"/>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="41"/>
+      <c r="BP7" s="41"/>
+      <c r="BQ7" s="41"/>
+      <c r="BR7" s="41"/>
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="41"/>
+      <c r="CA7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="CB7" s="59"/>
-      <c r="CC7" s="59"/>
-      <c r="CD7" s="59"/>
-      <c r="CE7" s="59"/>
-      <c r="CF7" s="59"/>
-      <c r="CG7" s="59"/>
-      <c r="CH7" s="59"/>
-      <c r="CI7" s="59"/>
-      <c r="CJ7" s="59"/>
-      <c r="CK7" s="59"/>
-      <c r="CL7" s="59"/>
-      <c r="CM7" s="59"/>
-      <c r="CO7" s="60" t="s">
+      <c r="CB7" s="46"/>
+      <c r="CC7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CE7" s="46"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="46"/>
+      <c r="CH7" s="46"/>
+      <c r="CI7" s="46"/>
+      <c r="CJ7" s="46"/>
+      <c r="CK7" s="46"/>
+      <c r="CL7" s="46"/>
+      <c r="CM7" s="46"/>
+      <c r="CO7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="CP7" s="60"/>
-      <c r="CQ7" s="60"/>
-      <c r="CR7" s="60"/>
-      <c r="CS7" s="60"/>
-      <c r="CT7" s="60"/>
-      <c r="CU7" s="60"/>
-      <c r="CV7" s="60"/>
-      <c r="CW7" s="60"/>
-      <c r="CX7" s="60"/>
-      <c r="CY7" s="60"/>
-      <c r="CZ7" s="60"/>
-      <c r="DA7" s="60"/>
-      <c r="DC7" s="60" t="s">
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="41"/>
+      <c r="CR7" s="41"/>
+      <c r="CS7" s="41"/>
+      <c r="CT7" s="41"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="41"/>
+      <c r="CX7" s="41"/>
+      <c r="CY7" s="41"/>
+      <c r="CZ7" s="41"/>
+      <c r="DA7" s="41"/>
+      <c r="DC7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="DD7" s="60"/>
-      <c r="DE7" s="60"/>
-      <c r="DF7" s="60"/>
-      <c r="DG7" s="60"/>
-      <c r="DH7" s="60"/>
-      <c r="DI7" s="60"/>
-      <c r="DJ7" s="60"/>
-      <c r="DK7" s="60"/>
-      <c r="DL7" s="60"/>
-      <c r="DM7" s="60"/>
-      <c r="DN7" s="60"/>
-      <c r="DO7" s="60"/>
-      <c r="DP7" s="60"/>
+      <c r="DD7" s="41"/>
+      <c r="DE7" s="41"/>
+      <c r="DF7" s="41"/>
+      <c r="DG7" s="41"/>
+      <c r="DH7" s="41"/>
+      <c r="DI7" s="41"/>
+      <c r="DJ7" s="41"/>
+      <c r="DK7" s="41"/>
+      <c r="DL7" s="41"/>
+      <c r="DM7" s="41"/>
+      <c r="DN7" s="41"/>
+      <c r="DO7" s="41"/>
+      <c r="DP7" s="41"/>
     </row>
     <row r="8" spans="1:120">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="J8" s="57" t="s">
+      <c r="H8" s="47"/>
+      <c r="J8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="52" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="R8" s="57" t="s">
+      <c r="P8" s="47"/>
+      <c r="R8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="56"/>
-      <c r="U8" s="52" t="s">
+      <c r="T8" s="45"/>
+      <c r="U8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52" t="s">
+      <c r="V8" s="47"/>
+      <c r="W8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="52"/>
-      <c r="Z8" s="57" t="s">
+      <c r="X8" s="47"/>
+      <c r="Z8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="55" t="s">
+      <c r="AA8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="52" t="s">
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52" t="s">
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="52"/>
-      <c r="AH8" s="57" t="s">
+      <c r="AF8" s="47"/>
+      <c r="AH8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AI8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="52" t="s">
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52" t="s">
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AN8" s="52"/>
-      <c r="AP8" s="57" t="s">
+      <c r="AN8" s="47"/>
+      <c r="AP8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AQ8" s="55" t="s">
+      <c r="AQ8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="52" t="s">
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="52" t="s">
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AV8" s="52"/>
+      <c r="AV8" s="47"/>
       <c r="AW8" s="1"/>
-      <c r="AX8" s="42" t="s">
+      <c r="AX8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AY8" s="43" t="s">
+      <c r="AY8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="45" t="s">
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="42" t="s">
+      <c r="BL8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BM8" s="61" t="s">
+      <c r="BM8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="BN8" s="43" t="s">
+      <c r="BN8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="44"/>
-      <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="45" t="s">
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="45"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="45"/>
-      <c r="BY8" s="45"/>
-      <c r="CA8" s="53" t="s">
+      <c r="BU8" s="51"/>
+      <c r="BV8" s="51"/>
+      <c r="BW8" s="51"/>
+      <c r="BX8" s="51"/>
+      <c r="BY8" s="51"/>
+      <c r="CA8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="CB8" s="50" t="s">
+      <c r="CB8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="CC8" s="50"/>
-      <c r="CD8" s="50"/>
-      <c r="CE8" s="50"/>
-      <c r="CF8" s="50"/>
-      <c r="CG8" s="51"/>
-      <c r="CH8" s="52" t="s">
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="56"/>
+      <c r="CG8" s="57"/>
+      <c r="CH8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="CI8" s="52"/>
-      <c r="CJ8" s="52"/>
-      <c r="CK8" s="52"/>
-      <c r="CL8" s="52"/>
-      <c r="CM8" s="52"/>
-      <c r="CO8" s="42" t="s">
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
+      <c r="CL8" s="47"/>
+      <c r="CM8" s="47"/>
+      <c r="CO8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CP8" s="43" t="s">
+      <c r="CP8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="44"/>
-      <c r="CS8" s="44"/>
-      <c r="CT8" s="44"/>
-      <c r="CU8" s="44"/>
-      <c r="CV8" s="45" t="s">
+      <c r="CQ8" s="50"/>
+      <c r="CR8" s="50"/>
+      <c r="CS8" s="50"/>
+      <c r="CT8" s="50"/>
+      <c r="CU8" s="50"/>
+      <c r="CV8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="CW8" s="45"/>
-      <c r="CX8" s="45"/>
-      <c r="CY8" s="45"/>
-      <c r="CZ8" s="45"/>
-      <c r="DA8" s="45"/>
-      <c r="DC8" s="42" t="s">
+      <c r="CW8" s="51"/>
+      <c r="CX8" s="51"/>
+      <c r="CY8" s="51"/>
+      <c r="CZ8" s="51"/>
+      <c r="DA8" s="51"/>
+      <c r="DC8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="DD8" s="61" t="s">
+      <c r="DD8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="DE8" s="43" t="s">
+      <c r="DE8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="DF8" s="44"/>
-      <c r="DG8" s="44"/>
-      <c r="DH8" s="44"/>
-      <c r="DI8" s="44"/>
-      <c r="DJ8" s="44"/>
-      <c r="DK8" s="45" t="s">
+      <c r="DF8" s="50"/>
+      <c r="DG8" s="50"/>
+      <c r="DH8" s="50"/>
+      <c r="DI8" s="50"/>
+      <c r="DJ8" s="50"/>
+      <c r="DK8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="DL8" s="45"/>
-      <c r="DM8" s="45"/>
-      <c r="DN8" s="45"/>
-      <c r="DO8" s="45"/>
-      <c r="DP8" s="45"/>
+      <c r="DL8" s="51"/>
+      <c r="DM8" s="51"/>
+      <c r="DN8" s="51"/>
+      <c r="DO8" s="51"/>
+      <c r="DP8" s="51"/>
     </row>
     <row r="9" spans="1:120">
-      <c r="B9" s="58"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2056,7 +2002,7 @@
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="58"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2075,7 +2021,7 @@
       <c r="P9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="58"/>
+      <c r="R9" s="43"/>
       <c r="S9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2040,7 @@
       <c r="X9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="58"/>
+      <c r="Z9" s="43"/>
       <c r="AA9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2113,7 +2059,7 @@
       <c r="AF9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="58"/>
+      <c r="AH9" s="43"/>
       <c r="AI9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2132,7 +2078,7 @@
       <c r="AN9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="58"/>
+      <c r="AP9" s="43"/>
       <c r="AQ9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2152,197 +2098,197 @@
         <v>26</v>
       </c>
       <c r="AW9" s="1"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="43" t="s">
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="43" t="s">
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="43" t="s">
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="45" t="s">
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45" t="s">
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45" t="s">
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BJ9" s="45"/>
+      <c r="BJ9" s="51"/>
       <c r="BK9" s="1"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="43" t="s">
+      <c r="BL9" s="48"/>
+      <c r="BM9" s="61"/>
+      <c r="BN9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BO9" s="44"/>
-      <c r="BP9" s="43" t="s">
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="43" t="s">
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="BS9" s="46"/>
-      <c r="BT9" s="45" t="s">
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45" t="s">
+      <c r="BU9" s="51"/>
+      <c r="BV9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45" t="s">
+      <c r="BW9" s="51"/>
+      <c r="BX9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BY9" s="45"/>
-      <c r="CA9" s="53"/>
-      <c r="CB9" s="50" t="s">
+      <c r="BY9" s="51"/>
+      <c r="CA9" s="58"/>
+      <c r="CB9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CC9" s="50"/>
-      <c r="CD9" s="54" t="s">
+      <c r="CC9" s="56"/>
+      <c r="CD9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="CE9" s="50"/>
-      <c r="CF9" s="54" t="s">
+      <c r="CE9" s="56"/>
+      <c r="CF9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="CG9" s="51"/>
-      <c r="CH9" s="52" t="s">
+      <c r="CG9" s="57"/>
+      <c r="CH9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="CI9" s="52"/>
-      <c r="CJ9" s="52" t="s">
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="CK9" s="52"/>
-      <c r="CL9" s="52" t="s">
+      <c r="CK9" s="47"/>
+      <c r="CL9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="CM9" s="52"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="43" t="s">
+      <c r="CM9" s="47"/>
+      <c r="CO9" s="48"/>
+      <c r="CP9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="43" t="s">
+      <c r="CQ9" s="50"/>
+      <c r="CR9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="CS9" s="44"/>
-      <c r="CT9" s="43" t="s">
+      <c r="CS9" s="50"/>
+      <c r="CT9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="CU9" s="46"/>
-      <c r="CV9" s="45" t="s">
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="CW9" s="45"/>
-      <c r="CX9" s="45" t="s">
+      <c r="CW9" s="51"/>
+      <c r="CX9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="CY9" s="45"/>
-      <c r="CZ9" s="45" t="s">
+      <c r="CY9" s="51"/>
+      <c r="CZ9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="DA9" s="45"/>
-      <c r="DC9" s="42"/>
-      <c r="DD9" s="62"/>
-      <c r="DE9" s="43" t="s">
+      <c r="DA9" s="51"/>
+      <c r="DC9" s="48"/>
+      <c r="DD9" s="61"/>
+      <c r="DE9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="DF9" s="44"/>
-      <c r="DG9" s="43" t="s">
+      <c r="DF9" s="50"/>
+      <c r="DG9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="DH9" s="44"/>
-      <c r="DI9" s="43" t="s">
+      <c r="DH9" s="50"/>
+      <c r="DI9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="DJ9" s="46"/>
-      <c r="DK9" s="45" t="s">
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="DL9" s="45"/>
-      <c r="DM9" s="45" t="s">
+      <c r="DL9" s="51"/>
+      <c r="DM9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="DN9" s="45"/>
-      <c r="DO9" s="45" t="s">
+      <c r="DN9" s="51"/>
+      <c r="DO9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="DP9" s="45"/>
+      <c r="DP9" s="51"/>
     </row>
     <row r="10" spans="1:120">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>107177.86433335</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>2.3992840135361</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>10715.579512589</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="63">
         <v>0.23987899721875</v>
       </c>
-      <c r="G10" s="64">
-        <v>0</v>
-      </c>
-      <c r="H10" s="64">
+      <c r="G10" s="63">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="63">
         <v>33690.021637013</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="63">
         <v>2.3829849492927</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="63">
         <v>1684.0175256637</v>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="63">
         <v>0.11911504424779</v>
       </c>
-      <c r="O10" s="64">
-        <v>0</v>
-      </c>
-      <c r="P10" s="64">
+      <c r="O10" s="63">
+        <v>0</v>
+      </c>
+      <c r="P10" s="63">
         <v>0</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="63">
         <v>73509.238623283</v>
       </c>
-      <c r="T10" s="64">
+      <c r="T10" s="63">
         <v>2.4075317327918</v>
       </c>
-      <c r="U10" s="64">
+      <c r="U10" s="63">
         <v>9190.0899046812</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="63">
         <v>0.30098846739682</v>
       </c>
-      <c r="W10" s="64">
-        <v>0</v>
-      </c>
-      <c r="X10" s="64">
+      <c r="W10" s="63">
+        <v>0</v>
+      </c>
+      <c r="X10" s="63">
         <v>0</v>
       </c>
       <c r="Z10" s="5" t="s">
@@ -2372,7 +2318,7 @@
       <c r="AT10" s="10"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
-      <c r="AX10" s="42"/>
+      <c r="AX10" s="48"/>
       <c r="AY10" s="15" t="s">
         <v>31</v>
       </c>
@@ -2409,8 +2355,8 @@
       <c r="BJ10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="63"/>
+      <c r="BL10" s="48"/>
+      <c r="BM10" s="62"/>
       <c r="BN10" s="15" t="s">
         <v>31</v>
       </c>
@@ -2447,7 +2393,7 @@
       <c r="BY10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="CA10" s="53"/>
+      <c r="CA10" s="58"/>
       <c r="CB10" s="18" t="s">
         <v>25</v>
       </c>
@@ -2484,7 +2430,7 @@
       <c r="CM10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="CO10" s="42"/>
+      <c r="CO10" s="48"/>
       <c r="CP10" s="15" t="s">
         <v>31</v>
       </c>
@@ -2521,8 +2467,8 @@
       <c r="DA10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="DC10" s="42"/>
-      <c r="DD10" s="63"/>
+      <c r="DC10" s="48"/>
+      <c r="DD10" s="62"/>
       <c r="DE10" s="15" t="s">
         <v>31</v>
       </c>
@@ -2564,64 +2510,64 @@
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>1050677.1388825</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>23.520461789275</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>151901.31463619</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="63">
         <v>3.4004633149638</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="63">
         <v>7145.2932519598</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="63">
         <v>0.15995455757668</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="63">
         <v>288195.88015031</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="63">
         <v>20.384862089012</v>
       </c>
-      <c r="M11" s="64">
+      <c r="M11" s="63">
         <v>48868.745323377</v>
       </c>
-      <c r="N11" s="64">
+      <c r="N11" s="63">
         <v>3.4566164976423</v>
       </c>
-      <c r="O11" s="64">
+      <c r="O11" s="63">
         <v>3368.0350513274</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="63">
         <v>0.23823008849558</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="64">
+      <c r="S11" s="63">
         <v>766597.38841464</v>
       </c>
-      <c r="T11" s="64">
+      <c r="T11" s="63">
         <v>25.107150794226</v>
       </c>
-      <c r="U11" s="64">
+      <c r="U11" s="63">
         <v>102958.85652926</v>
       </c>
-      <c r="V11" s="64">
+      <c r="V11" s="63">
         <v>3.3720484514398</v>
       </c>
-      <c r="W11" s="64">
+      <c r="W11" s="63">
         <v>3674.5052133169</v>
       </c>
-      <c r="X11" s="64">
+      <c r="X11" s="63">
         <v>0.12034525277435</v>
       </c>
       <c r="Z11" s="5" t="s">
@@ -2654,14 +2600,24 @@
       <c r="AX11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AY11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
+      <c r="AY11" s="63">
+        <v>30.395333333333</v>
+      </c>
+      <c r="AZ11" s="63">
+        <v>3.7336047931631</v>
+      </c>
+      <c r="BA11" s="63">
+        <v>45.399796363636</v>
+      </c>
+      <c r="BB11" s="63">
+        <v>1.3673319489451</v>
+      </c>
+      <c r="BC11" s="63">
+        <v>37.897564848485</v>
+      </c>
+      <c r="BD11" s="63">
+        <v>2.5504683710541</v>
+      </c>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
@@ -2672,42 +2628,52 @@
         <v>30</v>
       </c>
       <c r="BM11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="10"/>
-      <c r="BR11" s="10"/>
-      <c r="BS11" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN11" s="63">
+        <v>172.10905555556</v>
+      </c>
+      <c r="BO11" s="63">
+        <v>22.699973270011</v>
+      </c>
+      <c r="BP11" s="63">
+        <v>146.52387878788</v>
+      </c>
+      <c r="BQ11" s="63">
+        <v>4.2874724440862</v>
+      </c>
+      <c r="BR11" s="63">
+        <v>159.31646717172</v>
+      </c>
+      <c r="BS11" s="63">
+        <v>13.493722857049</v>
+      </c>
       <c r="BT11" s="10"/>
       <c r="BU11" s="10"/>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="10"/>
       <c r="BY11" s="10"/>
-      <c r="CA11" s="47" t="s">
+      <c r="CA11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="CB11" s="48"/>
-      <c r="CC11" s="48"/>
-      <c r="CD11" s="48"/>
-      <c r="CE11" s="48"/>
-      <c r="CF11" s="48"/>
-      <c r="CG11" s="48"/>
-      <c r="CH11" s="48"/>
-      <c r="CI11" s="48"/>
-      <c r="CJ11" s="48"/>
-      <c r="CK11" s="48"/>
-      <c r="CL11" s="48"/>
-      <c r="CM11" s="49"/>
+      <c r="CB11" s="54"/>
+      <c r="CC11" s="54"/>
+      <c r="CD11" s="54"/>
+      <c r="CE11" s="54"/>
+      <c r="CF11" s="54"/>
+      <c r="CG11" s="54"/>
+      <c r="CH11" s="54"/>
+      <c r="CI11" s="54"/>
+      <c r="CJ11" s="54"/>
+      <c r="CK11" s="54"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="55"/>
       <c r="CO11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="CP11" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="CQ11" s="10"/>
       <c r="CR11" s="10"/>
@@ -2724,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="DD11" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="DF11" s="10"/>
       <c r="DG11" s="10"/>
@@ -2743,70 +2709,70 @@
     </row>
     <row r="12" spans="1:120">
       <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="64">
-        <v>0</v>
-      </c>
-      <c r="D12" s="64">
-        <v>0</v>
-      </c>
-      <c r="E12" s="64">
-        <v>0</v>
-      </c>
-      <c r="F12" s="64">
-        <v>0</v>
-      </c>
-      <c r="G12" s="64">
-        <v>0</v>
-      </c>
-      <c r="H12" s="64">
+        <v>37</v>
+      </c>
+      <c r="C12" s="63">
+        <v>0</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0</v>
+      </c>
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63">
+        <v>0</v>
+      </c>
+      <c r="H12" s="63">
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="64">
-        <v>0</v>
-      </c>
-      <c r="L12" s="64">
-        <v>0</v>
-      </c>
-      <c r="M12" s="64">
-        <v>0</v>
-      </c>
-      <c r="N12" s="64">
-        <v>0</v>
-      </c>
-      <c r="O12" s="64">
-        <v>0</v>
-      </c>
-      <c r="P12" s="64">
+        <v>37</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0</v>
+      </c>
+      <c r="L12" s="63">
+        <v>0</v>
+      </c>
+      <c r="M12" s="63">
+        <v>0</v>
+      </c>
+      <c r="N12" s="63">
+        <v>0</v>
+      </c>
+      <c r="O12" s="63">
+        <v>0</v>
+      </c>
+      <c r="P12" s="63">
         <v>0</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="64">
-        <v>0</v>
-      </c>
-      <c r="T12" s="64">
-        <v>0</v>
-      </c>
-      <c r="U12" s="64">
-        <v>0</v>
-      </c>
-      <c r="V12" s="64">
-        <v>0</v>
-      </c>
-      <c r="W12" s="64">
-        <v>0</v>
-      </c>
-      <c r="X12" s="64">
+        <v>37</v>
+      </c>
+      <c r="S12" s="63">
+        <v>0</v>
+      </c>
+      <c r="T12" s="63">
+        <v>0</v>
+      </c>
+      <c r="U12" s="63">
+        <v>0</v>
+      </c>
+      <c r="V12" s="63">
+        <v>0</v>
+      </c>
+      <c r="W12" s="63">
+        <v>0</v>
+      </c>
+      <c r="X12" s="63">
         <v>0</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2815,7 +2781,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AH12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
@@ -2824,7 +2790,7 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AP12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
@@ -2835,14 +2801,24 @@
       <c r="AX12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AY12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
+      <c r="AY12" s="63">
+        <v>59.6636271809</v>
+      </c>
+      <c r="AZ12" s="63">
+        <v>0.25626181727602</v>
+      </c>
+      <c r="BA12" s="63">
+        <v>39.701456381057</v>
+      </c>
+      <c r="BB12" s="63">
+        <v>0.069040203650691</v>
+      </c>
+      <c r="BC12" s="63">
+        <v>49.682541780978</v>
+      </c>
+      <c r="BD12" s="63">
+        <v>0.16265101046336</v>
+      </c>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
@@ -2853,16 +2829,26 @@
         <v>33</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="10"/>
-      <c r="BR12" s="10"/>
-      <c r="BS12" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN12" s="63">
+        <v>45.027892868075</v>
+      </c>
+      <c r="BO12" s="63">
+        <v>0.43013464489442</v>
+      </c>
+      <c r="BP12" s="63">
+        <v>47.340969431517</v>
+      </c>
+      <c r="BQ12" s="63">
+        <v>0.064436982330428</v>
+      </c>
+      <c r="BR12" s="63">
+        <v>46.184431149796</v>
+      </c>
+      <c r="BS12" s="63">
+        <v>0.24728581361242</v>
+      </c>
       <c r="BT12" s="10"/>
       <c r="BU12" s="10"/>
       <c r="BV12" s="10"/>
@@ -2870,10 +2856,10 @@
       <c r="BX12" s="10"/>
       <c r="BY12" s="10"/>
       <c r="CA12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB12" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="CC12" s="10"/>
       <c r="CD12" s="10"/>
@@ -2890,7 +2876,7 @@
         <v>33</v>
       </c>
       <c r="CP12" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
@@ -2907,10 +2893,10 @@
         <v>33</v>
       </c>
       <c r="DD12" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="DF12" s="10"/>
       <c r="DG12" s="10"/>
@@ -2926,70 +2912,70 @@
     </row>
     <row r="13" spans="1:120">
       <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="64">
-        <v>0</v>
-      </c>
-      <c r="D13" s="64">
-        <v>0</v>
-      </c>
-      <c r="E13" s="64">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64">
-        <v>0</v>
-      </c>
-      <c r="G13" s="64">
-        <v>0</v>
-      </c>
-      <c r="H13" s="64">
+        <v>42</v>
+      </c>
+      <c r="C13" s="63">
+        <v>0</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
+      <c r="F13" s="63">
+        <v>0</v>
+      </c>
+      <c r="G13" s="63">
+        <v>0</v>
+      </c>
+      <c r="H13" s="63">
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="64">
-        <v>0</v>
-      </c>
-      <c r="L13" s="64">
-        <v>0</v>
-      </c>
-      <c r="M13" s="64">
-        <v>0</v>
-      </c>
-      <c r="N13" s="64">
-        <v>0</v>
-      </c>
-      <c r="O13" s="64">
-        <v>0</v>
-      </c>
-      <c r="P13" s="64">
+        <v>42</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0</v>
+      </c>
+      <c r="L13" s="63">
+        <v>0</v>
+      </c>
+      <c r="M13" s="63">
+        <v>0</v>
+      </c>
+      <c r="N13" s="63">
+        <v>0</v>
+      </c>
+      <c r="O13" s="63">
+        <v>0</v>
+      </c>
+      <c r="P13" s="63">
         <v>0</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="64">
-        <v>0</v>
-      </c>
-      <c r="T13" s="64">
-        <v>0</v>
-      </c>
-      <c r="U13" s="64">
-        <v>0</v>
-      </c>
-      <c r="V13" s="64">
-        <v>0</v>
-      </c>
-      <c r="W13" s="64">
-        <v>0</v>
-      </c>
-      <c r="X13" s="64">
+        <v>42</v>
+      </c>
+      <c r="S13" s="63">
+        <v>0</v>
+      </c>
+      <c r="T13" s="63">
+        <v>0</v>
+      </c>
+      <c r="U13" s="63">
+        <v>0</v>
+      </c>
+      <c r="V13" s="63">
+        <v>0</v>
+      </c>
+      <c r="W13" s="63">
+        <v>0</v>
+      </c>
+      <c r="X13" s="63">
         <v>0</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -2998,7 +2984,7 @@
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AH13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
@@ -3007,7 +2993,7 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AP13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
@@ -3016,16 +3002,26 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AX13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="AY13" s="63">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="63">
+        <v>0</v>
+      </c>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
@@ -3033,19 +3029,29 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
       <c r="BL13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BM13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BO13" s="10"/>
-      <c r="BP13" s="10"/>
-      <c r="BQ13" s="10"/>
-      <c r="BR13" s="10"/>
-      <c r="BS13" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="63">
+        <v>0</v>
+      </c>
       <c r="BT13" s="10"/>
       <c r="BU13" s="10"/>
       <c r="BV13" s="10"/>
@@ -3053,10 +3059,10 @@
       <c r="BX13" s="10"/>
       <c r="BY13" s="10"/>
       <c r="CA13" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB13" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="CC13" s="10"/>
       <c r="CD13" s="10"/>
@@ -3070,10 +3076,10 @@
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CO13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CP13" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
@@ -3087,13 +3093,13 @@
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
       <c r="DC13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="DD13" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE13" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="DF13" s="10"/>
       <c r="DG13" s="10"/>
@@ -3109,70 +3115,70 @@
     </row>
     <row r="14" spans="1:120">
       <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="64">
+        <v>47</v>
+      </c>
+      <c r="C14" s="63">
         <v>886090.24131755</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="63">
         <v>19.836018974322</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="63">
         <v>364471.47280702</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="63">
         <v>8.1590595552084</v>
       </c>
-      <c r="G14" s="64">
-        <v>0</v>
-      </c>
-      <c r="H14" s="64">
+      <c r="G14" s="63">
+        <v>0</v>
+      </c>
+      <c r="H14" s="63">
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="64">
+        <v>47</v>
+      </c>
+      <c r="K14" s="63">
         <v>148328.93799075</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="63">
         <v>10.491700794522</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="63">
         <v>67412.280353155</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="63">
         <v>4.7682501130418</v>
       </c>
-      <c r="O14" s="64">
-        <v>0</v>
-      </c>
-      <c r="P14" s="64">
+      <c r="O14" s="63">
+        <v>0</v>
+      </c>
+      <c r="P14" s="63">
         <v>0</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" s="64">
+        <v>47</v>
+      </c>
+      <c r="S14" s="63">
         <v>750027.67311221</v>
       </c>
-      <c r="T14" s="64">
+      <c r="T14" s="63">
         <v>24.564469137593</v>
       </c>
-      <c r="U14" s="64">
+      <c r="U14" s="63">
         <v>301510.33823991</v>
       </c>
-      <c r="V14" s="64">
+      <c r="V14" s="63">
         <v>9.8748908391963</v>
       </c>
-      <c r="W14" s="64">
-        <v>0</v>
-      </c>
-      <c r="X14" s="64">
+      <c r="W14" s="63">
+        <v>0</v>
+      </c>
+      <c r="X14" s="63">
         <v>0</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -3181,7 +3187,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AH14" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -3190,7 +3196,7 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AP14" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
@@ -3199,16 +3205,26 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AX14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="AY14" s="63">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="63">
+        <v>0</v>
+      </c>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
@@ -3216,19 +3232,29 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
       <c r="BL14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BM14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BO14" s="10"/>
-      <c r="BP14" s="10"/>
-      <c r="BQ14" s="10"/>
-      <c r="BR14" s="10"/>
-      <c r="BS14" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="63">
+        <v>0</v>
+      </c>
       <c r="BT14" s="10"/>
       <c r="BU14" s="10"/>
       <c r="BV14" s="10"/>
@@ -3251,10 +3277,10 @@
       <c r="CL14" s="8"/>
       <c r="CM14" s="9"/>
       <c r="CO14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="CP14" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
@@ -3268,13 +3294,13 @@
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
       <c r="DC14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="DD14" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE14" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="DF14" s="10"/>
       <c r="DG14" s="10"/>
@@ -3290,70 +3316,70 @@
     </row>
     <row r="15" spans="1:120">
       <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="64">
+        <v>50</v>
+      </c>
+      <c r="C15" s="63">
         <v>1006062.0272071</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="63">
         <v>22.521707756708</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="63">
         <v>838199.33070833</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="63">
         <v>18.763932896351</v>
       </c>
-      <c r="G15" s="64">
-        <v>0</v>
-      </c>
-      <c r="H15" s="64">
+      <c r="G15" s="63">
+        <v>0</v>
+      </c>
+      <c r="H15" s="63">
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="64">
+        <v>50</v>
+      </c>
+      <c r="K15" s="63">
         <v>399386.1687549</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="63">
         <v>28.249647309605</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="63">
         <v>424556.16781829</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="63">
         <v>30.029988372844</v>
       </c>
-      <c r="O15" s="64">
-        <v>0</v>
-      </c>
-      <c r="P15" s="64">
+      <c r="O15" s="63">
+        <v>0</v>
+      </c>
+      <c r="P15" s="63">
         <v>0</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="64">
+        <v>50</v>
+      </c>
+      <c r="S15" s="63">
         <v>599156.74113274</v>
       </c>
-      <c r="T15" s="64">
+      <c r="T15" s="63">
         <v>19.623232320302</v>
       </c>
-      <c r="U15" s="64">
+      <c r="U15" s="63">
         <v>398854.11142169</v>
       </c>
-      <c r="V15" s="64">
+      <c r="V15" s="63">
         <v>13.063037354029</v>
       </c>
-      <c r="W15" s="64">
-        <v>0</v>
-      </c>
-      <c r="X15" s="64">
+      <c r="W15" s="63">
+        <v>0</v>
+      </c>
+      <c r="X15" s="63">
         <v>0</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -3362,7 +3388,7 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AH15" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
@@ -3371,7 +3397,7 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AP15" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -3380,14 +3406,26 @@
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AX15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="AY15" s="63">
+        <v>73.715580295567</v>
+      </c>
+      <c r="AZ15" s="63">
+        <v>0.51289752686565</v>
+      </c>
+      <c r="BA15" s="63">
+        <v>91.524911854103</v>
+      </c>
+      <c r="BB15" s="63">
+        <v>0.04722697824178</v>
+      </c>
+      <c r="BC15" s="63">
+        <v>82.620246074835</v>
+      </c>
+      <c r="BD15" s="63">
+        <v>0.28006225255371</v>
+      </c>
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
@@ -3395,19 +3433,29 @@
       <c r="BI15" s="10"/>
       <c r="BJ15" s="10"/>
       <c r="BL15" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="BM15" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN15" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO15" s="10"/>
-      <c r="BP15" s="10"/>
-      <c r="BQ15" s="10"/>
-      <c r="BR15" s="10"/>
-      <c r="BS15" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="BN15" s="64">
+        <v>276.51235591804</v>
+      </c>
+      <c r="BO15" s="63">
+        <v>0.47066665576123</v>
+      </c>
+      <c r="BP15" s="63">
+        <v>243.63121616588</v>
+      </c>
+      <c r="BQ15" s="63">
+        <v>0.11387802094272</v>
+      </c>
+      <c r="BR15" s="63">
+        <v>260.07178604196</v>
+      </c>
+      <c r="BS15" s="63">
+        <v>0.29227233835198</v>
+      </c>
       <c r="BT15" s="10"/>
       <c r="BU15" s="10"/>
       <c r="BV15" s="10"/>
@@ -3415,10 +3463,10 @@
       <c r="BX15" s="10"/>
       <c r="BY15" s="10"/>
       <c r="CA15" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB15" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="CC15" s="10"/>
       <c r="CD15" s="10"/>
@@ -3432,10 +3480,10 @@
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CO15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CP15" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="CP15" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
@@ -3449,13 +3497,13 @@
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
       <c r="DC15" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="DD15" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="DE15" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="DF15" s="10"/>
       <c r="DG15" s="10"/>
@@ -3471,70 +3519,70 @@
     </row>
     <row r="16" spans="1:120">
       <c r="B16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="64">
+        <v>55</v>
+      </c>
+      <c r="C16" s="63">
         <v>580722.52912642</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="63">
         <v>13.000056393172</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="63">
         <v>382497.86564323</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="63">
         <v>8.5625984428572</v>
       </c>
-      <c r="G16" s="64">
-        <v>0</v>
-      </c>
-      <c r="H16" s="64">
+      <c r="G16" s="63">
+        <v>0</v>
+      </c>
+      <c r="H16" s="63">
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="64">
+        <v>55</v>
+      </c>
+      <c r="K16" s="63">
         <v>160094.49471501</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="63">
         <v>11.323909954137</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="63">
         <v>156720.01224785</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="63">
         <v>11.08522382275</v>
       </c>
-      <c r="O16" s="64">
-        <v>0</v>
-      </c>
-      <c r="P16" s="64">
+      <c r="O16" s="63">
+        <v>0</v>
+      </c>
+      <c r="P16" s="63">
         <v>0</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="64">
+        <v>55</v>
+      </c>
+      <c r="S16" s="63">
         <v>422828.32678589</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="63">
         <v>13.848226880395</v>
       </c>
-      <c r="U16" s="64">
+      <c r="U16" s="63">
         <v>222466.38056832</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="63">
         <v>7.2860892144774</v>
       </c>
-      <c r="W16" s="64">
-        <v>0</v>
-      </c>
-      <c r="X16" s="64">
+      <c r="W16" s="63">
+        <v>0</v>
+      </c>
+      <c r="X16" s="63">
         <v>0</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3543,7 +3591,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AH16" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
@@ -3552,7 +3600,7 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AP16" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -3561,14 +3609,26 @@
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AX16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="AY16" s="63">
+        <v>97.897981897147</v>
+      </c>
+      <c r="AZ16" s="63">
+        <v>0.12048136780989</v>
+      </c>
+      <c r="BA16" s="63">
+        <v>95.517805714286</v>
+      </c>
+      <c r="BB16" s="63">
+        <v>0.063329251748347</v>
+      </c>
+      <c r="BC16" s="63">
+        <v>96.707893805716</v>
+      </c>
+      <c r="BD16" s="63">
+        <v>0.091905309779116</v>
+      </c>
       <c r="BE16" s="11"/>
       <c r="BF16" s="11"/>
       <c r="BG16" s="11"/>
@@ -3576,19 +3636,29 @@
       <c r="BI16" s="11"/>
       <c r="BJ16" s="11"/>
       <c r="BL16" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="BM16" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="BN16" s="63">
+        <v>470.29218101822</v>
+      </c>
+      <c r="BO16" s="63">
+        <v>0.13512648902762</v>
+      </c>
+      <c r="BP16" s="63">
+        <v>397.14254048574</v>
+      </c>
+      <c r="BQ16" s="63">
+        <v>0.10672296784937</v>
+      </c>
+      <c r="BR16" s="63">
+        <v>433.71736075198</v>
+      </c>
+      <c r="BS16" s="63">
+        <v>0.12092472843849</v>
+      </c>
       <c r="BT16" s="10"/>
       <c r="BU16" s="10"/>
       <c r="BV16" s="10"/>
@@ -3596,10 +3666,10 @@
       <c r="BX16" s="10"/>
       <c r="BY16" s="10"/>
       <c r="CA16" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB16" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="CC16" s="10"/>
       <c r="CD16" s="10"/>
@@ -3613,10 +3683,10 @@
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CO16" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="CP16" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
@@ -3630,13 +3700,13 @@
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
       <c r="DC16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="DD16" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="DE16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="DD16" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="DE16" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="DF16" s="10"/>
       <c r="DG16" s="10"/>
@@ -3652,70 +3722,70 @@
     </row>
     <row r="17" spans="1:120">
       <c r="B17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="64">
+        <v>59</v>
+      </c>
+      <c r="C17" s="63">
         <v>25032.425088148</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>0.56037594803375</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="63">
         <v>60771.961547815</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <v>1.3604413254532</v>
       </c>
-      <c r="G17" s="64">
-        <v>0</v>
-      </c>
-      <c r="H17" s="64">
+      <c r="G17" s="63">
+        <v>0</v>
+      </c>
+      <c r="H17" s="63">
         <v>0</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="64">
+        <v>59</v>
+      </c>
+      <c r="K17" s="63">
         <v>20214.65772379</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="63">
         <v>1.4298365738647</v>
       </c>
-      <c r="M17" s="64">
+      <c r="M17" s="63">
         <v>28650.863891674</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="63">
         <v>2.0265519023319</v>
       </c>
-      <c r="O17" s="64">
-        <v>0</v>
-      </c>
-      <c r="P17" s="64">
+      <c r="O17" s="63">
+        <v>0</v>
+      </c>
+      <c r="P17" s="63">
         <v>0</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" s="64">
+        <v>59</v>
+      </c>
+      <c r="S17" s="63">
         <v>3676.4186490114</v>
       </c>
-      <c r="T17" s="64">
+      <c r="T17" s="63">
         <v>0.12040792050482</v>
       </c>
-      <c r="U17" s="64">
+      <c r="U17" s="63">
         <v>31246.688363055</v>
       </c>
-      <c r="V17" s="64">
+      <c r="V17" s="63">
         <v>1.0233733226953</v>
       </c>
-      <c r="W17" s="64">
-        <v>0</v>
-      </c>
-      <c r="X17" s="64">
+      <c r="W17" s="63">
+        <v>0</v>
+      </c>
+      <c r="X17" s="63">
         <v>0</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -3724,7 +3794,7 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AH17" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
@@ -3733,7 +3803,7 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="10"/>
       <c r="AP17" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -3742,14 +3812,26 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AX17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="AY17" s="63">
+        <v>129.10866650462</v>
+      </c>
+      <c r="AZ17" s="63">
+        <v>1.531244960864</v>
+      </c>
+      <c r="BA17" s="63">
+        <v>88.349669790916</v>
+      </c>
+      <c r="BB17" s="63">
+        <v>0.072870502458348</v>
+      </c>
+      <c r="BC17" s="63">
+        <v>108.72916814777</v>
+      </c>
+      <c r="BD17" s="63">
+        <v>0.80205773166115</v>
+      </c>
       <c r="BE17" s="11"/>
       <c r="BF17" s="11"/>
       <c r="BG17" s="11"/>
@@ -3757,19 +3839,29 @@
       <c r="BI17" s="11"/>
       <c r="BJ17" s="11"/>
       <c r="BL17" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="BM17" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10"/>
-      <c r="BR17" s="10"/>
-      <c r="BS17" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="BN17" s="63">
+        <v>477.12307945149</v>
+      </c>
+      <c r="BO17" s="63">
+        <v>0.72440393111337</v>
+      </c>
+      <c r="BP17" s="63">
+        <v>264.33495188719</v>
+      </c>
+      <c r="BQ17" s="63">
+        <v>0.055818274993803</v>
+      </c>
+      <c r="BR17" s="63">
+        <v>370.72901566934</v>
+      </c>
+      <c r="BS17" s="63">
+        <v>0.39011110305359</v>
+      </c>
       <c r="BT17" s="10"/>
       <c r="BU17" s="10"/>
       <c r="BV17" s="10"/>
@@ -3777,7 +3869,7 @@
       <c r="BX17" s="10"/>
       <c r="BY17" s="10"/>
       <c r="CA17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CB17" s="37"/>
       <c r="CC17" s="8"/>
@@ -3792,10 +3884,10 @@
       <c r="CL17" s="8"/>
       <c r="CM17" s="9"/>
       <c r="CO17" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="CP17" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="CQ17" s="10"/>
       <c r="CR17" s="10"/>
@@ -3809,13 +3901,13 @@
       <c r="CZ17" s="10"/>
       <c r="DA17" s="10"/>
       <c r="DC17" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="DD17" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="DE17" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="DF17" s="10"/>
       <c r="DG17" s="10"/>
@@ -3831,70 +3923,70 @@
     </row>
     <row r="18" spans="1:120">
       <c r="B18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="64">
+        <v>62</v>
+      </c>
+      <c r="C18" s="63">
         <v>5358.1290709941</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>0.11994709450932</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>5361.1680657434</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <v>0.12001512545549</v>
       </c>
-      <c r="G18" s="64">
-        <v>0</v>
-      </c>
-      <c r="H18" s="64">
+      <c r="G18" s="63">
+        <v>0</v>
+      </c>
+      <c r="H18" s="63">
         <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="64">
-        <v>0</v>
-      </c>
-      <c r="L18" s="64">
-        <v>0</v>
-      </c>
-      <c r="M18" s="64">
+        <v>62</v>
+      </c>
+      <c r="K18" s="63">
+        <v>0</v>
+      </c>
+      <c r="L18" s="63">
+        <v>0</v>
+      </c>
+      <c r="M18" s="63">
         <v>1684.0175256637</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="63">
         <v>0.11911504424779</v>
       </c>
-      <c r="O18" s="64">
-        <v>0</v>
-      </c>
-      <c r="P18" s="64">
+      <c r="O18" s="63">
+        <v>0</v>
+      </c>
+      <c r="P18" s="63">
         <v>0</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="64">
+        <v>62</v>
+      </c>
+      <c r="S18" s="63">
         <v>5515.5846913643</v>
       </c>
-      <c r="T18" s="64">
+      <c r="T18" s="63">
         <v>0.18064321462247</v>
       </c>
-      <c r="U18" s="64">
+      <c r="U18" s="63">
         <v>3678.3320847059</v>
       </c>
-      <c r="V18" s="64">
+      <c r="V18" s="63">
         <v>0.12047058823529</v>
       </c>
-      <c r="W18" s="64">
-        <v>0</v>
-      </c>
-      <c r="X18" s="64">
+      <c r="W18" s="63">
+        <v>0</v>
+      </c>
+      <c r="X18" s="63">
         <v>0</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -3903,7 +3995,7 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AH18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
@@ -3912,7 +4004,7 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
       <c r="AP18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -3921,14 +4013,26 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AX18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="AY18" s="63">
+        <v>51.3766</v>
+      </c>
+      <c r="AZ18" s="63">
+        <v>0.89999952185688</v>
+      </c>
+      <c r="BA18" s="63">
+        <v>41.620363636364</v>
+      </c>
+      <c r="BB18" s="63">
+        <v>3.1079697473725</v>
+      </c>
+      <c r="BC18" s="63">
+        <v>46.498481818182</v>
+      </c>
+      <c r="BD18" s="63">
+        <v>2.0039846346147</v>
+      </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
       <c r="BG18" s="11"/>
@@ -3936,19 +4040,29 @@
       <c r="BI18" s="11"/>
       <c r="BJ18" s="11"/>
       <c r="BL18" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="BM18" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO18" s="10"/>
-      <c r="BP18" s="10"/>
-      <c r="BQ18" s="10"/>
-      <c r="BR18" s="10"/>
-      <c r="BS18" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="BN18" s="63">
+        <v>1036.6455403469</v>
+      </c>
+      <c r="BO18" s="63">
+        <v>0.21004258780728</v>
+      </c>
+      <c r="BP18" s="63">
+        <v>1122.9857604846</v>
+      </c>
+      <c r="BQ18" s="63">
+        <v>1.9073449757269</v>
+      </c>
+      <c r="BR18" s="63">
+        <v>1079.8156504157</v>
+      </c>
+      <c r="BS18" s="63">
+        <v>1.0586937817671</v>
+      </c>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
       <c r="BV18" s="10"/>
@@ -3956,10 +4070,10 @@
       <c r="BX18" s="10"/>
       <c r="BY18" s="10"/>
       <c r="CA18" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB18" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="CC18" s="10"/>
       <c r="CD18" s="10"/>
@@ -3973,10 +4087,10 @@
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CO18" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="CP18" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
@@ -3990,13 +4104,13 @@
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
       <c r="DC18" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="DD18" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="DE18" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="DF18" s="10"/>
       <c r="DG18" s="10"/>
@@ -4012,70 +4126,70 @@
     </row>
     <row r="19" spans="1:120">
       <c r="B19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="64">
+        <v>66</v>
+      </c>
+      <c r="C19" s="63">
         <v>664716.05831853</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>14.880335806133</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <v>757644.99789052</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <v>16.960643344418</v>
       </c>
-      <c r="G19" s="64">
-        <v>0</v>
-      </c>
-      <c r="H19" s="64">
+      <c r="G19" s="63">
+        <v>0</v>
+      </c>
+      <c r="H19" s="63">
         <v>0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="64">
+        <v>66</v>
+      </c>
+      <c r="K19" s="63">
         <v>203930.52970887</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="63">
         <v>14.42454944771</v>
       </c>
-      <c r="M19" s="64">
+      <c r="M19" s="63">
         <v>224129.06889309</v>
       </c>
-      <c r="N19" s="64">
+      <c r="N19" s="63">
         <v>15.853245914347</v>
       </c>
-      <c r="O19" s="64">
-        <v>0</v>
-      </c>
-      <c r="P19" s="64">
+      <c r="O19" s="63">
+        <v>0</v>
+      </c>
+      <c r="P19" s="63">
         <v>0</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" s="64">
+        <v>66</v>
+      </c>
+      <c r="S19" s="63">
         <v>461383.843426</v>
       </c>
-      <c r="T19" s="64">
+      <c r="T19" s="63">
         <v>15.110974686299</v>
       </c>
-      <c r="U19" s="64">
+      <c r="U19" s="63">
         <v>534969.61947706</v>
       </c>
-      <c r="V19" s="64">
+      <c r="V19" s="63">
         <v>17.521013128309</v>
       </c>
-      <c r="W19" s="64">
-        <v>0</v>
-      </c>
-      <c r="X19" s="64">
+      <c r="W19" s="63">
+        <v>0</v>
+      </c>
+      <c r="X19" s="63">
         <v>0</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4084,7 +4198,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AH19" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -4093,7 +4207,7 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="10"/>
       <c r="AP19" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
@@ -4102,14 +4216,26 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AX19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="AY19" s="63">
+        <v>16.152</v>
+      </c>
+      <c r="AZ19" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="63">
+        <v>49.536</v>
+      </c>
+      <c r="BB19" s="63">
+        <v>5.0079403617322</v>
+      </c>
+      <c r="BC19" s="63">
+        <v>32.844</v>
+      </c>
+      <c r="BD19" s="63">
+        <v>2.5039701808661</v>
+      </c>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11"/>
       <c r="BG19" s="11"/>
@@ -4117,19 +4243,29 @@
       <c r="BI19" s="11"/>
       <c r="BJ19" s="11"/>
       <c r="BL19" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="BM19" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO19" s="10"/>
-      <c r="BP19" s="10"/>
-      <c r="BQ19" s="10"/>
-      <c r="BR19" s="10"/>
-      <c r="BS19" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="BN19" s="63">
+        <v>646.08</v>
+      </c>
+      <c r="BO19" s="63">
+        <v>0.79727710020256</v>
+      </c>
+      <c r="BP19" s="63">
+        <v>964.48645378151</v>
+      </c>
+      <c r="BQ19" s="63">
+        <v>0.8380963105772</v>
+      </c>
+      <c r="BR19" s="63">
+        <v>805.28322689076</v>
+      </c>
+      <c r="BS19" s="63">
+        <v>0.81768670538988</v>
+      </c>
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
       <c r="BV19" s="11"/>
@@ -4137,10 +4273,10 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
       <c r="CA19" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB19" s="10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="CC19" s="10"/>
       <c r="CD19" s="10"/>
@@ -4154,10 +4290,10 @@
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CO19" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="CP19" s="10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
@@ -4171,13 +4307,13 @@
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
       <c r="DC19" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="DD19" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="DE19" s="10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="DF19" s="10"/>
       <c r="DG19" s="10"/>
@@ -4193,70 +4329,70 @@
     </row>
     <row r="20" spans="1:120">
       <c r="B20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="64">
+        <v>70</v>
+      </c>
+      <c r="C20" s="63">
         <v>1791.2652705985</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>0.040099270072993</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="63">
         <v>3577.927898288</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="63">
         <v>0.08009550536711</v>
       </c>
-      <c r="G20" s="64">
-        <v>0</v>
-      </c>
-      <c r="H20" s="64">
+      <c r="G20" s="63">
+        <v>0</v>
+      </c>
+      <c r="H20" s="63">
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="64">
+        <v>70</v>
+      </c>
+      <c r="K20" s="63">
         <v>1687.2412335766</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="63">
         <v>0.11934306569343</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="63">
         <v>1687.2412335766</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="63">
         <v>0.11934306569343</v>
       </c>
-      <c r="O20" s="64">
-        <v>0</v>
-      </c>
-      <c r="P20" s="64">
+      <c r="O20" s="63">
+        <v>0</v>
+      </c>
+      <c r="P20" s="63">
         <v>0</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="64">
-        <v>0</v>
-      </c>
-      <c r="T20" s="64">
-        <v>0</v>
-      </c>
-      <c r="U20" s="64">
+        <v>70</v>
+      </c>
+      <c r="S20" s="63">
+        <v>0</v>
+      </c>
+      <c r="T20" s="63">
+        <v>0</v>
+      </c>
+      <c r="U20" s="63">
         <v>1839.1660423529</v>
       </c>
-      <c r="V20" s="64">
+      <c r="V20" s="63">
         <v>0.060235294117647</v>
       </c>
-      <c r="W20" s="64">
-        <v>0</v>
-      </c>
-      <c r="X20" s="64">
+      <c r="W20" s="63">
+        <v>0</v>
+      </c>
+      <c r="X20" s="63">
         <v>0</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -4265,7 +4401,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AH20" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -4274,7 +4410,7 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AP20" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
@@ -4283,14 +4419,26 @@
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
       <c r="AX20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="AY20" s="63">
+        <v>105.06704254777</v>
+      </c>
+      <c r="AZ20" s="63">
+        <v>0.31739317307107</v>
+      </c>
+      <c r="BA20" s="63">
+        <v>50.053774367916</v>
+      </c>
+      <c r="BB20" s="63">
+        <v>0.0076934879684228</v>
+      </c>
+      <c r="BC20" s="63">
+        <v>77.560408457844</v>
+      </c>
+      <c r="BD20" s="63">
+        <v>0.16254333051975</v>
+      </c>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
@@ -4298,19 +4446,29 @@
       <c r="BI20" s="11"/>
       <c r="BJ20" s="11"/>
       <c r="BL20" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="BM20" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO20" s="10"/>
-      <c r="BP20" s="10"/>
-      <c r="BQ20" s="10"/>
-      <c r="BR20" s="10"/>
-      <c r="BS20" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="BN20" s="63">
+        <v>1490.9550187282</v>
+      </c>
+      <c r="BO20" s="63">
+        <v>2.1126438258524</v>
+      </c>
+      <c r="BP20" s="63">
+        <v>1671.8889420098</v>
+      </c>
+      <c r="BQ20" s="63">
+        <v>1.4504462091821</v>
+      </c>
+      <c r="BR20" s="63">
+        <v>1581.421980369</v>
+      </c>
+      <c r="BS20" s="63">
+        <v>1.7815450175173</v>
+      </c>
       <c r="BT20" s="11"/>
       <c r="BU20" s="11"/>
       <c r="BV20" s="11"/>
@@ -4318,7 +4476,7 @@
       <c r="BX20" s="11"/>
       <c r="BY20" s="11"/>
       <c r="CA20" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="CB20" s="37"/>
       <c r="CC20" s="8"/>
@@ -4333,10 +4491,10 @@
       <c r="CL20" s="8"/>
       <c r="CM20" s="9"/>
       <c r="CO20" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="CP20" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="CQ20" s="10"/>
       <c r="CR20" s="10"/>
@@ -4350,13 +4508,13 @@
       <c r="CZ20" s="10"/>
       <c r="DA20" s="10"/>
       <c r="DC20" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="DD20" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="DE20" s="10" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="DF20" s="10"/>
       <c r="DG20" s="10"/>
@@ -4372,70 +4530,70 @@
     </row>
     <row r="21" spans="1:120">
       <c r="B21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="64">
+        <v>73</v>
+      </c>
+      <c r="C21" s="63">
         <v>16093.771577932</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>0.36027522198368</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="63">
         <v>21466.623382636</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="63">
         <v>0.48055189965688</v>
       </c>
-      <c r="G21" s="64">
-        <v>0</v>
-      </c>
-      <c r="H21" s="64">
+      <c r="G21" s="63">
+        <v>0</v>
+      </c>
+      <c r="H21" s="63">
         <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="64">
+        <v>73</v>
+      </c>
+      <c r="K21" s="63">
         <v>5061.7237007299</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="63">
         <v>0.35802919708029</v>
       </c>
-      <c r="M21" s="64">
+      <c r="M21" s="63">
         <v>18537.087613953</v>
       </c>
-      <c r="N21" s="64">
+      <c r="N21" s="63">
         <v>1.3111775725082</v>
       </c>
-      <c r="O21" s="64">
-        <v>0</v>
-      </c>
-      <c r="P21" s="64">
+      <c r="O21" s="63">
+        <v>0</v>
+      </c>
+      <c r="P21" s="63">
         <v>0</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S21" s="64">
+        <v>73</v>
+      </c>
+      <c r="S21" s="63">
         <v>11034.996254118</v>
       </c>
-      <c r="T21" s="64">
+      <c r="T21" s="63">
         <v>0.36141176470588</v>
       </c>
-      <c r="U21" s="64">
+      <c r="U21" s="63">
         <v>1839.1660423529</v>
       </c>
-      <c r="V21" s="64">
+      <c r="V21" s="63">
         <v>0.060235294117647</v>
       </c>
-      <c r="W21" s="64">
-        <v>0</v>
-      </c>
-      <c r="X21" s="64">
+      <c r="W21" s="63">
+        <v>0</v>
+      </c>
+      <c r="X21" s="63">
         <v>0</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -4444,7 +4602,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AH21" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -4453,7 +4611,7 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
       <c r="AP21" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -4462,14 +4620,26 @@
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
       <c r="AX21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="AY21" s="63">
+        <v>23.544</v>
+      </c>
+      <c r="AZ21" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="63">
+        <v>24.576</v>
+      </c>
+      <c r="BB21" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="63">
+        <v>24.06</v>
+      </c>
+      <c r="BD21" s="63">
+        <v>0</v>
+      </c>
       <c r="BE21" s="11"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
@@ -4477,19 +4647,29 @@
       <c r="BI21" s="11"/>
       <c r="BJ21" s="11"/>
       <c r="BL21" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="BM21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN21" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO21" s="10"/>
-      <c r="BP21" s="10"/>
-      <c r="BQ21" s="10"/>
-      <c r="BR21" s="10"/>
-      <c r="BS21" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="BN21" s="63">
+        <v>490.68405253283</v>
+      </c>
+      <c r="BO21" s="63">
+        <v>2.5746292900939</v>
+      </c>
+      <c r="BP21" s="63">
+        <v>409.6</v>
+      </c>
+      <c r="BQ21" s="63">
+        <v>0.81554494042992</v>
+      </c>
+      <c r="BR21" s="63">
+        <v>450.14202626642</v>
+      </c>
+      <c r="BS21" s="63">
+        <v>1.6950871152619</v>
+      </c>
       <c r="BT21" s="11"/>
       <c r="BU21" s="11"/>
       <c r="BV21" s="11"/>
@@ -4497,10 +4677,10 @@
       <c r="BX21" s="11"/>
       <c r="BY21" s="11"/>
       <c r="CA21" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB21" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="CC21" s="10"/>
       <c r="CD21" s="10"/>
@@ -4514,10 +4694,10 @@
       <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
       <c r="CO21" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="CP21" s="10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="CQ21" s="10"/>
       <c r="CR21" s="10"/>
@@ -4531,13 +4711,13 @@
       <c r="CZ21" s="10"/>
       <c r="DA21" s="10"/>
       <c r="DC21" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="DD21" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="DE21" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="DF21" s="10"/>
       <c r="DG21" s="10"/>
@@ -4553,70 +4733,70 @@
     </row>
     <row r="22" spans="1:120">
       <c r="B22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="64">
+        <v>78</v>
+      </c>
+      <c r="C22" s="63">
         <v>3189505.4509916</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>71.400279220429</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="63">
         <v>568261.97731824</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="63">
         <v>12.721114440567</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="63">
         <v>1784.8038156153</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="63">
         <v>0.039954623921085</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="64">
+        <v>78</v>
+      </c>
+      <c r="K22" s="63">
         <v>995924.88891315</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="63">
         <v>70.444419611136</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="63">
         <v>213973.38441251</v>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="63">
         <v>15.13490730573</v>
       </c>
-      <c r="O22" s="64">
-        <v>0</v>
-      </c>
-      <c r="P22" s="64">
+      <c r="O22" s="63">
+        <v>0</v>
+      </c>
+      <c r="P22" s="63">
         <v>0</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S22" s="64">
+        <v>78</v>
+      </c>
+      <c r="S22" s="63">
         <v>2194835.3275097</v>
       </c>
-      <c r="T22" s="64">
+      <c r="T22" s="63">
         <v>71.883967215493</v>
       </c>
-      <c r="U22" s="64">
+      <c r="U22" s="63">
         <v>351119.98549107</v>
       </c>
-      <c r="V22" s="64">
+      <c r="V22" s="63">
         <v>11.499677087111</v>
       </c>
-      <c r="W22" s="64">
+      <c r="W22" s="63">
         <v>1837.2526066584</v>
       </c>
-      <c r="X22" s="64">
+      <c r="X22" s="63">
         <v>0.060172626387176</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -4625,7 +4805,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AH22" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -4634,7 +4814,7 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
       <c r="AP22" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
@@ -4643,14 +4823,26 @@
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
       <c r="AX22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="AY22" s="63">
+        <v>80.994857142857</v>
+      </c>
+      <c r="AZ22" s="63">
+        <v>9.4832692939438</v>
+      </c>
+      <c r="BA22" s="63">
+        <v>21.942857142857</v>
+      </c>
+      <c r="BB22" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="63">
+        <v>51.468857142857</v>
+      </c>
+      <c r="BD22" s="63">
+        <v>4.7416346469719</v>
+      </c>
       <c r="BE22" s="11"/>
       <c r="BF22" s="11"/>
       <c r="BG22" s="11"/>
@@ -4658,19 +4850,29 @@
       <c r="BI22" s="11"/>
       <c r="BJ22" s="11"/>
       <c r="BL22" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="BM22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO22" s="10"/>
-      <c r="BP22" s="10"/>
-      <c r="BQ22" s="10"/>
-      <c r="BR22" s="10"/>
-      <c r="BS22" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="BN22" s="63">
+        <v>1564.2856200942</v>
+      </c>
+      <c r="BO22" s="63">
+        <v>2.2455526236573</v>
+      </c>
+      <c r="BP22" s="63">
+        <v>597.04670348139</v>
+      </c>
+      <c r="BQ22" s="63">
+        <v>0.33518771633303</v>
+      </c>
+      <c r="BR22" s="63">
+        <v>1080.6661617878</v>
+      </c>
+      <c r="BS22" s="65">
+        <v>1.2903701699952</v>
+      </c>
       <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
@@ -4679,10 +4881,10 @@
       <c r="BY22" s="3"/>
       <c r="BZ22" s="19"/>
       <c r="CA22" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB22" s="10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="CC22" s="10"/>
       <c r="CD22" s="10"/>
@@ -4696,10 +4898,10 @@
       <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
       <c r="CO22" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="CP22" s="10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="CQ22" s="10"/>
       <c r="CR22" s="10"/>
@@ -4713,13 +4915,13 @@
       <c r="CZ22" s="10"/>
       <c r="DA22" s="10"/>
       <c r="DC22" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="DD22" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE22" s="10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="DF22" s="10"/>
       <c r="DG22" s="10"/>
@@ -4735,70 +4937,70 @@
     </row>
     <row r="23" spans="1:120">
       <c r="B23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="64">
-        <v>0</v>
-      </c>
-      <c r="D23" s="64">
-        <v>0</v>
-      </c>
-      <c r="E23" s="64">
-        <v>0</v>
-      </c>
-      <c r="F23" s="64">
-        <v>0</v>
-      </c>
-      <c r="G23" s="64">
-        <v>0</v>
-      </c>
-      <c r="H23" s="64">
+        <v>83</v>
+      </c>
+      <c r="C23" s="63">
+        <v>0</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0</v>
+      </c>
+      <c r="E23" s="63">
+        <v>0</v>
+      </c>
+      <c r="F23" s="63">
+        <v>0</v>
+      </c>
+      <c r="G23" s="63">
+        <v>0</v>
+      </c>
+      <c r="H23" s="63">
         <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="64">
-        <v>0</v>
-      </c>
-      <c r="L23" s="64">
-        <v>0</v>
-      </c>
-      <c r="M23" s="64">
-        <v>0</v>
-      </c>
-      <c r="N23" s="64">
-        <v>0</v>
-      </c>
-      <c r="O23" s="64">
-        <v>0</v>
-      </c>
-      <c r="P23" s="64">
+        <v>83</v>
+      </c>
+      <c r="K23" s="63">
+        <v>0</v>
+      </c>
+      <c r="L23" s="63">
+        <v>0</v>
+      </c>
+      <c r="M23" s="63">
+        <v>0</v>
+      </c>
+      <c r="N23" s="63">
+        <v>0</v>
+      </c>
+      <c r="O23" s="63">
+        <v>0</v>
+      </c>
+      <c r="P23" s="63">
         <v>0</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="64">
-        <v>0</v>
-      </c>
-      <c r="T23" s="64">
-        <v>0</v>
-      </c>
-      <c r="U23" s="64">
-        <v>0</v>
-      </c>
-      <c r="V23" s="64">
-        <v>0</v>
-      </c>
-      <c r="W23" s="64">
-        <v>0</v>
-      </c>
-      <c r="X23" s="64">
+        <v>83</v>
+      </c>
+      <c r="S23" s="63">
+        <v>0</v>
+      </c>
+      <c r="T23" s="63">
+        <v>0</v>
+      </c>
+      <c r="U23" s="63">
+        <v>0</v>
+      </c>
+      <c r="V23" s="63">
+        <v>0</v>
+      </c>
+      <c r="W23" s="63">
+        <v>0</v>
+      </c>
+      <c r="X23" s="63">
         <v>0</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -4807,7 +5009,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AH23" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -4816,7 +5018,7 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
       <c r="AP23" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
@@ -4825,14 +5027,26 @@
       <c r="AU23" s="10"/>
       <c r="AV23" s="10"/>
       <c r="AX23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="AY23" s="63">
+        <v>8.5089885177453</v>
+      </c>
+      <c r="AZ23" s="63">
+        <v>0.0097298094099909</v>
+      </c>
+      <c r="BA23" s="63">
+        <v>5.8641593883934</v>
+      </c>
+      <c r="BB23" s="63">
+        <v>0.00059976722404126</v>
+      </c>
+      <c r="BC23" s="63">
+        <v>7.1865739530693</v>
+      </c>
+      <c r="BD23" s="63">
+        <v>0.0051647883170161</v>
+      </c>
       <c r="BE23" s="11"/>
       <c r="BF23" s="11"/>
       <c r="BG23" s="11"/>
@@ -4840,19 +5054,29 @@
       <c r="BI23" s="11"/>
       <c r="BJ23" s="11"/>
       <c r="BL23" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="BM23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
-      <c r="BR23" s="10"/>
-      <c r="BS23" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="BN23" s="63">
+        <v>1.5825894299898</v>
+      </c>
+      <c r="BO23" s="63">
+        <v>0.0014121985725104</v>
+      </c>
+      <c r="BP23" s="63">
+        <v>1.0444990743389</v>
+      </c>
+      <c r="BQ23" s="63">
+        <v>7.9284275235685E-5</v>
+      </c>
+      <c r="BR23" s="63">
+        <v>1.3135442521643</v>
+      </c>
+      <c r="BS23" s="65">
+        <v>0.00074574142387302</v>
+      </c>
       <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
@@ -4861,7 +5085,7 @@
       <c r="BY23" s="3"/>
       <c r="BZ23" s="19"/>
       <c r="CA23" s="34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="CB23" s="37"/>
       <c r="CC23" s="35"/>
@@ -4876,10 +5100,10 @@
       <c r="CL23" s="35"/>
       <c r="CM23" s="36"/>
       <c r="CO23" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="CP23" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="CQ23" s="10"/>
       <c r="CR23" s="10"/>
@@ -4893,13 +5117,13 @@
       <c r="CZ23" s="10"/>
       <c r="DA23" s="10"/>
       <c r="DC23" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="DD23" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE23" s="10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="DF23" s="10"/>
       <c r="DG23" s="10"/>
@@ -4919,102 +5143,112 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="W24" s="28"/>
       <c r="X24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Z24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AC24" s="28"/>
       <c r="AD24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AH24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AM24" s="28"/>
       <c r="AN24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AP24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AU24" s="28"/>
       <c r="AV24" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="AY24" s="63">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="63">
+        <v>0</v>
+      </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -5022,17 +5256,27 @@
       <c r="BI24" s="11"/>
       <c r="BJ24" s="11"/>
       <c r="BL24" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="BM24" s="10"/>
-      <c r="BN24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO24" s="10"/>
-      <c r="BP24" s="10"/>
-      <c r="BQ24" s="10"/>
-      <c r="BR24" s="10"/>
-      <c r="BS24" s="11"/>
+      <c r="BN24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="63">
+        <v>0</v>
+      </c>
       <c r="BT24" s="11"/>
       <c r="BU24" s="11"/>
       <c r="BV24" s="11"/>
@@ -5040,10 +5284,10 @@
       <c r="BX24" s="11"/>
       <c r="BY24" s="11"/>
       <c r="CA24" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB24" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="CC24" s="10"/>
       <c r="CD24" s="10"/>
@@ -5057,10 +5301,10 @@
       <c r="CL24" s="10"/>
       <c r="CM24" s="10"/>
       <c r="CO24" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="CP24" s="10" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="CQ24" s="10"/>
       <c r="CR24" s="10"/>
@@ -5074,11 +5318,11 @@
       <c r="CZ24" s="10"/>
       <c r="DA24" s="10"/>
       <c r="DC24" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="DD24" s="10"/>
       <c r="DE24" s="10" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="DF24" s="10"/>
       <c r="DG24" s="10"/>
@@ -5108,10 +5352,10 @@
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
       <c r="CA25" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB25" s="10" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="CC25" s="10"/>
       <c r="CD25" s="10"/>
@@ -5127,10 +5371,10 @@
     </row>
     <row r="26" spans="1:120">
       <c r="AX26" s="38" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="BL26" s="38" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="BM26" s="33"/>
       <c r="BN26" s="12"/>
@@ -5146,7 +5390,7 @@
       <c r="BX26" s="12"/>
       <c r="BY26" s="12"/>
       <c r="CA26" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="CB26" s="37"/>
       <c r="CC26" s="35"/>
@@ -5160,16 +5404,16 @@
       <c r="CK26" s="35"/>
       <c r="CL26" s="35"/>
       <c r="CM26" s="36"/>
-      <c r="CO26" s="41" t="s">
-        <v>112</v>
+      <c r="CO26" s="40" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:120">
       <c r="AX27" s="39" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="BL27" s="38" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="BM27" s="33"/>
       <c r="BN27" s="12"/>
@@ -5185,10 +5429,10 @@
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
       <c r="CA27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB27" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="CC27" s="10"/>
       <c r="CD27" s="10"/>
@@ -5201,13 +5445,13 @@
       <c r="CK27" s="10"/>
       <c r="CL27" s="10"/>
       <c r="CM27" s="10"/>
-      <c r="DC27" s="41" t="s">
-        <v>116</v>
+      <c r="DC27" s="40" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:120">
       <c r="AX28" s="38" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="BM28" s="33"/>
       <c r="BN28" s="12"/>
@@ -5223,10 +5467,10 @@
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
       <c r="CA28" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB28" s="10" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="CC28" s="10"/>
       <c r="CD28" s="10"/>
@@ -5242,10 +5486,10 @@
     </row>
     <row r="29" spans="1:120">
       <c r="BL29" s="38" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="CA29" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="CB29" s="37"/>
       <c r="CC29" s="35"/>
@@ -5262,13 +5506,13 @@
     </row>
     <row r="30" spans="1:120">
       <c r="BL30" s="38" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="CA30" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB30" s="10" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="CC30" s="10"/>
       <c r="CD30" s="10"/>
@@ -5284,10 +5528,10 @@
     </row>
     <row r="31" spans="1:120">
       <c r="CA31" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB31" s="10" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="CC31" s="10"/>
       <c r="CD31" s="10"/>
@@ -5303,7 +5547,7 @@
     </row>
     <row r="32" spans="1:120">
       <c r="CA32" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="CB32" s="37"/>
       <c r="CC32" s="35"/>
@@ -5320,10 +5564,10 @@
     </row>
     <row r="33" spans="1:120">
       <c r="CA33" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB33" s="10" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="CC33" s="10"/>
       <c r="CD33" s="10"/>
@@ -5339,10 +5583,10 @@
     </row>
     <row r="34" spans="1:120">
       <c r="CA34" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB34" s="10" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="CC34" s="10"/>
       <c r="CD34" s="10"/>
@@ -5358,7 +5602,7 @@
     </row>
     <row r="35" spans="1:120">
       <c r="CA35" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="CB35" s="37"/>
       <c r="CC35" s="35"/>
@@ -5375,10 +5619,10 @@
     </row>
     <row r="36" spans="1:120">
       <c r="CA36" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB36" s="10" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="CC36" s="10"/>
       <c r="CD36" s="10"/>
@@ -5394,10 +5638,10 @@
     </row>
     <row r="37" spans="1:120">
       <c r="CA37" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB37" s="10" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="CC37" s="10"/>
       <c r="CD37" s="10"/>
@@ -5413,7 +5657,7 @@
     </row>
     <row r="38" spans="1:120">
       <c r="CA38" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="CB38" s="37"/>
       <c r="CC38" s="35"/>
@@ -5430,10 +5674,10 @@
     </row>
     <row r="39" spans="1:120">
       <c r="CA39" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB39" s="10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="CC39" s="10"/>
       <c r="CD39" s="10"/>
@@ -5449,10 +5693,10 @@
     </row>
     <row r="40" spans="1:120">
       <c r="CA40" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB40" s="10" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="CC40" s="10"/>
       <c r="CD40" s="10"/>
@@ -5468,7 +5712,7 @@
     </row>
     <row r="41" spans="1:120">
       <c r="CA41" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="CB41" s="37"/>
       <c r="CC41" s="35"/>
@@ -5485,10 +5729,10 @@
     </row>
     <row r="42" spans="1:120">
       <c r="CA42" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB42" s="10" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="CC42" s="10"/>
       <c r="CD42" s="10"/>
@@ -5504,10 +5748,10 @@
     </row>
     <row r="43" spans="1:120">
       <c r="CA43" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB43" s="10" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="CC43" s="10"/>
       <c r="CD43" s="10"/>
@@ -5523,7 +5767,7 @@
     </row>
     <row r="44" spans="1:120">
       <c r="CA44" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="CB44" s="35"/>
       <c r="CC44" s="35"/>
@@ -5540,10 +5784,10 @@
     </row>
     <row r="45" spans="1:120">
       <c r="CA45" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB45" s="10" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="CC45" s="10"/>
       <c r="CD45" s="10"/>
@@ -5559,10 +5803,10 @@
     </row>
     <row r="46" spans="1:120">
       <c r="CA46" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB46" s="10" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="CC46" s="10"/>
       <c r="CD46" s="10"/>
@@ -5578,7 +5822,7 @@
     </row>
     <row r="47" spans="1:120">
       <c r="CA47" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="CB47" s="35"/>
       <c r="CC47" s="35"/>
@@ -5595,10 +5839,10 @@
     </row>
     <row r="48" spans="1:120">
       <c r="CA48" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB48" s="10" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="CC48" s="10"/>
       <c r="CD48" s="10"/>
@@ -5614,10 +5858,10 @@
     </row>
     <row r="49" spans="1:120">
       <c r="CA49" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB49" s="10" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="CC49" s="10"/>
       <c r="CD49" s="10"/>
@@ -5633,7 +5877,7 @@
     </row>
     <row r="50" spans="1:120">
       <c r="CA50" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="CB50" s="35"/>
       <c r="CC50" s="35"/>
@@ -5650,10 +5894,10 @@
     </row>
     <row r="51" spans="1:120">
       <c r="CA51" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CB51" s="10" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="CC51" s="10"/>
       <c r="CD51" s="10"/>
@@ -5669,10 +5913,10 @@
     </row>
     <row r="52" spans="1:120">
       <c r="CA52" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="CB52" s="10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="CC52" s="10"/>
       <c r="CD52" s="10"/>
@@ -5689,6 +5933,73 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="CA11:CM11"/>
+    <mergeCell ref="CO8:CO10"/>
+    <mergeCell ref="DK9:DL9"/>
+    <mergeCell ref="DM9:DN9"/>
+    <mergeCell ref="DO9:DP9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="DC8:DC10"/>
+    <mergeCell ref="DE8:DJ8"/>
+    <mergeCell ref="DK8:DP8"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="CH8:CM8"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="BL8:BL10"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="CA8:CA10"/>
+    <mergeCell ref="CB8:CG8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AX8:AX10"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AP7:AV7"/>
+    <mergeCell ref="CA7:CM7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="AH7:AN7"/>
     <mergeCell ref="AX7:BJ7"/>
     <mergeCell ref="BM8:BM10"/>
     <mergeCell ref="BL7:BY7"/>
@@ -5705,73 +6016,6 @@
     <mergeCell ref="BG9:BH9"/>
     <mergeCell ref="BI9:BJ9"/>
     <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="R7:X7"/>
-    <mergeCell ref="Z7:AF7"/>
-    <mergeCell ref="AH7:AN7"/>
-    <mergeCell ref="AP7:AV7"/>
-    <mergeCell ref="CA7:CM7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AX8:AX10"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BL8:BL10"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="CA8:CA10"/>
-    <mergeCell ref="CB8:CG8"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="CH8:CM8"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CA11:CM11"/>
-    <mergeCell ref="CO8:CO10"/>
-    <mergeCell ref="DK9:DL9"/>
-    <mergeCell ref="DM9:DN9"/>
-    <mergeCell ref="DO9:DP9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="DC8:DC10"/>
-    <mergeCell ref="DE8:DJ8"/>
-    <mergeCell ref="DK8:DP8"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/excel/sum11_2.xlsx
+++ b/storage/excel/sum11_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>บทที่ 11 ข้อมูลแหล่งพลังงาน</t>
   </si>
@@ -110,6 +110,15 @@
     <t>ฟืน</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti829_ch830_o266_ra831(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o266_ra831(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o266_ra831(328)</t>
+  </si>
+  <si>
     <t>ค่าเฉลี่ย</t>
   </si>
   <si>
@@ -119,9 +128,24 @@
     <t>ถ่าน</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti829_ch830_o267_ra831(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o267_ra831(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o267_ra831(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o266_nu834</t>
+  </si>
+  <si>
     <t>กก.</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti829_ch830_o266_nu833</t>
+  </si>
+  <si>
     <t>no_ra808_o81_ti829_ch830_o266_nu835</t>
   </si>
   <si>
@@ -131,12 +155,24 @@
     <t>แกลบ</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti829_ch830_o268_ra831(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o268_ra831(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o268_ra831(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o267_nu834</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o267_nu833</t>
+  </si>
+  <si>
     <t xml:space="preserve">  ขนส่งโดยไม่ใช้เชื้อเพลิง</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra832(225)</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o267_nu835</t>
   </si>
   <si>
@@ -146,12 +182,24 @@
     <t>วัสดุเหลือใช้ทางการเกษตร</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti829_ch830_o269_ra831(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o269_ra831(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o269_ra831(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o268_nu834</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o268_nu833</t>
+  </si>
+  <si>
     <t xml:space="preserve">  ขนส่งโดยใช้เชื้อเพลิง</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra832(226)</t>
-  </si>
-  <si>
     <t>no_ra808_o81_ti829_ch830_o268_nu835</t>
   </si>
   <si>
@@ -161,6 +209,21 @@
     <t>เบนซิน 95</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o269_nu834</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o269_nu833</t>
+  </si>
+  <si>
     <t>no_ra808_o81_ti829_ch830_o269_nu835</t>
   </si>
   <si>
@@ -170,10 +233,22 @@
     <t>แก๊สโซฮอล์ 91</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002</t>
+  </si>
+  <si>
     <t>ลิตร</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra832(225)</t>
+    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o228_nu819</t>
@@ -185,7 +260,19 @@
     <t>แก๊สโซฮอล์ 95</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra832(226)</t>
+    <t>no_ra808_o81_ti809_ch810_o230_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o229_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o229_nu819</t>
@@ -197,6 +284,21 @@
     <t>แก๊สโซฮอล์ อี 20</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o230_nu820</t>
+  </si>
+  <si>
     <t>no_ra808_o81_ti809_ch810_o230_nu819</t>
   </si>
   <si>
@@ -206,7 +308,19 @@
     <t>แก๊สโซฮอล์ อี 85</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra832(225)</t>
+    <t>no_ra808_o81_ti809_ch810_o232_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o231_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o231_nu819</t>
@@ -218,7 +332,19 @@
     <t>น้ำมันดีเซล</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra832(226)</t>
+    <t>no_ra808_o81_ti809_ch810_o233_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o232_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o232_nu819</t>
@@ -230,6 +356,21 @@
     <t xml:space="preserve">ก๊าซธรรมชาติ </t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ra811(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o233_nu820</t>
+  </si>
+  <si>
     <t>no_ra808_o81_ti809_ch810_o233_nu819</t>
   </si>
   <si>
@@ -239,10 +380,22 @@
     <t xml:space="preserve">ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์ </t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ra811(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ra811(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ra811(328)</t>
+  </si>
+  <si>
     <t>ก๊าซธรรมชาติ</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o286_ra832(225)</t>
+    <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o234_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o234_nu819</t>
@@ -254,10 +407,22 @@
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti821_ch822_o236_ra823(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti821_ch822_o236_ra823(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti821_ch822_o236_ra823(328)</t>
+  </si>
+  <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o286_ra832(226)</t>
+    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3002</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o235_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti809_ch810_o235_nu819</t>
@@ -269,6 +434,18 @@
     <t>อื่นๆ</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti829_ch830_o1_ra831(326)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o1_ra831(327)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o1_ra831(328)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu826</t>
+  </si>
+  <si>
     <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu827, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu827, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu827</t>
   </si>
   <si>
@@ -278,7 +455,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra812(225)</t>
+    <t>no_ra808_o81_ti829_ch830_o1_nu834</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002, no_ra808_o81_ti809_ch810_o228_nu820</t>
   </si>
   <si>
     <t>no_ra808_o81_ti829_ch830_o1_nu835</t>
@@ -287,9 +467,6 @@
     <t>no_ra808_o81_ti829_ch830_o1_nu836</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra812(226)</t>
-  </si>
-  <si>
     <t>น้ำมัน UID = จำนวนครั้งรถจยย, จำนวนครั้งรถยนต์, จำนวนครั้งบรรทุก</t>
   </si>
   <si>
@@ -305,70 +482,16 @@
     <t>ในแต่ละครัวเรือนให้หาจำนวนลิตรที่ไปซื้อต่อครั้งด้วยการรวมราคาซื้อต่อครั้งของรถทุกชนิดแล้วหารด้วยราคาน้ำมัน</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra812(225)</t>
-  </si>
-  <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้เฉลี่ยราคาของทั้ง 3 ขนาดถังก่อน UID = (ราคา 4 กก, ราคา 15 กก, ราคา 48 กก) โดยราคาที่เก็บมาเป็นราคาต่อกก แล้ว</t>
   </si>
   <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้ถือว่าออกไปซื้อครั้งละ 1 ถังเท่านั้น ดังนั้นหาจำนวนถังเฉลี่ยที่ซื้อต่อปีจะเท่ากับจำนวนครั้งที่ซื้อต่อปีด้วย(UID ที่ให้เป็นจำนวนถัง 3 ขนาดที่ซื้อต่อปี)</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra812(226)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ก๊าซปิโตรเลียมเหลวสำหรับหุงต้ม แต่ละขนาดถังให้เอาขนาถัง(กก) x จำนวนถังที่ซื้อ บวกกันสามขนาดเพื่อให้ปริมาณรวมทั้งหมด </t>
   </si>
   <si>
     <t>แล้วหารด้วยจำนวนถังทั้งหมดต่อปีเพื่อหาค่าเฉลี่ยเบื้องต้น (UID = จำนวนถัง 4 กก, จำนวนถัง 15 กก, จำนวนถัง 48 กก)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra824(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra824(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra832(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra832(226)</t>
   </si>
 </sst>
 </file>
@@ -583,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -704,6 +827,9 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -774,12 +900,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1204,7 @@
   <dimension ref="A1:DP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="BS24" sqref="BS24"/>
+      <selection activeCell="CG52" sqref="CG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,337 +1773,337 @@
       <c r="DP6" s="26"/>
     </row>
     <row r="7" spans="1:120">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="J7" s="46" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="R7" s="46" t="s">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="R7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Z7" s="46" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Z7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AH7" s="46" t="s">
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AH7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AP7" s="46" t="s">
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AP7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="41" t="s">
+      <c r="AX7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
       <c r="BK7" s="6"/>
-      <c r="BL7" s="41" t="s">
+      <c r="BL7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41"/>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="41"/>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="41"/>
-      <c r="BW7" s="41"/>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41"/>
-      <c r="CA7" s="46" t="s">
+      <c r="BM7" s="42"/>
+      <c r="BN7" s="42"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="42"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="42"/>
+      <c r="BS7" s="42"/>
+      <c r="BT7" s="42"/>
+      <c r="BU7" s="42"/>
+      <c r="BV7" s="42"/>
+      <c r="BW7" s="42"/>
+      <c r="BX7" s="42"/>
+      <c r="BY7" s="42"/>
+      <c r="CA7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="CB7" s="46"/>
-      <c r="CC7" s="46"/>
-      <c r="CD7" s="46"/>
-      <c r="CE7" s="46"/>
-      <c r="CF7" s="46"/>
-      <c r="CG7" s="46"/>
-      <c r="CH7" s="46"/>
-      <c r="CI7" s="46"/>
-      <c r="CJ7" s="46"/>
-      <c r="CK7" s="46"/>
-      <c r="CL7" s="46"/>
-      <c r="CM7" s="46"/>
-      <c r="CO7" s="41" t="s">
+      <c r="CB7" s="47"/>
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="47"/>
+      <c r="CE7" s="47"/>
+      <c r="CF7" s="47"/>
+      <c r="CG7" s="47"/>
+      <c r="CH7" s="47"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="47"/>
+      <c r="CK7" s="47"/>
+      <c r="CL7" s="47"/>
+      <c r="CM7" s="47"/>
+      <c r="CO7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="41"/>
-      <c r="CR7" s="41"/>
-      <c r="CS7" s="41"/>
-      <c r="CT7" s="41"/>
-      <c r="CU7" s="41"/>
-      <c r="CV7" s="41"/>
-      <c r="CW7" s="41"/>
-      <c r="CX7" s="41"/>
-      <c r="CY7" s="41"/>
-      <c r="CZ7" s="41"/>
-      <c r="DA7" s="41"/>
-      <c r="DC7" s="41" t="s">
+      <c r="CP7" s="42"/>
+      <c r="CQ7" s="42"/>
+      <c r="CR7" s="42"/>
+      <c r="CS7" s="42"/>
+      <c r="CT7" s="42"/>
+      <c r="CU7" s="42"/>
+      <c r="CV7" s="42"/>
+      <c r="CW7" s="42"/>
+      <c r="CX7" s="42"/>
+      <c r="CY7" s="42"/>
+      <c r="CZ7" s="42"/>
+      <c r="DA7" s="42"/>
+      <c r="DC7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="DD7" s="41"/>
-      <c r="DE7" s="41"/>
-      <c r="DF7" s="41"/>
-      <c r="DG7" s="41"/>
-      <c r="DH7" s="41"/>
-      <c r="DI7" s="41"/>
-      <c r="DJ7" s="41"/>
-      <c r="DK7" s="41"/>
-      <c r="DL7" s="41"/>
-      <c r="DM7" s="41"/>
-      <c r="DN7" s="41"/>
-      <c r="DO7" s="41"/>
-      <c r="DP7" s="41"/>
+      <c r="DD7" s="42"/>
+      <c r="DE7" s="42"/>
+      <c r="DF7" s="42"/>
+      <c r="DG7" s="42"/>
+      <c r="DH7" s="42"/>
+      <c r="DI7" s="42"/>
+      <c r="DJ7" s="42"/>
+      <c r="DK7" s="42"/>
+      <c r="DL7" s="42"/>
+      <c r="DM7" s="42"/>
+      <c r="DN7" s="42"/>
+      <c r="DO7" s="42"/>
+      <c r="DP7" s="42"/>
     </row>
     <row r="8" spans="1:120">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="J8" s="42" t="s">
+      <c r="H8" s="48"/>
+      <c r="J8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="47" t="s">
+      <c r="L8" s="46"/>
+      <c r="M8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47" t="s">
+      <c r="N8" s="48"/>
+      <c r="O8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="R8" s="42" t="s">
+      <c r="P8" s="48"/>
+      <c r="R8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="47" t="s">
+      <c r="T8" s="46"/>
+      <c r="U8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47" t="s">
+      <c r="V8" s="48"/>
+      <c r="W8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="47"/>
-      <c r="Z8" s="42" t="s">
+      <c r="X8" s="48"/>
+      <c r="Z8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="44" t="s">
+      <c r="AA8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="47" t="s">
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47" t="s">
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="47"/>
-      <c r="AH8" s="42" t="s">
+      <c r="AF8" s="48"/>
+      <c r="AH8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AI8" s="44" t="s">
+      <c r="AI8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="47" t="s">
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47" t="s">
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AN8" s="47"/>
-      <c r="AP8" s="42" t="s">
+      <c r="AN8" s="48"/>
+      <c r="AP8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AQ8" s="44" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="47" t="s">
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47" t="s">
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AV8" s="47"/>
+      <c r="AV8" s="48"/>
       <c r="AW8" s="1"/>
-      <c r="AX8" s="48" t="s">
+      <c r="AX8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AY8" s="49" t="s">
+      <c r="AY8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AZ8" s="50"/>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="50"/>
-      <c r="BE8" s="51" t="s">
+      <c r="AZ8" s="51"/>
+      <c r="BA8" s="51"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="51"/>
-      <c r="BJ8" s="51"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="48" t="s">
+      <c r="BL8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="BM8" s="60" t="s">
+      <c r="BM8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="BN8" s="49" t="s">
+      <c r="BN8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="50"/>
-      <c r="BQ8" s="50"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="50"/>
-      <c r="BT8" s="51" t="s">
+      <c r="BO8" s="51"/>
+      <c r="BP8" s="51"/>
+      <c r="BQ8" s="51"/>
+      <c r="BR8" s="51"/>
+      <c r="BS8" s="51"/>
+      <c r="BT8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="BU8" s="51"/>
-      <c r="BV8" s="51"/>
-      <c r="BW8" s="51"/>
-      <c r="BX8" s="51"/>
-      <c r="BY8" s="51"/>
-      <c r="CA8" s="58" t="s">
+      <c r="BU8" s="52"/>
+      <c r="BV8" s="52"/>
+      <c r="BW8" s="52"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="52"/>
+      <c r="CA8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="CB8" s="56" t="s">
+      <c r="CB8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="CC8" s="56"/>
-      <c r="CD8" s="56"/>
-      <c r="CE8" s="56"/>
-      <c r="CF8" s="56"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="47" t="s">
+      <c r="CC8" s="57"/>
+      <c r="CD8" s="57"/>
+      <c r="CE8" s="57"/>
+      <c r="CF8" s="57"/>
+      <c r="CG8" s="58"/>
+      <c r="CH8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="CI8" s="47"/>
-      <c r="CJ8" s="47"/>
-      <c r="CK8" s="47"/>
-      <c r="CL8" s="47"/>
-      <c r="CM8" s="47"/>
-      <c r="CO8" s="48" t="s">
+      <c r="CI8" s="48"/>
+      <c r="CJ8" s="48"/>
+      <c r="CK8" s="48"/>
+      <c r="CL8" s="48"/>
+      <c r="CM8" s="48"/>
+      <c r="CO8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="CP8" s="49" t="s">
+      <c r="CP8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="CQ8" s="50"/>
-      <c r="CR8" s="50"/>
-      <c r="CS8" s="50"/>
-      <c r="CT8" s="50"/>
-      <c r="CU8" s="50"/>
-      <c r="CV8" s="51" t="s">
+      <c r="CQ8" s="51"/>
+      <c r="CR8" s="51"/>
+      <c r="CS8" s="51"/>
+      <c r="CT8" s="51"/>
+      <c r="CU8" s="51"/>
+      <c r="CV8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="CW8" s="51"/>
-      <c r="CX8" s="51"/>
-      <c r="CY8" s="51"/>
-      <c r="CZ8" s="51"/>
-      <c r="DA8" s="51"/>
-      <c r="DC8" s="48" t="s">
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
+      <c r="DA8" s="52"/>
+      <c r="DC8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="DD8" s="60" t="s">
+      <c r="DD8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="DE8" s="49" t="s">
+      <c r="DE8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="DF8" s="50"/>
-      <c r="DG8" s="50"/>
-      <c r="DH8" s="50"/>
-      <c r="DI8" s="50"/>
-      <c r="DJ8" s="50"/>
-      <c r="DK8" s="51" t="s">
+      <c r="DF8" s="51"/>
+      <c r="DG8" s="51"/>
+      <c r="DH8" s="51"/>
+      <c r="DI8" s="51"/>
+      <c r="DJ8" s="51"/>
+      <c r="DK8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="DL8" s="51"/>
-      <c r="DM8" s="51"/>
-      <c r="DN8" s="51"/>
-      <c r="DO8" s="51"/>
-      <c r="DP8" s="51"/>
+      <c r="DL8" s="52"/>
+      <c r="DM8" s="52"/>
+      <c r="DN8" s="52"/>
+      <c r="DO8" s="52"/>
+      <c r="DP8" s="52"/>
     </row>
     <row r="9" spans="1:120">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2002,7 +2122,7 @@
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2021,7 +2141,7 @@
       <c r="P9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="43"/>
+      <c r="R9" s="44"/>
       <c r="S9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +2160,7 @@
       <c r="X9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="43"/>
+      <c r="Z9" s="44"/>
       <c r="AA9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2059,7 +2179,7 @@
       <c r="AF9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="43"/>
+      <c r="AH9" s="44"/>
       <c r="AI9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +2198,7 @@
       <c r="AN9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="43"/>
+      <c r="AP9" s="44"/>
       <c r="AQ9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2098,199 +2218,181 @@
         <v>26</v>
       </c>
       <c r="AW9" s="1"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="49" t="s">
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="49" t="s">
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="49" t="s">
+      <c r="BB9" s="51"/>
+      <c r="BC9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="51" t="s">
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="51" t="s">
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51" t="s">
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BJ9" s="51"/>
+      <c r="BJ9" s="52"/>
       <c r="BK9" s="1"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="49" t="s">
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="49" t="s">
+      <c r="BO9" s="51"/>
+      <c r="BP9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="50"/>
-      <c r="BR9" s="49" t="s">
+      <c r="BQ9" s="51"/>
+      <c r="BR9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BS9" s="52"/>
-      <c r="BT9" s="51" t="s">
+      <c r="BS9" s="53"/>
+      <c r="BT9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="BU9" s="51"/>
-      <c r="BV9" s="51" t="s">
+      <c r="BU9" s="52"/>
+      <c r="BV9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BW9" s="51"/>
-      <c r="BX9" s="51" t="s">
+      <c r="BW9" s="52"/>
+      <c r="BX9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BY9" s="51"/>
-      <c r="CA9" s="58"/>
-      <c r="CB9" s="56" t="s">
+      <c r="BY9" s="52"/>
+      <c r="CA9" s="59"/>
+      <c r="CB9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="CC9" s="56"/>
-      <c r="CD9" s="59" t="s">
+      <c r="CC9" s="57"/>
+      <c r="CD9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="CE9" s="56"/>
-      <c r="CF9" s="59" t="s">
+      <c r="CE9" s="57"/>
+      <c r="CF9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="CG9" s="57"/>
-      <c r="CH9" s="47" t="s">
+      <c r="CG9" s="58"/>
+      <c r="CH9" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="CI9" s="47"/>
-      <c r="CJ9" s="47" t="s">
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="CK9" s="47"/>
-      <c r="CL9" s="47" t="s">
+      <c r="CK9" s="48"/>
+      <c r="CL9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="CM9" s="47"/>
-      <c r="CO9" s="48"/>
-      <c r="CP9" s="49" t="s">
+      <c r="CM9" s="48"/>
+      <c r="CO9" s="49"/>
+      <c r="CP9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="CQ9" s="50"/>
-      <c r="CR9" s="49" t="s">
+      <c r="CQ9" s="51"/>
+      <c r="CR9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="CS9" s="50"/>
-      <c r="CT9" s="49" t="s">
+      <c r="CS9" s="51"/>
+      <c r="CT9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="CU9" s="52"/>
-      <c r="CV9" s="51" t="s">
+      <c r="CU9" s="53"/>
+      <c r="CV9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="CW9" s="51"/>
-      <c r="CX9" s="51" t="s">
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="CY9" s="51"/>
-      <c r="CZ9" s="51" t="s">
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="DA9" s="51"/>
-      <c r="DC9" s="48"/>
-      <c r="DD9" s="61"/>
-      <c r="DE9" s="49" t="s">
+      <c r="DA9" s="52"/>
+      <c r="DC9" s="49"/>
+      <c r="DD9" s="62"/>
+      <c r="DE9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="DF9" s="50"/>
-      <c r="DG9" s="49" t="s">
+      <c r="DF9" s="51"/>
+      <c r="DG9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="DH9" s="50"/>
-      <c r="DI9" s="49" t="s">
+      <c r="DH9" s="51"/>
+      <c r="DI9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="DJ9" s="52"/>
-      <c r="DK9" s="51" t="s">
+      <c r="DJ9" s="53"/>
+      <c r="DK9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="DL9" s="51"/>
-      <c r="DM9" s="51" t="s">
+      <c r="DL9" s="52"/>
+      <c r="DM9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="DN9" s="51"/>
-      <c r="DO9" s="51" t="s">
+      <c r="DN9" s="52"/>
+      <c r="DO9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="DP9" s="51"/>
+      <c r="DP9" s="52"/>
     </row>
     <row r="10" spans="1:120">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="63">
-        <v>107177.86433335</v>
-      </c>
-      <c r="D10" s="63">
-        <v>2.3992840135361</v>
-      </c>
-      <c r="E10" s="63">
-        <v>10715.579512589</v>
-      </c>
-      <c r="F10" s="63">
-        <v>0.23987899721875</v>
-      </c>
-      <c r="G10" s="63">
-        <v>0</v>
-      </c>
-      <c r="H10" s="63">
-        <v>0</v>
-      </c>
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="J10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="63">
-        <v>33690.021637013</v>
-      </c>
-      <c r="L10" s="63">
-        <v>2.3829849492927</v>
-      </c>
-      <c r="M10" s="63">
-        <v>1684.0175256637</v>
-      </c>
-      <c r="N10" s="63">
-        <v>0.11911504424779</v>
-      </c>
-      <c r="O10" s="63">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63">
-        <v>0</v>
-      </c>
+      <c r="K10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="10"/>
       <c r="R10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="63">
-        <v>73509.238623283</v>
-      </c>
-      <c r="T10" s="63">
-        <v>2.4075317327918</v>
-      </c>
-      <c r="U10" s="63">
-        <v>9190.0899046812</v>
-      </c>
-      <c r="V10" s="63">
-        <v>0.30098846739682</v>
-      </c>
-      <c r="W10" s="63">
-        <v>0</v>
-      </c>
-      <c r="X10" s="63">
-        <v>0</v>
-      </c>
+      <c r="S10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="10"/>
       <c r="Z10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2318,82 +2420,82 @@
       <c r="AT10" s="10"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
-      <c r="AX10" s="48"/>
+      <c r="AX10" s="49"/>
       <c r="AY10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AZ10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BB10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BC10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BD10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BE10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BF10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BG10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BH10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BJ10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL10" s="48"/>
-      <c r="BM10" s="62"/>
+        <v>35</v>
+      </c>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="63"/>
       <c r="BN10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BO10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BP10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BQ10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BR10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BS10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BT10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BU10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BV10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BW10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BX10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BY10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="CA10" s="58"/>
+        <v>35</v>
+      </c>
+      <c r="CA10" s="59"/>
       <c r="CB10" s="18" t="s">
         <v>25</v>
       </c>
@@ -2430,148 +2532,130 @@
       <c r="CM10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="CO10" s="48"/>
+      <c r="CO10" s="49"/>
       <c r="CP10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CQ10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CR10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CS10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CT10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CU10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CV10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CW10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CX10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CY10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CZ10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DA10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="DC10" s="48"/>
-      <c r="DD10" s="62"/>
+        <v>35</v>
+      </c>
+      <c r="DC10" s="49"/>
+      <c r="DD10" s="63"/>
       <c r="DE10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DF10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DG10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DH10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DI10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DJ10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DK10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DL10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DM10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DN10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DO10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DP10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:120">
       <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="63">
-        <v>1050677.1388825</v>
-      </c>
-      <c r="D11" s="63">
-        <v>23.520461789275</v>
-      </c>
-      <c r="E11" s="63">
-        <v>151901.31463619</v>
-      </c>
-      <c r="F11" s="63">
-        <v>3.4004633149638</v>
-      </c>
-      <c r="G11" s="63">
-        <v>7145.2932519598</v>
-      </c>
-      <c r="H11" s="63">
-        <v>0.15995455757668</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="10"/>
       <c r="J11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="63">
-        <v>288195.88015031</v>
-      </c>
-      <c r="L11" s="63">
-        <v>20.384862089012</v>
-      </c>
-      <c r="M11" s="63">
-        <v>48868.745323377</v>
-      </c>
-      <c r="N11" s="63">
-        <v>3.4566164976423</v>
-      </c>
-      <c r="O11" s="63">
-        <v>3368.0350513274</v>
-      </c>
-      <c r="P11" s="63">
-        <v>0.23823008849558</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="10"/>
       <c r="R11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="63">
-        <v>766597.38841464</v>
-      </c>
-      <c r="T11" s="63">
-        <v>25.107150794226</v>
-      </c>
-      <c r="U11" s="63">
-        <v>102958.85652926</v>
-      </c>
-      <c r="V11" s="63">
-        <v>3.3720484514398</v>
-      </c>
-      <c r="W11" s="63">
-        <v>3674.5052133169</v>
-      </c>
-      <c r="X11" s="63">
-        <v>0.12034525277435</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="10"/>
       <c r="Z11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -2580,7 +2664,7 @@
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AH11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
@@ -2589,7 +2673,7 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AP11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
@@ -2600,24 +2684,14 @@
       <c r="AX11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AY11" s="63">
-        <v>30.395333333333</v>
-      </c>
-      <c r="AZ11" s="63">
-        <v>3.7336047931631</v>
-      </c>
-      <c r="BA11" s="63">
-        <v>45.399796363636</v>
-      </c>
-      <c r="BB11" s="63">
-        <v>1.3673319489451</v>
-      </c>
-      <c r="BC11" s="63">
-        <v>37.897564848485</v>
-      </c>
-      <c r="BD11" s="63">
-        <v>2.5504683710541</v>
-      </c>
+      <c r="AY11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
@@ -2628,52 +2702,42 @@
         <v>30</v>
       </c>
       <c r="BM11" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN11" s="63">
-        <v>172.10905555556</v>
-      </c>
-      <c r="BO11" s="63">
-        <v>22.699973270011</v>
-      </c>
-      <c r="BP11" s="63">
-        <v>146.52387878788</v>
-      </c>
-      <c r="BQ11" s="63">
-        <v>4.2874724440862</v>
-      </c>
-      <c r="BR11" s="63">
-        <v>159.31646717172</v>
-      </c>
-      <c r="BS11" s="63">
-        <v>13.493722857049</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BN11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
       <c r="BT11" s="10"/>
       <c r="BU11" s="10"/>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="10"/>
       <c r="BY11" s="10"/>
-      <c r="CA11" s="53" t="s">
+      <c r="CA11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="CB11" s="54"/>
-      <c r="CC11" s="54"/>
-      <c r="CD11" s="54"/>
-      <c r="CE11" s="54"/>
-      <c r="CF11" s="54"/>
-      <c r="CG11" s="54"/>
-      <c r="CH11" s="54"/>
-      <c r="CI11" s="54"/>
-      <c r="CJ11" s="54"/>
-      <c r="CK11" s="54"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="55"/>
+      <c r="CB11" s="55"/>
+      <c r="CC11" s="55"/>
+      <c r="CD11" s="55"/>
+      <c r="CE11" s="55"/>
+      <c r="CF11" s="55"/>
+      <c r="CG11" s="55"/>
+      <c r="CH11" s="55"/>
+      <c r="CI11" s="55"/>
+      <c r="CJ11" s="55"/>
+      <c r="CK11" s="55"/>
+      <c r="CL11" s="55"/>
+      <c r="CM11" s="56"/>
       <c r="CO11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="CP11" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="CQ11" s="10"/>
       <c r="CR11" s="10"/>
@@ -2690,10 +2754,10 @@
         <v>30</v>
       </c>
       <c r="DD11" s="32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="DE11" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="DF11" s="10"/>
       <c r="DG11" s="10"/>
@@ -2709,70 +2773,52 @@
     </row>
     <row r="12" spans="1:120">
       <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="63">
-        <v>0</v>
-      </c>
-      <c r="D12" s="63">
-        <v>0</v>
-      </c>
-      <c r="E12" s="63">
-        <v>0</v>
-      </c>
-      <c r="F12" s="63">
-        <v>0</v>
-      </c>
-      <c r="G12" s="63">
-        <v>0</v>
-      </c>
-      <c r="H12" s="63">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="10"/>
       <c r="J12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="63">
-        <v>0</v>
-      </c>
-      <c r="L12" s="63">
-        <v>0</v>
-      </c>
-      <c r="M12" s="63">
-        <v>0</v>
-      </c>
-      <c r="N12" s="63">
-        <v>0</v>
-      </c>
-      <c r="O12" s="63">
-        <v>0</v>
-      </c>
-      <c r="P12" s="63">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="10"/>
       <c r="R12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="63">
-        <v>0</v>
-      </c>
-      <c r="T12" s="63">
-        <v>0</v>
-      </c>
-      <c r="U12" s="63">
-        <v>0</v>
-      </c>
-      <c r="V12" s="63">
-        <v>0</v>
-      </c>
-      <c r="W12" s="63">
-        <v>0</v>
-      </c>
-      <c r="X12" s="63">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="10"/>
       <c r="Z12" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2781,7 +2827,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AH12" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
@@ -2790,7 +2836,7 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AP12" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
@@ -2799,26 +2845,16 @@
       <c r="AU12" s="10"/>
       <c r="AV12" s="10"/>
       <c r="AX12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY12" s="63">
-        <v>59.6636271809</v>
-      </c>
-      <c r="AZ12" s="63">
-        <v>0.25626181727602</v>
-      </c>
-      <c r="BA12" s="63">
-        <v>39.701456381057</v>
-      </c>
-      <c r="BB12" s="63">
-        <v>0.069040203650691</v>
-      </c>
-      <c r="BC12" s="63">
-        <v>49.682541780978</v>
-      </c>
-      <c r="BD12" s="63">
-        <v>0.16265101046336</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AY12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
@@ -2826,29 +2862,19 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
       <c r="BL12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN12" s="63">
-        <v>45.027892868075</v>
-      </c>
-      <c r="BO12" s="63">
-        <v>0.43013464489442</v>
-      </c>
-      <c r="BP12" s="63">
-        <v>47.340969431517</v>
-      </c>
-      <c r="BQ12" s="63">
-        <v>0.064436982330428</v>
-      </c>
-      <c r="BR12" s="63">
-        <v>46.184431149796</v>
-      </c>
-      <c r="BS12" s="63">
-        <v>0.24728581361242</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BN12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="10"/>
       <c r="BT12" s="10"/>
       <c r="BU12" s="10"/>
       <c r="BV12" s="10"/>
@@ -2856,16 +2882,26 @@
       <c r="BX12" s="10"/>
       <c r="BY12" s="10"/>
       <c r="CA12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC12" s="10"/>
-      <c r="CD12" s="10"/>
-      <c r="CE12" s="10"/>
-      <c r="CF12" s="10"/>
-      <c r="CG12" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB12" s="64">
+        <v>25263.486592869</v>
+      </c>
+      <c r="CC12" s="64">
+        <v>1.7869536851625</v>
+      </c>
+      <c r="CD12" s="64">
+        <v>51462.207343381</v>
+      </c>
+      <c r="CE12" s="64">
+        <v>1.6854602161456</v>
+      </c>
+      <c r="CF12" s="64">
+        <v>76814.159573672</v>
+      </c>
+      <c r="CG12" s="64">
+        <v>1.7195620217353</v>
+      </c>
       <c r="CH12" s="10"/>
       <c r="CI12" s="10"/>
       <c r="CJ12" s="10"/>
@@ -2873,10 +2909,10 @@
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
       <c r="CO12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CP12" s="10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
@@ -2890,13 +2926,13 @@
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
       <c r="DC12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="DD12" s="32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="DE12" s="10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="DF12" s="10"/>
       <c r="DG12" s="10"/>
@@ -2912,70 +2948,52 @@
     </row>
     <row r="13" spans="1:120">
       <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="63">
-        <v>0</v>
-      </c>
-      <c r="D13" s="63">
-        <v>0</v>
-      </c>
-      <c r="E13" s="63">
-        <v>0</v>
-      </c>
-      <c r="F13" s="63">
-        <v>0</v>
-      </c>
-      <c r="G13" s="63">
-        <v>0</v>
-      </c>
-      <c r="H13" s="63">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="10"/>
       <c r="J13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="63">
-        <v>0</v>
-      </c>
-      <c r="L13" s="63">
-        <v>0</v>
-      </c>
-      <c r="M13" s="63">
-        <v>0</v>
-      </c>
-      <c r="N13" s="63">
-        <v>0</v>
-      </c>
-      <c r="O13" s="63">
-        <v>0</v>
-      </c>
-      <c r="P13" s="63">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="10"/>
       <c r="R13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="63">
-        <v>0</v>
-      </c>
-      <c r="T13" s="63">
-        <v>0</v>
-      </c>
-      <c r="U13" s="63">
-        <v>0</v>
-      </c>
-      <c r="V13" s="63">
-        <v>0</v>
-      </c>
-      <c r="W13" s="63">
-        <v>0</v>
-      </c>
-      <c r="X13" s="63">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="10"/>
       <c r="Z13" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -2984,7 +3002,7 @@
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AH13" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
@@ -2993,7 +3011,7 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AP13" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
@@ -3002,26 +3020,16 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AX13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY13" s="63">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="63">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AY13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
@@ -3029,29 +3037,19 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
       <c r="BL13" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BM13" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="63">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="63">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BN13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="10"/>
       <c r="BT13" s="10"/>
       <c r="BU13" s="10"/>
       <c r="BV13" s="10"/>
@@ -3059,16 +3057,26 @@
       <c r="BX13" s="10"/>
       <c r="BY13" s="10"/>
       <c r="CA13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="CC13" s="10"/>
-      <c r="CD13" s="10"/>
-      <c r="CE13" s="10"/>
-      <c r="CF13" s="10"/>
-      <c r="CG13" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB13" s="64">
+        <v>10110.552569808</v>
+      </c>
+      <c r="CC13" s="64">
+        <v>0.71514630837801</v>
+      </c>
+      <c r="CD13" s="64">
+        <v>31237.121184583</v>
+      </c>
+      <c r="CE13" s="64">
+        <v>1.0230599840429</v>
+      </c>
+      <c r="CF13" s="64">
+        <v>41079.284272264</v>
+      </c>
+      <c r="CG13" s="64">
+        <v>0.91960098901952</v>
+      </c>
       <c r="CH13" s="10"/>
       <c r="CI13" s="10"/>
       <c r="CJ13" s="10"/>
@@ -3076,10 +3084,10 @@
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CO13" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="CP13" s="10" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
@@ -3093,13 +3101,13 @@
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
       <c r="DC13" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="DD13" s="32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="DE13" s="10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="DF13" s="10"/>
       <c r="DG13" s="10"/>
@@ -3115,70 +3123,52 @@
     </row>
     <row r="14" spans="1:120">
       <c r="B14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="63">
-        <v>886090.24131755</v>
-      </c>
-      <c r="D14" s="63">
-        <v>19.836018974322</v>
-      </c>
-      <c r="E14" s="63">
-        <v>364471.47280702</v>
-      </c>
-      <c r="F14" s="63">
-        <v>8.1590595552084</v>
-      </c>
-      <c r="G14" s="63">
-        <v>0</v>
-      </c>
-      <c r="H14" s="63">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="10"/>
       <c r="J14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="63">
-        <v>148328.93799075</v>
-      </c>
-      <c r="L14" s="63">
-        <v>10.491700794522</v>
-      </c>
-      <c r="M14" s="63">
-        <v>67412.280353155</v>
-      </c>
-      <c r="N14" s="63">
-        <v>4.7682501130418</v>
-      </c>
-      <c r="O14" s="63">
-        <v>0</v>
-      </c>
-      <c r="P14" s="63">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="10"/>
       <c r="R14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" s="63">
-        <v>750027.67311221</v>
-      </c>
-      <c r="T14" s="63">
-        <v>24.564469137593</v>
-      </c>
-      <c r="U14" s="63">
-        <v>301510.33823991</v>
-      </c>
-      <c r="V14" s="63">
-        <v>9.8748908391963</v>
-      </c>
-      <c r="W14" s="63">
-        <v>0</v>
-      </c>
-      <c r="X14" s="63">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" s="10"/>
       <c r="Z14" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -3187,7 +3177,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AH14" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -3196,7 +3186,7 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AP14" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
@@ -3205,26 +3195,16 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AX14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY14" s="63">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="63">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AY14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
@@ -3232,29 +3212,19 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
       <c r="BL14" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="BM14" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BO14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BP14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BR14" s="63">
-        <v>0</v>
-      </c>
-      <c r="BS14" s="63">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BN14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="10"/>
       <c r="BT14" s="10"/>
       <c r="BU14" s="10"/>
       <c r="BV14" s="10"/>
@@ -3262,7 +3232,7 @@
       <c r="BX14" s="10"/>
       <c r="BY14" s="10"/>
       <c r="CA14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CB14" s="37"/>
       <c r="CC14" s="8"/>
@@ -3277,10 +3247,10 @@
       <c r="CL14" s="8"/>
       <c r="CM14" s="9"/>
       <c r="CO14" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="CP14" s="10" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
@@ -3294,13 +3264,13 @@
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
       <c r="DC14" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="DD14" s="32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="DE14" s="10" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="DF14" s="10"/>
       <c r="DG14" s="10"/>
@@ -3316,70 +3286,52 @@
     </row>
     <row r="15" spans="1:120">
       <c r="B15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="63">
-        <v>1006062.0272071</v>
-      </c>
-      <c r="D15" s="63">
-        <v>22.521707756708</v>
-      </c>
-      <c r="E15" s="63">
-        <v>838199.33070833</v>
-      </c>
-      <c r="F15" s="63">
-        <v>18.763932896351</v>
-      </c>
-      <c r="G15" s="63">
-        <v>0</v>
-      </c>
-      <c r="H15" s="63">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="10"/>
       <c r="J15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="63">
-        <v>399386.1687549</v>
-      </c>
-      <c r="L15" s="63">
-        <v>28.249647309605</v>
-      </c>
-      <c r="M15" s="63">
-        <v>424556.16781829</v>
-      </c>
-      <c r="N15" s="63">
-        <v>30.029988372844</v>
-      </c>
-      <c r="O15" s="63">
-        <v>0</v>
-      </c>
-      <c r="P15" s="63">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="10"/>
       <c r="R15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="63">
-        <v>599156.74113274</v>
-      </c>
-      <c r="T15" s="63">
-        <v>19.623232320302</v>
-      </c>
-      <c r="U15" s="63">
-        <v>398854.11142169</v>
-      </c>
-      <c r="V15" s="63">
-        <v>13.063037354029</v>
-      </c>
-      <c r="W15" s="63">
-        <v>0</v>
-      </c>
-      <c r="X15" s="63">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="10"/>
       <c r="Z15" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -3388,7 +3340,7 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AH15" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
@@ -3397,7 +3349,7 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AP15" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -3406,26 +3358,16 @@
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AX15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY15" s="63">
-        <v>73.715580295567</v>
-      </c>
-      <c r="AZ15" s="63">
-        <v>0.51289752686565</v>
-      </c>
-      <c r="BA15" s="63">
-        <v>91.524911854103</v>
-      </c>
-      <c r="BB15" s="63">
-        <v>0.04722697824178</v>
-      </c>
-      <c r="BC15" s="63">
-        <v>82.620246074835</v>
-      </c>
-      <c r="BD15" s="63">
-        <v>0.28006225255371</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="AY15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
@@ -3433,29 +3375,19 @@
       <c r="BI15" s="10"/>
       <c r="BJ15" s="10"/>
       <c r="BL15" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="BM15" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN15" s="64">
-        <v>276.51235591804</v>
-      </c>
-      <c r="BO15" s="63">
-        <v>0.47066665576123</v>
-      </c>
-      <c r="BP15" s="63">
-        <v>243.63121616588</v>
-      </c>
-      <c r="BQ15" s="63">
-        <v>0.11387802094272</v>
-      </c>
-      <c r="BR15" s="63">
-        <v>260.07178604196</v>
-      </c>
-      <c r="BS15" s="63">
-        <v>0.29227233835198</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN15" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
       <c r="BT15" s="10"/>
       <c r="BU15" s="10"/>
       <c r="BV15" s="10"/>
@@ -3463,16 +3395,26 @@
       <c r="BX15" s="10"/>
       <c r="BY15" s="10"/>
       <c r="CA15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="CC15" s="10"/>
-      <c r="CD15" s="10"/>
-      <c r="CE15" s="10"/>
-      <c r="CF15" s="10"/>
-      <c r="CG15" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB15" s="64">
+        <v>173556.96379658</v>
+      </c>
+      <c r="CC15" s="64">
+        <v>12.276146243783</v>
+      </c>
+      <c r="CD15" s="64">
+        <v>417295.52117328</v>
+      </c>
+      <c r="CE15" s="64">
+        <v>13.667019656198</v>
+      </c>
+      <c r="CF15" s="64">
+        <v>589640.14584898</v>
+      </c>
+      <c r="CG15" s="64">
+        <v>13.199686189626</v>
+      </c>
       <c r="CH15" s="10"/>
       <c r="CI15" s="10"/>
       <c r="CJ15" s="10"/>
@@ -3480,10 +3422,10 @@
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CO15" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="CP15" s="10" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
@@ -3497,13 +3439,13 @@
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
       <c r="DC15" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="DD15" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE15" s="10" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="DF15" s="10"/>
       <c r="DG15" s="10"/>
@@ -3519,70 +3461,52 @@
     </row>
     <row r="16" spans="1:120">
       <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="63">
-        <v>580722.52912642</v>
-      </c>
-      <c r="D16" s="63">
-        <v>13.000056393172</v>
-      </c>
-      <c r="E16" s="63">
-        <v>382497.86564323</v>
-      </c>
-      <c r="F16" s="63">
-        <v>8.5625984428572</v>
-      </c>
-      <c r="G16" s="63">
-        <v>0</v>
-      </c>
-      <c r="H16" s="63">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="J16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="63">
-        <v>160094.49471501</v>
-      </c>
-      <c r="L16" s="63">
-        <v>11.323909954137</v>
-      </c>
-      <c r="M16" s="63">
-        <v>156720.01224785</v>
-      </c>
-      <c r="N16" s="63">
-        <v>11.08522382275</v>
-      </c>
-      <c r="O16" s="63">
-        <v>0</v>
-      </c>
-      <c r="P16" s="63">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="10"/>
       <c r="R16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" s="63">
-        <v>422828.32678589</v>
-      </c>
-      <c r="T16" s="63">
-        <v>13.848226880395</v>
-      </c>
-      <c r="U16" s="63">
-        <v>222466.38056832</v>
-      </c>
-      <c r="V16" s="63">
-        <v>7.2860892144774</v>
-      </c>
-      <c r="W16" s="63">
-        <v>0</v>
-      </c>
-      <c r="X16" s="63">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X16" s="10"/>
       <c r="Z16" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3591,7 +3515,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AH16" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
@@ -3600,7 +3524,7 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AP16" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -3609,26 +3533,16 @@
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AX16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY16" s="63">
-        <v>97.897981897147</v>
-      </c>
-      <c r="AZ16" s="63">
-        <v>0.12048136780989</v>
-      </c>
-      <c r="BA16" s="63">
-        <v>95.517805714286</v>
-      </c>
-      <c r="BB16" s="63">
-        <v>0.063329251748347</v>
-      </c>
-      <c r="BC16" s="63">
-        <v>96.707893805716</v>
-      </c>
-      <c r="BD16" s="63">
-        <v>0.091905309779116</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AY16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
       <c r="BE16" s="11"/>
       <c r="BF16" s="11"/>
       <c r="BG16" s="11"/>
@@ -3636,29 +3550,19 @@
       <c r="BI16" s="11"/>
       <c r="BJ16" s="11"/>
       <c r="BL16" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="BM16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN16" s="63">
-        <v>470.29218101822</v>
-      </c>
-      <c r="BO16" s="63">
-        <v>0.13512648902762</v>
-      </c>
-      <c r="BP16" s="63">
-        <v>397.14254048574</v>
-      </c>
-      <c r="BQ16" s="63">
-        <v>0.10672296784937</v>
-      </c>
-      <c r="BR16" s="63">
-        <v>433.71736075198</v>
-      </c>
-      <c r="BS16" s="63">
-        <v>0.12092472843849</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="10"/>
       <c r="BT16" s="10"/>
       <c r="BU16" s="10"/>
       <c r="BV16" s="10"/>
@@ -3666,16 +3570,26 @@
       <c r="BX16" s="10"/>
       <c r="BY16" s="10"/>
       <c r="CA16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="CC16" s="10"/>
-      <c r="CD16" s="10"/>
-      <c r="CE16" s="10"/>
-      <c r="CF16" s="10"/>
-      <c r="CG16" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB16" s="64">
+        <v>166875.69672844</v>
+      </c>
+      <c r="CC16" s="64">
+        <v>11.803562431367</v>
+      </c>
+      <c r="CD16" s="64">
+        <v>457774.39502629</v>
+      </c>
+      <c r="CE16" s="64">
+        <v>14.99276013636</v>
+      </c>
+      <c r="CF16" s="64">
+        <v>621870.26354933</v>
+      </c>
+      <c r="CG16" s="64">
+        <v>13.921189707483</v>
+      </c>
       <c r="CH16" s="10"/>
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
@@ -3683,10 +3597,10 @@
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CO16" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="CP16" s="10" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
@@ -3700,13 +3614,13 @@
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
       <c r="DC16" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="DD16" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE16" s="10" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="DF16" s="10"/>
       <c r="DG16" s="10"/>
@@ -3722,70 +3636,52 @@
     </row>
     <row r="17" spans="1:120">
       <c r="B17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="63">
-        <v>25032.425088148</v>
-      </c>
-      <c r="D17" s="63">
-        <v>0.56037594803375</v>
-      </c>
-      <c r="E17" s="63">
-        <v>60771.961547815</v>
-      </c>
-      <c r="F17" s="63">
-        <v>1.3604413254532</v>
-      </c>
-      <c r="G17" s="63">
-        <v>0</v>
-      </c>
-      <c r="H17" s="63">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="10"/>
       <c r="J17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="63">
-        <v>20214.65772379</v>
-      </c>
-      <c r="L17" s="63">
-        <v>1.4298365738647</v>
-      </c>
-      <c r="M17" s="63">
-        <v>28650.863891674</v>
-      </c>
-      <c r="N17" s="63">
-        <v>2.0265519023319</v>
-      </c>
-      <c r="O17" s="63">
-        <v>0</v>
-      </c>
-      <c r="P17" s="63">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="10"/>
       <c r="R17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" s="63">
-        <v>3676.4186490114</v>
-      </c>
-      <c r="T17" s="63">
-        <v>0.12040792050482</v>
-      </c>
-      <c r="U17" s="63">
-        <v>31246.688363055</v>
-      </c>
-      <c r="V17" s="63">
-        <v>1.0233733226953</v>
-      </c>
-      <c r="W17" s="63">
-        <v>0</v>
-      </c>
-      <c r="X17" s="63">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="10"/>
       <c r="Z17" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -3794,7 +3690,7 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AH17" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
@@ -3803,7 +3699,7 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="10"/>
       <c r="AP17" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -3812,26 +3708,16 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AX17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY17" s="63">
-        <v>129.10866650462</v>
-      </c>
-      <c r="AZ17" s="63">
-        <v>1.531244960864</v>
-      </c>
-      <c r="BA17" s="63">
-        <v>88.349669790916</v>
-      </c>
-      <c r="BB17" s="63">
-        <v>0.072870502458348</v>
-      </c>
-      <c r="BC17" s="63">
-        <v>108.72916814777</v>
-      </c>
-      <c r="BD17" s="63">
-        <v>0.80205773166115</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AY17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
       <c r="BE17" s="11"/>
       <c r="BF17" s="11"/>
       <c r="BG17" s="11"/>
@@ -3839,29 +3725,19 @@
       <c r="BI17" s="11"/>
       <c r="BJ17" s="11"/>
       <c r="BL17" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="BM17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN17" s="63">
-        <v>477.12307945149</v>
-      </c>
-      <c r="BO17" s="63">
-        <v>0.72440393111337</v>
-      </c>
-      <c r="BP17" s="63">
-        <v>264.33495188719</v>
-      </c>
-      <c r="BQ17" s="63">
-        <v>0.055818274993803</v>
-      </c>
-      <c r="BR17" s="63">
-        <v>370.72901566934</v>
-      </c>
-      <c r="BS17" s="63">
-        <v>0.39011110305359</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
       <c r="BT17" s="10"/>
       <c r="BU17" s="10"/>
       <c r="BV17" s="10"/>
@@ -3869,7 +3745,7 @@
       <c r="BX17" s="10"/>
       <c r="BY17" s="10"/>
       <c r="CA17" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="CB17" s="37"/>
       <c r="CC17" s="8"/>
@@ -3884,10 +3760,10 @@
       <c r="CL17" s="8"/>
       <c r="CM17" s="9"/>
       <c r="CO17" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="CP17" s="10" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="CQ17" s="10"/>
       <c r="CR17" s="10"/>
@@ -3901,13 +3777,13 @@
       <c r="CZ17" s="10"/>
       <c r="DA17" s="10"/>
       <c r="DC17" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="DD17" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE17" s="10" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="DF17" s="10"/>
       <c r="DG17" s="10"/>
@@ -3923,70 +3799,52 @@
     </row>
     <row r="18" spans="1:120">
       <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="63">
-        <v>5358.1290709941</v>
-      </c>
-      <c r="D18" s="63">
-        <v>0.11994709450932</v>
-      </c>
-      <c r="E18" s="63">
-        <v>5361.1680657434</v>
-      </c>
-      <c r="F18" s="63">
-        <v>0.12001512545549</v>
-      </c>
-      <c r="G18" s="63">
-        <v>0</v>
-      </c>
-      <c r="H18" s="63">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="10"/>
       <c r="J18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="63">
-        <v>0</v>
-      </c>
-      <c r="L18" s="63">
-        <v>0</v>
-      </c>
-      <c r="M18" s="63">
-        <v>1684.0175256637</v>
-      </c>
-      <c r="N18" s="63">
-        <v>0.11911504424779</v>
-      </c>
-      <c r="O18" s="63">
-        <v>0</v>
-      </c>
-      <c r="P18" s="63">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="10"/>
       <c r="R18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="63">
-        <v>5515.5846913643</v>
-      </c>
-      <c r="T18" s="63">
-        <v>0.18064321462247</v>
-      </c>
-      <c r="U18" s="63">
-        <v>3678.3320847059</v>
-      </c>
-      <c r="V18" s="63">
-        <v>0.12047058823529</v>
-      </c>
-      <c r="W18" s="63">
-        <v>0</v>
-      </c>
-      <c r="X18" s="63">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="X18" s="10"/>
       <c r="Z18" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -3995,7 +3853,7 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AH18" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
@@ -4004,7 +3862,7 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
       <c r="AP18" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -4013,26 +3871,16 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AX18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY18" s="63">
-        <v>51.3766</v>
-      </c>
-      <c r="AZ18" s="63">
-        <v>0.89999952185688</v>
-      </c>
-      <c r="BA18" s="63">
-        <v>41.620363636364</v>
-      </c>
-      <c r="BB18" s="63">
-        <v>3.1079697473725</v>
-      </c>
-      <c r="BC18" s="63">
-        <v>46.498481818182</v>
-      </c>
-      <c r="BD18" s="63">
-        <v>2.0039846346147</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AY18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
       <c r="BG18" s="11"/>
@@ -4040,29 +3888,19 @@
       <c r="BI18" s="11"/>
       <c r="BJ18" s="11"/>
       <c r="BL18" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="BM18" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN18" s="63">
-        <v>1036.6455403469</v>
-      </c>
-      <c r="BO18" s="63">
-        <v>0.21004258780728</v>
-      </c>
-      <c r="BP18" s="63">
-        <v>1122.9857604846</v>
-      </c>
-      <c r="BQ18" s="63">
-        <v>1.9073449757269</v>
-      </c>
-      <c r="BR18" s="63">
-        <v>1079.8156504157</v>
-      </c>
-      <c r="BS18" s="63">
-        <v>1.0586937817671</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN18" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="10"/>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
       <c r="BV18" s="10"/>
@@ -4070,16 +3908,26 @@
       <c r="BX18" s="10"/>
       <c r="BY18" s="10"/>
       <c r="CA18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="CC18" s="10"/>
-      <c r="CD18" s="10"/>
-      <c r="CE18" s="10"/>
-      <c r="CF18" s="10"/>
-      <c r="CG18" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB18" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="64">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="64">
+        <v>0</v>
+      </c>
       <c r="CH18" s="10"/>
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
@@ -4087,10 +3935,10 @@
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CO18" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="CP18" s="10" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
@@ -4104,13 +3952,13 @@
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
       <c r="DC18" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="DD18" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE18" s="10" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="DF18" s="10"/>
       <c r="DG18" s="10"/>
@@ -4126,70 +3974,52 @@
     </row>
     <row r="19" spans="1:120">
       <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="63">
-        <v>664716.05831853</v>
-      </c>
-      <c r="D19" s="63">
-        <v>14.880335806133</v>
-      </c>
-      <c r="E19" s="63">
-        <v>757644.99789052</v>
-      </c>
-      <c r="F19" s="63">
-        <v>16.960643344418</v>
-      </c>
-      <c r="G19" s="63">
-        <v>0</v>
-      </c>
-      <c r="H19" s="63">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="J19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="63">
-        <v>203930.52970887</v>
-      </c>
-      <c r="L19" s="63">
-        <v>14.42454944771</v>
-      </c>
-      <c r="M19" s="63">
-        <v>224129.06889309</v>
-      </c>
-      <c r="N19" s="63">
-        <v>15.853245914347</v>
-      </c>
-      <c r="O19" s="63">
-        <v>0</v>
-      </c>
-      <c r="P19" s="63">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="10"/>
       <c r="R19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" s="63">
-        <v>461383.843426</v>
-      </c>
-      <c r="T19" s="63">
-        <v>15.110974686299</v>
-      </c>
-      <c r="U19" s="63">
-        <v>534969.61947706</v>
-      </c>
-      <c r="V19" s="63">
-        <v>17.521013128309</v>
-      </c>
-      <c r="W19" s="63">
-        <v>0</v>
-      </c>
-      <c r="X19" s="63">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X19" s="10"/>
       <c r="Z19" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4198,7 +4028,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AH19" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -4207,7 +4037,7 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="10"/>
       <c r="AP19" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
@@ -4216,26 +4046,16 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AX19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY19" s="63">
-        <v>16.152</v>
-      </c>
-      <c r="AZ19" s="63">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="63">
-        <v>49.536</v>
-      </c>
-      <c r="BB19" s="63">
-        <v>5.0079403617322</v>
-      </c>
-      <c r="BC19" s="63">
-        <v>32.844</v>
-      </c>
-      <c r="BD19" s="63">
-        <v>2.5039701808661</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AY19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11"/>
       <c r="BG19" s="11"/>
@@ -4243,29 +4063,19 @@
       <c r="BI19" s="11"/>
       <c r="BJ19" s="11"/>
       <c r="BL19" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="BM19" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN19" s="63">
-        <v>646.08</v>
-      </c>
-      <c r="BO19" s="63">
-        <v>0.79727710020256</v>
-      </c>
-      <c r="BP19" s="63">
-        <v>964.48645378151</v>
-      </c>
-      <c r="BQ19" s="63">
-        <v>0.8380963105772</v>
-      </c>
-      <c r="BR19" s="63">
-        <v>805.28322689076</v>
-      </c>
-      <c r="BS19" s="63">
-        <v>0.81768670538988</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="11"/>
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
       <c r="BV19" s="11"/>
@@ -4273,16 +4083,26 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
       <c r="CA19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="CC19" s="10"/>
-      <c r="CD19" s="10"/>
-      <c r="CE19" s="10"/>
-      <c r="CF19" s="10"/>
-      <c r="CG19" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB19" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="64">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="64">
+        <v>0</v>
+      </c>
       <c r="CH19" s="10"/>
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
@@ -4290,10 +4110,10 @@
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CO19" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="CP19" s="10" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
@@ -4307,13 +4127,13 @@
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
       <c r="DC19" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="DD19" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE19" s="10" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="DF19" s="10"/>
       <c r="DG19" s="10"/>
@@ -4329,70 +4149,52 @@
     </row>
     <row r="20" spans="1:120">
       <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="63">
-        <v>1791.2652705985</v>
-      </c>
-      <c r="D20" s="63">
-        <v>0.040099270072993</v>
-      </c>
-      <c r="E20" s="63">
-        <v>3577.927898288</v>
-      </c>
-      <c r="F20" s="63">
-        <v>0.08009550536711</v>
-      </c>
-      <c r="G20" s="63">
-        <v>0</v>
-      </c>
-      <c r="H20" s="63">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="J20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="63">
-        <v>1687.2412335766</v>
-      </c>
-      <c r="L20" s="63">
-        <v>0.11934306569343</v>
-      </c>
-      <c r="M20" s="63">
-        <v>1687.2412335766</v>
-      </c>
-      <c r="N20" s="63">
-        <v>0.11934306569343</v>
-      </c>
-      <c r="O20" s="63">
-        <v>0</v>
-      </c>
-      <c r="P20" s="63">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="10"/>
       <c r="R20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S20" s="63">
-        <v>0</v>
-      </c>
-      <c r="T20" s="63">
-        <v>0</v>
-      </c>
-      <c r="U20" s="63">
-        <v>1839.1660423529</v>
-      </c>
-      <c r="V20" s="63">
-        <v>0.060235294117647</v>
-      </c>
-      <c r="W20" s="63">
-        <v>0</v>
-      </c>
-      <c r="X20" s="63">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X20" s="10"/>
       <c r="Z20" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -4401,7 +4203,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AH20" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -4410,7 +4212,7 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AP20" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
@@ -4419,26 +4221,16 @@
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
       <c r="AX20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY20" s="63">
-        <v>105.06704254777</v>
-      </c>
-      <c r="AZ20" s="63">
-        <v>0.31739317307107</v>
-      </c>
-      <c r="BA20" s="63">
-        <v>50.053774367916</v>
-      </c>
-      <c r="BB20" s="63">
-        <v>0.0076934879684228</v>
-      </c>
-      <c r="BC20" s="63">
-        <v>77.560408457844</v>
-      </c>
-      <c r="BD20" s="63">
-        <v>0.16254333051975</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AY20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
@@ -4446,29 +4238,19 @@
       <c r="BI20" s="11"/>
       <c r="BJ20" s="11"/>
       <c r="BL20" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="BM20" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN20" s="63">
-        <v>1490.9550187282</v>
-      </c>
-      <c r="BO20" s="63">
-        <v>2.1126438258524</v>
-      </c>
-      <c r="BP20" s="63">
-        <v>1671.8889420098</v>
-      </c>
-      <c r="BQ20" s="63">
-        <v>1.4504462091821</v>
-      </c>
-      <c r="BR20" s="63">
-        <v>1581.421980369</v>
-      </c>
-      <c r="BS20" s="63">
-        <v>1.7815450175173</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO20" s="10"/>
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="10"/>
+      <c r="BR20" s="10"/>
+      <c r="BS20" s="11"/>
       <c r="BT20" s="11"/>
       <c r="BU20" s="11"/>
       <c r="BV20" s="11"/>
@@ -4476,7 +4258,7 @@
       <c r="BX20" s="11"/>
       <c r="BY20" s="11"/>
       <c r="CA20" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="CB20" s="37"/>
       <c r="CC20" s="8"/>
@@ -4491,10 +4273,10 @@
       <c r="CL20" s="8"/>
       <c r="CM20" s="9"/>
       <c r="CO20" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="CP20" s="10" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="CQ20" s="10"/>
       <c r="CR20" s="10"/>
@@ -4508,13 +4290,13 @@
       <c r="CZ20" s="10"/>
       <c r="DA20" s="10"/>
       <c r="DC20" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="DD20" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE20" s="10" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="DF20" s="10"/>
       <c r="DG20" s="10"/>
@@ -4530,70 +4312,52 @@
     </row>
     <row r="21" spans="1:120">
       <c r="B21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="63">
-        <v>16093.771577932</v>
-      </c>
-      <c r="D21" s="63">
-        <v>0.36027522198368</v>
-      </c>
-      <c r="E21" s="63">
-        <v>21466.623382636</v>
-      </c>
-      <c r="F21" s="63">
-        <v>0.48055189965688</v>
-      </c>
-      <c r="G21" s="63">
-        <v>0</v>
-      </c>
-      <c r="H21" s="63">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="10"/>
       <c r="J21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="63">
-        <v>5061.7237007299</v>
-      </c>
-      <c r="L21" s="63">
-        <v>0.35802919708029</v>
-      </c>
-      <c r="M21" s="63">
-        <v>18537.087613953</v>
-      </c>
-      <c r="N21" s="63">
-        <v>1.3111775725082</v>
-      </c>
-      <c r="O21" s="63">
-        <v>0</v>
-      </c>
-      <c r="P21" s="63">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="10"/>
       <c r="R21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S21" s="63">
-        <v>11034.996254118</v>
-      </c>
-      <c r="T21" s="63">
-        <v>0.36141176470588</v>
-      </c>
-      <c r="U21" s="63">
-        <v>1839.1660423529</v>
-      </c>
-      <c r="V21" s="63">
-        <v>0.060235294117647</v>
-      </c>
-      <c r="W21" s="63">
-        <v>0</v>
-      </c>
-      <c r="X21" s="63">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X21" s="10"/>
       <c r="Z21" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -4602,7 +4366,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AH21" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -4611,7 +4375,7 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
       <c r="AP21" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -4620,26 +4384,16 @@
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
       <c r="AX21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY21" s="63">
-        <v>23.544</v>
-      </c>
-      <c r="AZ21" s="63">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="63">
-        <v>24.576</v>
-      </c>
-      <c r="BB21" s="63">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="63">
-        <v>24.06</v>
-      </c>
-      <c r="BD21" s="63">
-        <v>0</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AY21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
       <c r="BE21" s="11"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
@@ -4647,29 +4401,19 @@
       <c r="BI21" s="11"/>
       <c r="BJ21" s="11"/>
       <c r="BL21" s="4" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="BM21" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN21" s="63">
-        <v>490.68405253283</v>
-      </c>
-      <c r="BO21" s="63">
-        <v>2.5746292900939</v>
-      </c>
-      <c r="BP21" s="63">
-        <v>409.6</v>
-      </c>
-      <c r="BQ21" s="63">
-        <v>0.81554494042992</v>
-      </c>
-      <c r="BR21" s="63">
-        <v>450.14202626642</v>
-      </c>
-      <c r="BS21" s="63">
-        <v>1.6950871152619</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="BN21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="10"/>
+      <c r="BR21" s="10"/>
+      <c r="BS21" s="11"/>
       <c r="BT21" s="11"/>
       <c r="BU21" s="11"/>
       <c r="BV21" s="11"/>
@@ -4677,16 +4421,26 @@
       <c r="BX21" s="11"/>
       <c r="BY21" s="11"/>
       <c r="CA21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC21" s="10"/>
-      <c r="CD21" s="10"/>
-      <c r="CE21" s="10"/>
-      <c r="CF21" s="10"/>
-      <c r="CG21" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB21" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="64">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="CE21" s="64">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="CF21" s="64">
+        <v>1786.6626276894</v>
+      </c>
+      <c r="CG21" s="64">
+        <v>0.039996235294118</v>
+      </c>
       <c r="CH21" s="10"/>
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
@@ -4694,10 +4448,10 @@
       <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
       <c r="CO21" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="CP21" s="10" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="CQ21" s="10"/>
       <c r="CR21" s="10"/>
@@ -4711,13 +4465,13 @@
       <c r="CZ21" s="10"/>
       <c r="DA21" s="10"/>
       <c r="DC21" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="DD21" s="28" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="DE21" s="10" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="DF21" s="10"/>
       <c r="DG21" s="10"/>
@@ -4733,70 +4487,52 @@
     </row>
     <row r="22" spans="1:120">
       <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="63">
-        <v>3189505.4509916</v>
-      </c>
-      <c r="D22" s="63">
-        <v>71.400279220429</v>
-      </c>
-      <c r="E22" s="63">
-        <v>568261.97731824</v>
-      </c>
-      <c r="F22" s="63">
-        <v>12.721114440567</v>
-      </c>
-      <c r="G22" s="63">
-        <v>1784.8038156153</v>
-      </c>
-      <c r="H22" s="63">
-        <v>0.039954623921085</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="J22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="63">
-        <v>995924.88891315</v>
-      </c>
-      <c r="L22" s="63">
-        <v>70.444419611136</v>
-      </c>
-      <c r="M22" s="63">
-        <v>213973.38441251</v>
-      </c>
-      <c r="N22" s="63">
-        <v>15.13490730573</v>
-      </c>
-      <c r="O22" s="63">
-        <v>0</v>
-      </c>
-      <c r="P22" s="63">
-        <v>0</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="10"/>
       <c r="R22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S22" s="63">
-        <v>2194835.3275097</v>
-      </c>
-      <c r="T22" s="63">
-        <v>71.883967215493</v>
-      </c>
-      <c r="U22" s="63">
-        <v>351119.98549107</v>
-      </c>
-      <c r="V22" s="63">
-        <v>11.499677087111</v>
-      </c>
-      <c r="W22" s="63">
-        <v>1837.2526066584</v>
-      </c>
-      <c r="X22" s="63">
-        <v>0.060172626387176</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X22" s="10"/>
       <c r="Z22" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -4805,7 +4541,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AH22" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -4814,7 +4550,7 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
       <c r="AP22" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
@@ -4823,26 +4559,16 @@
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
       <c r="AX22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY22" s="63">
-        <v>80.994857142857</v>
-      </c>
-      <c r="AZ22" s="63">
-        <v>9.4832692939438</v>
-      </c>
-      <c r="BA22" s="63">
-        <v>21.942857142857</v>
-      </c>
-      <c r="BB22" s="63">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="63">
-        <v>51.468857142857</v>
-      </c>
-      <c r="BD22" s="63">
-        <v>4.7416346469719</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AY22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
       <c r="BE22" s="11"/>
       <c r="BF22" s="11"/>
       <c r="BG22" s="11"/>
@@ -4850,29 +4576,19 @@
       <c r="BI22" s="11"/>
       <c r="BJ22" s="11"/>
       <c r="BL22" s="4" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="BM22" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN22" s="63">
-        <v>1564.2856200942</v>
-      </c>
-      <c r="BO22" s="63">
-        <v>2.2455526236573</v>
-      </c>
-      <c r="BP22" s="63">
-        <v>597.04670348139</v>
-      </c>
-      <c r="BQ22" s="63">
-        <v>0.33518771633303</v>
-      </c>
-      <c r="BR22" s="63">
-        <v>1080.6661617878</v>
-      </c>
-      <c r="BS22" s="65">
-        <v>1.2903701699952</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BN22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="3"/>
       <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
@@ -4881,16 +4597,26 @@
       <c r="BY22" s="3"/>
       <c r="BZ22" s="19"/>
       <c r="CA22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC22" s="10"/>
-      <c r="CD22" s="10"/>
-      <c r="CE22" s="10"/>
-      <c r="CF22" s="10"/>
-      <c r="CG22" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB22" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD22" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="64">
+        <v>0</v>
+      </c>
+      <c r="CG22" s="64">
+        <v>0</v>
+      </c>
       <c r="CH22" s="10"/>
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
@@ -4898,10 +4624,10 @@
       <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
       <c r="CO22" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="CP22" s="10" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="CQ22" s="10"/>
       <c r="CR22" s="10"/>
@@ -4915,13 +4641,13 @@
       <c r="CZ22" s="10"/>
       <c r="DA22" s="10"/>
       <c r="DC22" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="DD22" s="28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="DE22" s="10" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="DF22" s="10"/>
       <c r="DG22" s="10"/>
@@ -4937,70 +4663,52 @@
     </row>
     <row r="23" spans="1:120">
       <c r="B23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="63">
-        <v>0</v>
-      </c>
-      <c r="D23" s="63">
-        <v>0</v>
-      </c>
-      <c r="E23" s="63">
-        <v>0</v>
-      </c>
-      <c r="F23" s="63">
-        <v>0</v>
-      </c>
-      <c r="G23" s="63">
-        <v>0</v>
-      </c>
-      <c r="H23" s="63">
-        <v>0</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="10"/>
       <c r="J23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="63">
-        <v>0</v>
-      </c>
-      <c r="L23" s="63">
-        <v>0</v>
-      </c>
-      <c r="M23" s="63">
-        <v>0</v>
-      </c>
-      <c r="N23" s="63">
-        <v>0</v>
-      </c>
-      <c r="O23" s="63">
-        <v>0</v>
-      </c>
-      <c r="P23" s="63">
-        <v>0</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="10"/>
       <c r="R23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S23" s="63">
-        <v>0</v>
-      </c>
-      <c r="T23" s="63">
-        <v>0</v>
-      </c>
-      <c r="U23" s="63">
-        <v>0</v>
-      </c>
-      <c r="V23" s="63">
-        <v>0</v>
-      </c>
-      <c r="W23" s="63">
-        <v>0</v>
-      </c>
-      <c r="X23" s="63">
-        <v>0</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="X23" s="10"/>
       <c r="Z23" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -5009,7 +4717,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AH23" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -5018,7 +4726,7 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
       <c r="AP23" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
@@ -5027,26 +4735,14 @@
       <c r="AU23" s="10"/>
       <c r="AV23" s="10"/>
       <c r="AX23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY23" s="63">
-        <v>8.5089885177453</v>
-      </c>
-      <c r="AZ23" s="63">
-        <v>0.0097298094099909</v>
-      </c>
-      <c r="BA23" s="63">
-        <v>5.8641593883934</v>
-      </c>
-      <c r="BB23" s="63">
-        <v>0.00059976722404126</v>
-      </c>
-      <c r="BC23" s="63">
-        <v>7.1865739530693</v>
-      </c>
-      <c r="BD23" s="63">
-        <v>0.0051647883170161</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
       <c r="BE23" s="11"/>
       <c r="BF23" s="11"/>
       <c r="BG23" s="11"/>
@@ -5054,29 +4750,19 @@
       <c r="BI23" s="11"/>
       <c r="BJ23" s="11"/>
       <c r="BL23" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="BM23" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN23" s="63">
-        <v>1.5825894299898</v>
-      </c>
-      <c r="BO23" s="63">
-        <v>0.0014121985725104</v>
-      </c>
-      <c r="BP23" s="63">
-        <v>1.0444990743389</v>
-      </c>
-      <c r="BQ23" s="63">
-        <v>7.9284275235685E-5</v>
-      </c>
-      <c r="BR23" s="63">
-        <v>1.3135442521643</v>
-      </c>
-      <c r="BS23" s="65">
-        <v>0.00074574142387302</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="BN23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="3"/>
       <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
@@ -5085,7 +4771,7 @@
       <c r="BY23" s="3"/>
       <c r="BZ23" s="19"/>
       <c r="CA23" s="34" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="CB23" s="37"/>
       <c r="CC23" s="35"/>
@@ -5100,10 +4786,10 @@
       <c r="CL23" s="35"/>
       <c r="CM23" s="36"/>
       <c r="CO23" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="CP23" s="10" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="CQ23" s="10"/>
       <c r="CR23" s="10"/>
@@ -5117,13 +4803,13 @@
       <c r="CZ23" s="10"/>
       <c r="DA23" s="10"/>
       <c r="DC23" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="DD23" s="32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="DE23" s="10" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="DF23" s="10"/>
       <c r="DG23" s="10"/>
@@ -5143,112 +4829,102 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="W24" s="28"/>
       <c r="X24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="Z24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AC24" s="28"/>
       <c r="AD24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AH24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AM24" s="28"/>
       <c r="AN24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AP24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AU24" s="28"/>
       <c r="AV24" s="28" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY24" s="63">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="63">
-        <v>0</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AY24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -5256,27 +4932,17 @@
       <c r="BI24" s="11"/>
       <c r="BJ24" s="11"/>
       <c r="BL24" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="BM24" s="10"/>
-      <c r="BN24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BP24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BR24" s="63">
-        <v>0</v>
-      </c>
-      <c r="BS24" s="63">
-        <v>0</v>
-      </c>
+      <c r="BN24" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="11"/>
       <c r="BT24" s="11"/>
       <c r="BU24" s="11"/>
       <c r="BV24" s="11"/>
@@ -5284,16 +4950,26 @@
       <c r="BX24" s="11"/>
       <c r="BY24" s="11"/>
       <c r="CA24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC24" s="10"/>
-      <c r="CD24" s="10"/>
-      <c r="CE24" s="10"/>
-      <c r="CF24" s="10"/>
-      <c r="CG24" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB24" s="64">
+        <v>20230.776263355</v>
+      </c>
+      <c r="CC24" s="64">
+        <v>1.430976681093</v>
+      </c>
+      <c r="CD24" s="64">
+        <v>101134.99797247</v>
+      </c>
+      <c r="CE24" s="64">
+        <v>3.3123144991659</v>
+      </c>
+      <c r="CF24" s="64">
+        <v>119725.92734819</v>
+      </c>
+      <c r="CG24" s="64">
+        <v>2.6801849922934</v>
+      </c>
       <c r="CH24" s="10"/>
       <c r="CI24" s="10"/>
       <c r="CJ24" s="10"/>
@@ -5301,10 +4977,10 @@
       <c r="CL24" s="10"/>
       <c r="CM24" s="10"/>
       <c r="CO24" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="CP24" s="10" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="CQ24" s="10"/>
       <c r="CR24" s="10"/>
@@ -5318,11 +4994,11 @@
       <c r="CZ24" s="10"/>
       <c r="DA24" s="10"/>
       <c r="DC24" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="DD24" s="10"/>
       <c r="DE24" s="10" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="DF24" s="10"/>
       <c r="DG24" s="10"/>
@@ -5352,16 +5028,26 @@
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
       <c r="CA25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="CC25" s="10"/>
-      <c r="CD25" s="10"/>
-      <c r="CE25" s="10"/>
-      <c r="CF25" s="10"/>
-      <c r="CG25" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB25" s="64">
+        <v>195513.66578846</v>
+      </c>
+      <c r="CC25" s="64">
+        <v>13.829202247917</v>
+      </c>
+      <c r="CD25" s="64">
+        <v>946728.50816634</v>
+      </c>
+      <c r="CE25" s="64">
+        <v>31.006700224849</v>
+      </c>
+      <c r="CF25" s="64">
+        <v>1127269.6016054</v>
+      </c>
+      <c r="CG25" s="64">
+        <v>25.2350609046</v>
+      </c>
       <c r="CH25" s="10"/>
       <c r="CI25" s="10"/>
       <c r="CJ25" s="10"/>
@@ -5371,10 +5057,10 @@
     </row>
     <row r="26" spans="1:120">
       <c r="AX26" s="38" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="BL26" s="38" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="BM26" s="33"/>
       <c r="BN26" s="12"/>
@@ -5390,7 +5076,7 @@
       <c r="BX26" s="12"/>
       <c r="BY26" s="12"/>
       <c r="CA26" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="CB26" s="37"/>
       <c r="CC26" s="35"/>
@@ -5404,16 +5090,16 @@
       <c r="CK26" s="35"/>
       <c r="CL26" s="35"/>
       <c r="CM26" s="36"/>
-      <c r="CO26" s="40" t="s">
-        <v>93</v>
+      <c r="CO26" s="41" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:120">
       <c r="AX27" s="39" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="BL27" s="38" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="BM27" s="33"/>
       <c r="BN27" s="12"/>
@@ -5429,29 +5115,39 @@
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
       <c r="CA27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB27" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CC27" s="10"/>
-      <c r="CD27" s="10"/>
-      <c r="CE27" s="10"/>
-      <c r="CF27" s="10"/>
-      <c r="CG27" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB27" s="64">
+        <v>35380.486578503</v>
+      </c>
+      <c r="CC27" s="64">
+        <v>2.5025560364318</v>
+      </c>
+      <c r="CD27" s="64">
+        <v>79032.477057425</v>
+      </c>
+      <c r="CE27" s="64">
+        <v>2.5884256183361</v>
+      </c>
+      <c r="CF27" s="64">
+        <v>114338.11638347</v>
+      </c>
+      <c r="CG27" s="64">
+        <v>2.5595734388162</v>
+      </c>
       <c r="CH27" s="10"/>
       <c r="CI27" s="10"/>
       <c r="CJ27" s="10"/>
       <c r="CK27" s="10"/>
       <c r="CL27" s="10"/>
       <c r="CM27" s="10"/>
-      <c r="DC27" s="40" t="s">
-        <v>97</v>
+      <c r="DC27" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:120">
       <c r="AX28" s="38" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="BM28" s="33"/>
       <c r="BN28" s="12"/>
@@ -5467,16 +5163,26 @@
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
       <c r="CA28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="10"/>
-      <c r="CE28" s="10"/>
-      <c r="CF28" s="10"/>
-      <c r="CG28" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB28" s="64">
+        <v>786877.83246903</v>
+      </c>
+      <c r="CC28" s="64">
+        <v>55.65796460177</v>
+      </c>
+      <c r="CD28" s="64">
+        <v>917141.12289035</v>
+      </c>
+      <c r="CE28" s="64">
+        <v>30.037671429608</v>
+      </c>
+      <c r="CF28" s="64">
+        <v>1726350.594906</v>
+      </c>
+      <c r="CG28" s="64">
+        <v>38.646089935454</v>
+      </c>
       <c r="CH28" s="10"/>
       <c r="CI28" s="10"/>
       <c r="CJ28" s="10"/>
@@ -5486,10 +5192,10 @@
     </row>
     <row r="29" spans="1:120">
       <c r="BL29" s="38" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="CA29" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="CB29" s="37"/>
       <c r="CC29" s="35"/>
@@ -5506,19 +5212,29 @@
     </row>
     <row r="30" spans="1:120">
       <c r="BL30" s="38" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="CA30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB30" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="CC30" s="10"/>
-      <c r="CD30" s="10"/>
-      <c r="CE30" s="10"/>
-      <c r="CF30" s="10"/>
-      <c r="CG30" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB30" s="64">
+        <v>11801.017511298</v>
+      </c>
+      <c r="CC30" s="64">
+        <v>0.83471739551709</v>
+      </c>
+      <c r="CD30" s="64">
+        <v>20219.345851715</v>
+      </c>
+      <c r="CE30" s="64">
+        <v>0.66221222891129</v>
+      </c>
+      <c r="CF30" s="64">
+        <v>32170.725545627</v>
+      </c>
+      <c r="CG30" s="64">
+        <v>0.72017396489084</v>
+      </c>
       <c r="CH30" s="10"/>
       <c r="CI30" s="10"/>
       <c r="CJ30" s="10"/>
@@ -5528,16 +5244,26 @@
     </row>
     <row r="31" spans="1:120">
       <c r="CA31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC31" s="10"/>
-      <c r="CD31" s="10"/>
-      <c r="CE31" s="10"/>
-      <c r="CF31" s="10"/>
-      <c r="CG31" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB31" s="64">
+        <v>305013.48945156</v>
+      </c>
+      <c r="CC31" s="64">
+        <v>21.574416381371</v>
+      </c>
+      <c r="CD31" s="64">
+        <v>625075.36150249</v>
+      </c>
+      <c r="CE31" s="64">
+        <v>20.472103865961</v>
+      </c>
+      <c r="CF31" s="64">
+        <v>931049.66922403</v>
+      </c>
+      <c r="CG31" s="64">
+        <v>20.842480871138</v>
+      </c>
       <c r="CH31" s="10"/>
       <c r="CI31" s="10"/>
       <c r="CJ31" s="10"/>
@@ -5547,7 +5273,7 @@
     </row>
     <row r="32" spans="1:120">
       <c r="CA32" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="CB32" s="37"/>
       <c r="CC32" s="35"/>
@@ -5564,16 +5290,26 @@
     </row>
     <row r="33" spans="1:120">
       <c r="CA33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC33" s="10"/>
-      <c r="CD33" s="10"/>
-      <c r="CE33" s="10"/>
-      <c r="CF33" s="10"/>
-      <c r="CG33" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB33" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="64">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="CE33" s="64">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="CF33" s="64">
+        <v>1784.8038156153</v>
+      </c>
+      <c r="CG33" s="64">
+        <v>0.039954623921085</v>
+      </c>
       <c r="CH33" s="10"/>
       <c r="CI33" s="10"/>
       <c r="CJ33" s="10"/>
@@ -5583,16 +5319,26 @@
     </row>
     <row r="34" spans="1:120">
       <c r="CA34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB34" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CC34" s="10"/>
-      <c r="CD34" s="10"/>
-      <c r="CE34" s="10"/>
-      <c r="CF34" s="10"/>
-      <c r="CG34" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB34" s="64">
+        <v>48865.521615464</v>
+      </c>
+      <c r="CC34" s="64">
+        <v>3.4563884761966</v>
+      </c>
+      <c r="CD34" s="64">
+        <v>33085.854405408</v>
+      </c>
+      <c r="CE34" s="64">
+        <v>1.0836086168129</v>
+      </c>
+      <c r="CF34" s="64">
+        <v>84019.582820347</v>
+      </c>
+      <c r="CG34" s="64">
+        <v>1.8808626495659</v>
+      </c>
       <c r="CH34" s="10"/>
       <c r="CI34" s="10"/>
       <c r="CJ34" s="10"/>
@@ -5602,7 +5348,7 @@
     </row>
     <row r="35" spans="1:120">
       <c r="CA35" s="4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="CB35" s="37"/>
       <c r="CC35" s="35"/>
@@ -5619,16 +5365,26 @@
     </row>
     <row r="36" spans="1:120">
       <c r="CA36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="CC36" s="10"/>
-      <c r="CD36" s="10"/>
-      <c r="CE36" s="10"/>
-      <c r="CF36" s="10"/>
-      <c r="CG36" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB36" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC36" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD36" s="64">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="CE36" s="64">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="CF36" s="64">
+        <v>1786.6626276894</v>
+      </c>
+      <c r="CG36" s="64">
+        <v>0.039996235294118</v>
+      </c>
       <c r="CH36" s="10"/>
       <c r="CI36" s="10"/>
       <c r="CJ36" s="10"/>
@@ -5638,16 +5394,26 @@
     </row>
     <row r="37" spans="1:120">
       <c r="CA37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB37" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC37" s="10"/>
-      <c r="CD37" s="10"/>
-      <c r="CE37" s="10"/>
-      <c r="CF37" s="10"/>
-      <c r="CG37" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB37" s="64">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="CC37" s="64">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="CD37" s="64">
+        <v>7354.7507337173</v>
+      </c>
+      <c r="CE37" s="64">
+        <v>0.24087850874012</v>
+      </c>
+      <c r="CF37" s="64">
+        <v>8932.6345090481</v>
+      </c>
+      <c r="CG37" s="64">
+        <v>0.19996598467069</v>
+      </c>
       <c r="CH37" s="10"/>
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
@@ -5657,7 +5423,7 @@
     </row>
     <row r="38" spans="1:120">
       <c r="CA38" s="4" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="CB38" s="37"/>
       <c r="CC38" s="35"/>
@@ -5674,16 +5440,26 @@
     </row>
     <row r="39" spans="1:120">
       <c r="CA39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB39" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="CC39" s="10"/>
-      <c r="CD39" s="10"/>
-      <c r="CE39" s="10"/>
-      <c r="CF39" s="10"/>
-      <c r="CG39" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB39" s="64">
+        <v>16853.070088289</v>
+      </c>
+      <c r="CC39" s="64">
+        <v>1.1920625282604</v>
+      </c>
+      <c r="CD39" s="64">
+        <v>64345.936818325</v>
+      </c>
+      <c r="CE39" s="64">
+        <v>2.1074206136215</v>
+      </c>
+      <c r="CF39" s="64">
+        <v>80401.145356748</v>
+      </c>
+      <c r="CG39" s="64">
+        <v>1.7998602969402</v>
+      </c>
       <c r="CH39" s="10"/>
       <c r="CI39" s="10"/>
       <c r="CJ39" s="10"/>
@@ -5693,16 +5469,26 @@
     </row>
     <row r="40" spans="1:120">
       <c r="CA40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CC40" s="10"/>
-      <c r="CD40" s="10"/>
-      <c r="CE40" s="10"/>
-      <c r="CF40" s="10"/>
-      <c r="CG40" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB40" s="64">
+        <v>411206.52851367</v>
+      </c>
+      <c r="CC40" s="64">
+        <v>29.085732833796</v>
+      </c>
+      <c r="CD40" s="64">
+        <v>933848.60556278</v>
+      </c>
+      <c r="CE40" s="64">
+        <v>30.584865162835</v>
+      </c>
+      <c r="CF40" s="64">
+        <v>1343748.4322921</v>
+      </c>
+      <c r="CG40" s="64">
+        <v>30.081156700278</v>
+      </c>
       <c r="CH40" s="10"/>
       <c r="CI40" s="10"/>
       <c r="CJ40" s="10"/>
@@ -5712,7 +5498,7 @@
     </row>
     <row r="41" spans="1:120">
       <c r="CA41" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="CB41" s="37"/>
       <c r="CC41" s="35"/>
@@ -5729,16 +5515,26 @@
     </row>
     <row r="42" spans="1:120">
       <c r="CA42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB42" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC42" s="10"/>
-      <c r="CD42" s="10"/>
-      <c r="CE42" s="10"/>
-      <c r="CF42" s="10"/>
-      <c r="CG42" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB42" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD42" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE42" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="64">
+        <v>0</v>
+      </c>
+      <c r="CG42" s="64">
+        <v>0</v>
+      </c>
       <c r="CH42" s="10"/>
       <c r="CI42" s="10"/>
       <c r="CJ42" s="10"/>
@@ -5748,16 +5544,26 @@
     </row>
     <row r="43" spans="1:120">
       <c r="CA43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CC43" s="10"/>
-      <c r="CD43" s="10"/>
-      <c r="CE43" s="10"/>
-      <c r="CF43" s="10"/>
-      <c r="CG43" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB43" s="64">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="CC43" s="64">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="CD43" s="64">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="CE43" s="64">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="CF43" s="64">
+        <v>5369.1931688865</v>
+      </c>
+      <c r="CG43" s="64">
+        <v>0.1201947754401</v>
+      </c>
       <c r="CH43" s="10"/>
       <c r="CI43" s="10"/>
       <c r="CJ43" s="10"/>
@@ -5767,7 +5573,7 @@
     </row>
     <row r="44" spans="1:120">
       <c r="CA44" s="4" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="CB44" s="35"/>
       <c r="CC44" s="35"/>
@@ -5784,16 +5590,26 @@
     </row>
     <row r="45" spans="1:120">
       <c r="CA45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB45" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="CC45" s="10"/>
-      <c r="CD45" s="10"/>
-      <c r="CE45" s="10"/>
-      <c r="CF45" s="10"/>
-      <c r="CG45" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB45" s="64">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="CC45" s="64">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="CD45" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE45" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF45" s="64">
+        <v>1791.2652705985</v>
+      </c>
+      <c r="CG45" s="64">
+        <v>0.040099270072993</v>
+      </c>
       <c r="CH45" s="10"/>
       <c r="CI45" s="10"/>
       <c r="CJ45" s="10"/>
@@ -5803,16 +5619,26 @@
     </row>
     <row r="46" spans="1:120">
       <c r="CA46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB46" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CC46" s="10"/>
-      <c r="CD46" s="10"/>
-      <c r="CE46" s="10"/>
-      <c r="CF46" s="10"/>
-      <c r="CG46" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB46" s="64">
+        <v>21911.570081106</v>
+      </c>
+      <c r="CC46" s="64">
+        <v>1.5498637038951</v>
+      </c>
+      <c r="CD46" s="64">
+        <v>12874.162296471</v>
+      </c>
+      <c r="CE46" s="64">
+        <v>0.42164705882353</v>
+      </c>
+      <c r="CF46" s="64">
+        <v>35769.129689969</v>
+      </c>
+      <c r="CG46" s="64">
+        <v>0.80072785156758</v>
+      </c>
       <c r="CH46" s="10"/>
       <c r="CI46" s="10"/>
       <c r="CJ46" s="10"/>
@@ -5822,7 +5648,7 @@
     </row>
     <row r="47" spans="1:120">
       <c r="CA47" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="CB47" s="35"/>
       <c r="CC47" s="35"/>
@@ -5839,16 +5665,26 @@
     </row>
     <row r="48" spans="1:120">
       <c r="CA48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB48" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="CC48" s="10"/>
-      <c r="CD48" s="10"/>
-      <c r="CE48" s="10"/>
-      <c r="CF48" s="10"/>
-      <c r="CG48" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB48" s="64">
+        <v>266303.65231669</v>
+      </c>
+      <c r="CC48" s="64">
+        <v>18.836366513791</v>
+      </c>
+      <c r="CD48" s="64">
+        <v>1020297.0632961</v>
+      </c>
+      <c r="CE48" s="64">
+        <v>33.416174657286</v>
+      </c>
+      <c r="CF48" s="64">
+        <v>1273892.3903048</v>
+      </c>
+      <c r="CG48" s="64">
+        <v>28.517359121072</v>
+      </c>
       <c r="CH48" s="10"/>
       <c r="CI48" s="10"/>
       <c r="CJ48" s="10"/>
@@ -5858,16 +5694,26 @@
     </row>
     <row r="49" spans="1:120">
       <c r="CA49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB49" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="CC49" s="10"/>
-      <c r="CD49" s="10"/>
-      <c r="CE49" s="10"/>
-      <c r="CF49" s="10"/>
-      <c r="CG49" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB49" s="64">
+        <v>935161.638549</v>
+      </c>
+      <c r="CC49" s="64">
+        <v>66.146473096053</v>
+      </c>
+      <c r="CD49" s="64">
+        <v>1531168.0940889</v>
+      </c>
+      <c r="CE49" s="64">
+        <v>50.147924856749</v>
+      </c>
+      <c r="CF49" s="64">
+        <v>2480274.686747</v>
+      </c>
+      <c r="CG49" s="64">
+        <v>55.523437065155</v>
+      </c>
       <c r="CH49" s="10"/>
       <c r="CI49" s="10"/>
       <c r="CJ49" s="10"/>
@@ -5877,7 +5723,7 @@
     </row>
     <row r="50" spans="1:120">
       <c r="CA50" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="CB50" s="35"/>
       <c r="CC50" s="35"/>
@@ -5894,16 +5740,26 @@
     </row>
     <row r="51" spans="1:120">
       <c r="CA51" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB51" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CC51" s="10"/>
-      <c r="CD51" s="10"/>
-      <c r="CE51" s="10"/>
-      <c r="CF51" s="10"/>
-      <c r="CG51" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CB51" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC51" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD51" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF51" s="64">
+        <v>0</v>
+      </c>
+      <c r="CG51" s="64">
+        <v>0</v>
+      </c>
       <c r="CH51" s="10"/>
       <c r="CI51" s="10"/>
       <c r="CJ51" s="10"/>
@@ -5913,16 +5769,26 @@
     </row>
     <row r="52" spans="1:120">
       <c r="CA52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CC52" s="10"/>
-      <c r="CD52" s="10"/>
-      <c r="CE52" s="10"/>
-      <c r="CF52" s="10"/>
-      <c r="CG52" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="CB52" s="64">
+        <v>0</v>
+      </c>
+      <c r="CC52" s="64">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="64">
+        <v>0</v>
+      </c>
+      <c r="CE52" s="64">
+        <v>0</v>
+      </c>
+      <c r="CF52" s="64">
+        <v>0</v>
+      </c>
+      <c r="CG52" s="64">
+        <v>0</v>
+      </c>
       <c r="CH52" s="10"/>
       <c r="CI52" s="10"/>
       <c r="CJ52" s="10"/>

--- a/storage/excel/sum11_2.xlsx
+++ b/storage/excel/sum11_2.xlsx
@@ -146,12 +146,6 @@
     <t>no_ra808_o81_ti829_ch830_o266_nu833</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o266_nu835</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_nu836</t>
-  </si>
-  <si>
     <t>แกลบ</t>
   </si>
   <si>
@@ -173,10 +167,7 @@
     <t xml:space="preserve">  ขนส่งโดยไม่ใช้เชื้อเพลิง</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o267_nu835</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_nu836</t>
+    <t>no_ra808_o81_ti829_ch830_o266_ra832(225)</t>
   </si>
   <si>
     <t>วัสดุเหลือใช้ทางการเกษตร</t>
@@ -200,10 +191,7 @@
     <t xml:space="preserve">  ขนส่งโดยใช้เชื้อเพลิง</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o268_nu835</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_nu836</t>
+    <t>no_ra808_o81_ti829_ch830_o266_ra832(226)</t>
   </si>
   <si>
     <t>เบนซิน 95</t>
@@ -224,12 +212,6 @@
     <t>no_ra808_o81_ti829_ch830_o269_nu833</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o269_nu835</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o269_nu836</t>
-  </si>
-  <si>
     <t>แก๊สโซฮอล์ 91</t>
   </si>
   <si>
@@ -251,10 +233,7 @@
     <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o228_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_nu820</t>
+    <t>no_ra808_o81_ti829_ch830_o267_ra832(225)</t>
   </si>
   <si>
     <t>แก๊สโซฮอล์ 95</t>
@@ -275,10 +254,7 @@
     <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o229_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o229_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o229_nu820</t>
+    <t>no_ra808_o81_ti829_ch830_o267_ra832(226)</t>
   </si>
   <si>
     <t>แก๊สโซฮอล์ อี 20</t>
@@ -299,12 +275,6 @@
     <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o230_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o230_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_nu820</t>
-  </si>
-  <si>
     <t>แก๊สโซฮอล์ อี 85</t>
   </si>
   <si>
@@ -323,10 +293,7 @@
     <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o231_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o231_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_nu820</t>
+    <t>no_ra808_o81_ti829_ch830_o268_ra832(225)</t>
   </si>
   <si>
     <t>น้ำมันดีเซล</t>
@@ -347,10 +314,7 @@
     <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o232_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o232_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_nu820</t>
+    <t>no_ra808_o81_ti829_ch830_o268_ra832(226)</t>
   </si>
   <si>
     <t xml:space="preserve">ก๊าซธรรมชาติ </t>
@@ -371,12 +335,6 @@
     <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o233_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o233_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_nu820</t>
-  </si>
-  <si>
     <t xml:space="preserve">ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์ </t>
   </si>
   <si>
@@ -398,10 +356,7 @@
     <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o234_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o234_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_nu820</t>
+    <t>no_ra808_o81_ti829_ch830_o286_ra832(225)</t>
   </si>
   <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม</t>
@@ -425,10 +380,7 @@
     <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o235_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o235_nu819</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_nu820</t>
+    <t>no_ra808_o81_ti829_ch830_o286_ra832(226)</t>
   </si>
   <si>
     <t>อื่นๆ</t>
@@ -446,12 +398,6 @@
     <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu826</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu827, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu827, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu827</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu828, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu828, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu828</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -461,10 +407,10 @@
     <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002, no_ra808_o81_ti809_ch810_o228_nu820</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o1_nu835</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_nu836</t>
+    <t>no_ra808_o81_ti809_ch810_o228_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o228_ra812(226)</t>
   </si>
   <si>
     <t>น้ำมัน UID = จำนวนครั้งรถจยย, จำนวนครั้งรถยนต์, จำนวนครั้งบรรทุก</t>
@@ -482,16 +428,70 @@
     <t>ในแต่ละครัวเรือนให้หาจำนวนลิตรที่ไปซื้อต่อครั้งด้วยการรวมราคาซื้อต่อครั้งของรถทุกชนิดแล้วหารด้วยราคาน้ำมัน</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ra812(225)</t>
+  </si>
+  <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้เฉลี่ยราคาของทั้ง 3 ขนาดถังก่อน UID = (ราคา 4 กก, ราคา 15 กก, ราคา 48 กก) โดยราคาที่เก็บมาเป็นราคาต่อกก แล้ว</t>
   </si>
   <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้ถือว่าออกไปซื้อครั้งละ 1 ถังเท่านั้น ดังนั้นหาจำนวนถังเฉลี่ยที่ซื้อต่อปีจะเท่ากับจำนวนครั้งที่ซื้อต่อปีด้วย(UID ที่ให้เป็นจำนวนถัง 3 ขนาดที่ซื้อต่อปี)</t>
   </si>
   <si>
+    <t>no_ra808_o81_ti809_ch810_o229_ra812(226)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ก๊าซปิโตรเลียมเหลวสำหรับหุงต้ม แต่ละขนาดถังให้เอาขนาถัง(กก) x จำนวนถังที่ซื้อ บวกกันสามขนาดเพื่อให้ปริมาณรวมทั้งหมด </t>
   </si>
   <si>
     <t>แล้วหารด้วยจำนวนถังทั้งหมดต่อปีเพื่อหาค่าเฉลี่ยเบื้องต้น (UID = จำนวนถัง 4 กก, จำนวนถัง 15 กก, จำนวนถัง 48 กก)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o230_ra812(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o231_ra812(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o232_ra812(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o233_ra812(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o234_ra812(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ra812(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti809_ch810_o235_ra812(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti821_ch822_o236_ra824(226)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti821_ch822_o236_ra824(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o1_ra832(225)</t>
+  </si>
+  <si>
+    <t>no_ra808_o81_ti829_ch830_o1_ra832(226)</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:DP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="CG52" sqref="CG52"/>
+      <selection activeCell="DJ23" sqref="DJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2736,14 +2736,24 @@
       <c r="CO11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CP11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="CQ11" s="10"/>
-      <c r="CR11" s="10"/>
-      <c r="CS11" s="10"/>
-      <c r="CT11" s="10"/>
-      <c r="CU11" s="10"/>
+      <c r="CP11" s="64">
+        <v>3.1925722222222</v>
+      </c>
+      <c r="CQ11" s="64">
+        <v>0.27565630784712</v>
+      </c>
+      <c r="CR11" s="64">
+        <v>2.165503030303</v>
+      </c>
+      <c r="CS11" s="64">
+        <v>0.23290850544061</v>
+      </c>
+      <c r="CT11" s="64">
+        <v>2.6790376262626</v>
+      </c>
+      <c r="CU11" s="64">
+        <v>0.25428240664386</v>
+      </c>
       <c r="CV11" s="10"/>
       <c r="CW11" s="10"/>
       <c r="CX11" s="10"/>
@@ -2756,14 +2766,24 @@
       <c r="DD11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="DE11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="DF11" s="10"/>
-      <c r="DG11" s="10"/>
-      <c r="DH11" s="10"/>
-      <c r="DI11" s="10"/>
-      <c r="DJ11" s="10"/>
+      <c r="DE11" s="64">
+        <v>11.619111111111</v>
+      </c>
+      <c r="DF11" s="64">
+        <v>2.5094722688819</v>
+      </c>
+      <c r="DG11" s="64">
+        <v>39.836606060606</v>
+      </c>
+      <c r="DH11" s="64">
+        <v>3.3203516637791</v>
+      </c>
+      <c r="DI11" s="64">
+        <v>25.727858585859</v>
+      </c>
+      <c r="DJ11" s="64">
+        <v>2.9149119663305</v>
+      </c>
       <c r="DK11" s="10"/>
       <c r="DL11" s="10"/>
       <c r="DM11" s="10"/>
@@ -2773,52 +2793,52 @@
     </row>
     <row r="12" spans="1:120">
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="10"/>
       <c r="J12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P12" s="10"/>
       <c r="R12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Z12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2827,7 +2847,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AH12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
@@ -2836,7 +2856,7 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AP12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
@@ -2848,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="AY12" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
@@ -2868,7 +2888,7 @@
         <v>41</v>
       </c>
       <c r="BN12" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
@@ -2882,26 +2902,16 @@
       <c r="BX12" s="10"/>
       <c r="BY12" s="10"/>
       <c r="CA12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB12" s="64">
-        <v>25263.486592869</v>
-      </c>
-      <c r="CC12" s="64">
-        <v>1.7869536851625</v>
-      </c>
-      <c r="CD12" s="64">
-        <v>51462.207343381</v>
-      </c>
-      <c r="CE12" s="64">
-        <v>1.6854602161456</v>
-      </c>
-      <c r="CF12" s="64">
-        <v>76814.159573672</v>
-      </c>
-      <c r="CG12" s="64">
-        <v>1.7195620217353</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="CC12" s="10"/>
+      <c r="CD12" s="10"/>
+      <c r="CE12" s="10"/>
+      <c r="CF12" s="10"/>
+      <c r="CG12" s="10"/>
       <c r="CH12" s="10"/>
       <c r="CI12" s="10"/>
       <c r="CJ12" s="10"/>
@@ -2911,14 +2921,24 @@
       <c r="CO12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="CP12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="CQ12" s="10"/>
-      <c r="CR12" s="10"/>
-      <c r="CS12" s="10"/>
-      <c r="CT12" s="10"/>
-      <c r="CU12" s="10"/>
+      <c r="CP12" s="64">
+        <v>5.0254568411387</v>
+      </c>
+      <c r="CQ12" s="64">
+        <v>0.0061699169152455</v>
+      </c>
+      <c r="CR12" s="64">
+        <v>2.9205556857378</v>
+      </c>
+      <c r="CS12" s="64">
+        <v>0.0047830579233412</v>
+      </c>
+      <c r="CT12" s="64">
+        <v>3.9730062634382</v>
+      </c>
+      <c r="CU12" s="64">
+        <v>0.0054764874192933</v>
+      </c>
       <c r="CV12" s="10"/>
       <c r="CW12" s="10"/>
       <c r="CX12" s="10"/>
@@ -2931,14 +2951,24 @@
       <c r="DD12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="DE12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="DF12" s="10"/>
-      <c r="DG12" s="10"/>
-      <c r="DH12" s="10"/>
-      <c r="DI12" s="10"/>
-      <c r="DJ12" s="10"/>
+      <c r="DE12" s="64">
+        <v>13.58191184573</v>
+      </c>
+      <c r="DF12" s="64">
+        <v>0.014909436841232</v>
+      </c>
+      <c r="DG12" s="64">
+        <v>27.492585761475</v>
+      </c>
+      <c r="DH12" s="64">
+        <v>0.048633585257719</v>
+      </c>
+      <c r="DI12" s="64">
+        <v>20.537248803602</v>
+      </c>
+      <c r="DJ12" s="64">
+        <v>0.031771511049476</v>
+      </c>
       <c r="DK12" s="10"/>
       <c r="DL12" s="10"/>
       <c r="DM12" s="10"/>
@@ -2948,52 +2978,52 @@
     </row>
     <row r="13" spans="1:120">
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="10"/>
       <c r="J13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P13" s="10"/>
       <c r="R13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Z13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -3002,7 +3032,7 @@
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AH13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
@@ -3011,7 +3041,7 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AP13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
@@ -3020,10 +3050,10 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AX13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AY13" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AZ13" s="10"/>
       <c r="BA13" s="10"/>
@@ -3037,13 +3067,13 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
       <c r="BL13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BM13" s="32" t="s">
         <v>41</v>
       </c>
       <c r="BN13" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
@@ -3057,26 +3087,16 @@
       <c r="BX13" s="10"/>
       <c r="BY13" s="10"/>
       <c r="CA13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB13" s="64">
-        <v>10110.552569808</v>
-      </c>
-      <c r="CC13" s="64">
-        <v>0.71514630837801</v>
-      </c>
-      <c r="CD13" s="64">
-        <v>31237.121184583</v>
-      </c>
-      <c r="CE13" s="64">
-        <v>1.0230599840429</v>
-      </c>
-      <c r="CF13" s="64">
-        <v>41079.284272264</v>
-      </c>
-      <c r="CG13" s="64">
-        <v>0.91960098901952</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC13" s="10"/>
+      <c r="CD13" s="10"/>
+      <c r="CE13" s="10"/>
+      <c r="CF13" s="10"/>
+      <c r="CG13" s="10"/>
       <c r="CH13" s="10"/>
       <c r="CI13" s="10"/>
       <c r="CJ13" s="10"/>
@@ -3084,16 +3104,26 @@
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CO13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="CP13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="CQ13" s="10"/>
-      <c r="CR13" s="10"/>
-      <c r="CS13" s="10"/>
-      <c r="CT13" s="10"/>
-      <c r="CU13" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="CP13" s="64">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="64">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="64">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="64">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="64">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="64">
+        <v>0</v>
+      </c>
       <c r="CV13" s="10"/>
       <c r="CW13" s="10"/>
       <c r="CX13" s="10"/>
@@ -3101,19 +3131,29 @@
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
       <c r="DC13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="DD13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="DE13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="DF13" s="10"/>
-      <c r="DG13" s="10"/>
-      <c r="DH13" s="10"/>
-      <c r="DI13" s="10"/>
-      <c r="DJ13" s="10"/>
+      <c r="DE13" s="64">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="64">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="64">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="64">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="64">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="64">
+        <v>0</v>
+      </c>
       <c r="DK13" s="10"/>
       <c r="DL13" s="10"/>
       <c r="DM13" s="10"/>
@@ -3123,52 +3163,52 @@
     </row>
     <row r="14" spans="1:120">
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14" s="10"/>
       <c r="J14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P14" s="10"/>
       <c r="R14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="X14" s="10"/>
       <c r="Z14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -3177,7 +3217,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AH14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -3186,7 +3226,7 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AP14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
@@ -3195,10 +3235,10 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AX14" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AY14" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
@@ -3212,13 +3252,13 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
       <c r="BL14" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BM14" s="32" t="s">
         <v>41</v>
       </c>
       <c r="BN14" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="BO14" s="10"/>
       <c r="BP14" s="10"/>
@@ -3247,16 +3287,26 @@
       <c r="CL14" s="8"/>
       <c r="CM14" s="9"/>
       <c r="CO14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="CP14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="CQ14" s="10"/>
-      <c r="CR14" s="10"/>
-      <c r="CS14" s="10"/>
-      <c r="CT14" s="10"/>
-      <c r="CU14" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="CP14" s="64">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="64">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="64">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="64">
+        <v>0</v>
+      </c>
+      <c r="CT14" s="64">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="64">
+        <v>0</v>
+      </c>
       <c r="CV14" s="10"/>
       <c r="CW14" s="10"/>
       <c r="CX14" s="10"/>
@@ -3264,19 +3314,29 @@
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
       <c r="DC14" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="DD14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="DE14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="DF14" s="10"/>
-      <c r="DG14" s="10"/>
-      <c r="DH14" s="10"/>
-      <c r="DI14" s="10"/>
-      <c r="DJ14" s="10"/>
+      <c r="DE14" s="64">
+        <v>0</v>
+      </c>
+      <c r="DF14" s="64">
+        <v>0</v>
+      </c>
+      <c r="DG14" s="64">
+        <v>0</v>
+      </c>
+      <c r="DH14" s="64">
+        <v>0</v>
+      </c>
+      <c r="DI14" s="64">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="64">
+        <v>0</v>
+      </c>
       <c r="DK14" s="10"/>
       <c r="DL14" s="10"/>
       <c r="DM14" s="10"/>
@@ -3286,52 +3346,52 @@
     </row>
     <row r="15" spans="1:120">
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" s="10"/>
       <c r="J15" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P15" s="10"/>
       <c r="R15" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Z15" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -3340,7 +3400,7 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AH15" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
@@ -3349,7 +3409,7 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AP15" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -3358,10 +3418,10 @@
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AX15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AY15" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AZ15" s="10"/>
       <c r="BA15" s="10"/>
@@ -3375,13 +3435,13 @@
       <c r="BI15" s="10"/>
       <c r="BJ15" s="10"/>
       <c r="BL15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BM15" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN15" s="40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
@@ -3395,26 +3455,16 @@
       <c r="BX15" s="10"/>
       <c r="BY15" s="10"/>
       <c r="CA15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB15" s="64">
-        <v>173556.96379658</v>
-      </c>
-      <c r="CC15" s="64">
-        <v>12.276146243783</v>
-      </c>
-      <c r="CD15" s="64">
-        <v>417295.52117328</v>
-      </c>
-      <c r="CE15" s="64">
-        <v>13.667019656198</v>
-      </c>
-      <c r="CF15" s="64">
-        <v>589640.14584898</v>
-      </c>
-      <c r="CG15" s="64">
-        <v>13.199686189626</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC15" s="10"/>
+      <c r="CD15" s="10"/>
+      <c r="CE15" s="10"/>
+      <c r="CF15" s="10"/>
+      <c r="CG15" s="10"/>
       <c r="CH15" s="10"/>
       <c r="CI15" s="10"/>
       <c r="CJ15" s="10"/>
@@ -3422,16 +3472,26 @@
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CO15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="CP15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="CQ15" s="10"/>
-      <c r="CR15" s="10"/>
-      <c r="CS15" s="10"/>
-      <c r="CT15" s="10"/>
-      <c r="CU15" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="CP15" s="64">
+        <v>14.108511162228</v>
+      </c>
+      <c r="CQ15" s="64">
+        <v>0.28525769746262</v>
+      </c>
+      <c r="CR15" s="64">
+        <v>6.9130984802432</v>
+      </c>
+      <c r="CS15" s="64">
+        <v>0.016965494196325</v>
+      </c>
+      <c r="CT15" s="64">
+        <v>10.510804821235</v>
+      </c>
+      <c r="CU15" s="64">
+        <v>0.15111159582947</v>
+      </c>
       <c r="CV15" s="10"/>
       <c r="CW15" s="10"/>
       <c r="CX15" s="10"/>
@@ -3439,19 +3499,29 @@
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
       <c r="DC15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="DD15" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="DF15" s="10"/>
-      <c r="DG15" s="10"/>
-      <c r="DH15" s="10"/>
-      <c r="DI15" s="10"/>
-      <c r="DJ15" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE15" s="64">
+        <v>32.602869975787</v>
+      </c>
+      <c r="DF15" s="64">
+        <v>0.014243813291625</v>
+      </c>
+      <c r="DG15" s="64">
+        <v>33.896661155015</v>
+      </c>
+      <c r="DH15" s="64">
+        <v>0.0062152403034936</v>
+      </c>
+      <c r="DI15" s="64">
+        <v>33.249765565401</v>
+      </c>
+      <c r="DJ15" s="64">
+        <v>0.010229526797559</v>
+      </c>
       <c r="DK15" s="10"/>
       <c r="DL15" s="10"/>
       <c r="DM15" s="10"/>
@@ -3461,52 +3531,52 @@
     </row>
     <row r="16" spans="1:120">
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H16" s="10"/>
       <c r="J16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P16" s="10"/>
       <c r="R16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="V16" s="10"/>
       <c r="W16" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="X16" s="10"/>
       <c r="Z16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3515,7 +3585,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AH16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
@@ -3524,7 +3594,7 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AP16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -3533,10 +3603,10 @@
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AX16" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AY16" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AZ16" s="10"/>
       <c r="BA16" s="10"/>
@@ -3550,13 +3620,13 @@
       <c r="BI16" s="11"/>
       <c r="BJ16" s="11"/>
       <c r="BL16" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BM16" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN16" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
@@ -3570,26 +3640,16 @@
       <c r="BX16" s="10"/>
       <c r="BY16" s="10"/>
       <c r="CA16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB16" s="64">
-        <v>166875.69672844</v>
-      </c>
-      <c r="CC16" s="64">
-        <v>11.803562431367</v>
-      </c>
-      <c r="CD16" s="64">
-        <v>457774.39502629</v>
-      </c>
-      <c r="CE16" s="64">
-        <v>14.99276013636</v>
-      </c>
-      <c r="CF16" s="64">
-        <v>621870.26354933</v>
-      </c>
-      <c r="CG16" s="64">
-        <v>13.921189707483</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC16" s="10"/>
+      <c r="CD16" s="10"/>
+      <c r="CE16" s="10"/>
+      <c r="CF16" s="10"/>
+      <c r="CG16" s="10"/>
       <c r="CH16" s="10"/>
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
@@ -3597,16 +3657,26 @@
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CO16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="CP16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="CQ16" s="10"/>
-      <c r="CR16" s="10"/>
-      <c r="CS16" s="10"/>
-      <c r="CT16" s="10"/>
-      <c r="CU16" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="CP16" s="64">
+        <v>7.2519052578545</v>
+      </c>
+      <c r="CQ16" s="64">
+        <v>0.027624620335876</v>
+      </c>
+      <c r="CR16" s="64">
+        <v>9.5030891195335</v>
+      </c>
+      <c r="CS16" s="64">
+        <v>0.017685368260664</v>
+      </c>
+      <c r="CT16" s="64">
+        <v>8.377497188694</v>
+      </c>
+      <c r="CU16" s="64">
+        <v>0.02265499429827</v>
+      </c>
       <c r="CV16" s="10"/>
       <c r="CW16" s="10"/>
       <c r="CX16" s="10"/>
@@ -3614,19 +3684,29 @@
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
       <c r="DC16" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="DD16" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DF16" s="10"/>
-      <c r="DG16" s="10"/>
-      <c r="DH16" s="10"/>
-      <c r="DI16" s="10"/>
-      <c r="DJ16" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE16" s="64">
+        <v>25.75524507789</v>
+      </c>
+      <c r="DF16" s="64">
+        <v>0.0050589151450254</v>
+      </c>
+      <c r="DG16" s="64">
+        <v>27.142109854227</v>
+      </c>
+      <c r="DH16" s="64">
+        <v>0.0058080725711521</v>
+      </c>
+      <c r="DI16" s="64">
+        <v>26.448677466059</v>
+      </c>
+      <c r="DJ16" s="64">
+        <v>0.0054334938580887</v>
+      </c>
       <c r="DK16" s="10"/>
       <c r="DL16" s="10"/>
       <c r="DM16" s="10"/>
@@ -3636,52 +3716,52 @@
     </row>
     <row r="17" spans="1:120">
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H17" s="10"/>
       <c r="J17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P17" s="10"/>
       <c r="R17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Z17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -3690,7 +3770,7 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AH17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
@@ -3699,7 +3779,7 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="10"/>
       <c r="AP17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -3708,10 +3788,10 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AX17" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AY17" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AZ17" s="10"/>
       <c r="BA17" s="10"/>
@@ -3725,13 +3805,13 @@
       <c r="BI17" s="11"/>
       <c r="BJ17" s="11"/>
       <c r="BL17" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="BM17" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN17" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
@@ -3745,7 +3825,7 @@
       <c r="BX17" s="10"/>
       <c r="BY17" s="10"/>
       <c r="CA17" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CB17" s="37"/>
       <c r="CC17" s="8"/>
@@ -3760,16 +3840,26 @@
       <c r="CL17" s="8"/>
       <c r="CM17" s="9"/>
       <c r="CO17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CP17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="CQ17" s="10"/>
-      <c r="CR17" s="10"/>
-      <c r="CS17" s="10"/>
-      <c r="CT17" s="10"/>
-      <c r="CU17" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="CP17" s="64">
+        <v>6.6004479217307</v>
+      </c>
+      <c r="CQ17" s="64">
+        <v>0.13108360563212</v>
+      </c>
+      <c r="CR17" s="64">
+        <v>7.5621205067463</v>
+      </c>
+      <c r="CS17" s="64">
+        <v>0.015662443722735</v>
+      </c>
+      <c r="CT17" s="64">
+        <v>7.0812842142385</v>
+      </c>
+      <c r="CU17" s="64">
+        <v>0.073373024677426</v>
+      </c>
       <c r="CV17" s="10"/>
       <c r="CW17" s="10"/>
       <c r="CX17" s="10"/>
@@ -3777,19 +3867,29 @@
       <c r="CZ17" s="10"/>
       <c r="DA17" s="10"/>
       <c r="DC17" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="DD17" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="DF17" s="10"/>
-      <c r="DG17" s="10"/>
-      <c r="DH17" s="10"/>
-      <c r="DI17" s="10"/>
-      <c r="DJ17" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE17" s="64">
+        <v>27.499939353427</v>
+      </c>
+      <c r="DF17" s="64">
+        <v>0.0053461826140021</v>
+      </c>
+      <c r="DG17" s="64">
+        <v>28.945639990387</v>
+      </c>
+      <c r="DH17" s="64">
+        <v>0.0034003129081996</v>
+      </c>
+      <c r="DI17" s="64">
+        <v>28.222789671907</v>
+      </c>
+      <c r="DJ17" s="64">
+        <v>0.0043732477611008</v>
+      </c>
       <c r="DK17" s="10"/>
       <c r="DL17" s="10"/>
       <c r="DM17" s="10"/>
@@ -3799,52 +3899,52 @@
     </row>
     <row r="18" spans="1:120">
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H18" s="10"/>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P18" s="10"/>
       <c r="R18" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="V18" s="10"/>
       <c r="W18" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Z18" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -3853,7 +3953,7 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AH18" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
@@ -3862,7 +3962,7 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
       <c r="AP18" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -3871,10 +3971,10 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AX18" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AY18" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AZ18" s="10"/>
       <c r="BA18" s="10"/>
@@ -3888,13 +3988,13 @@
       <c r="BI18" s="11"/>
       <c r="BJ18" s="11"/>
       <c r="BL18" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="BM18" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN18" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="BO18" s="10"/>
       <c r="BP18" s="10"/>
@@ -3908,26 +4008,16 @@
       <c r="BX18" s="10"/>
       <c r="BY18" s="10"/>
       <c r="CA18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB18" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC18" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD18" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE18" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF18" s="64">
-        <v>0</v>
-      </c>
-      <c r="CG18" s="64">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC18" s="10"/>
+      <c r="CD18" s="10"/>
+      <c r="CE18" s="10"/>
+      <c r="CF18" s="10"/>
+      <c r="CG18" s="10"/>
       <c r="CH18" s="10"/>
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
@@ -3935,16 +4025,26 @@
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CO18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="CQ18" s="10"/>
-      <c r="CR18" s="10"/>
-      <c r="CS18" s="10"/>
-      <c r="CT18" s="10"/>
-      <c r="CU18" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="CP18" s="64">
+        <v>2.4583</v>
+      </c>
+      <c r="CQ18" s="64">
+        <v>0.079634270953557</v>
+      </c>
+      <c r="CR18" s="64">
+        <v>10.766036363636</v>
+      </c>
+      <c r="CS18" s="64">
+        <v>2.9866240653801</v>
+      </c>
+      <c r="CT18" s="64">
+        <v>6.6121681818182</v>
+      </c>
+      <c r="CU18" s="64">
+        <v>1.5331291681668</v>
+      </c>
       <c r="CV18" s="10"/>
       <c r="CW18" s="10"/>
       <c r="CX18" s="10"/>
@@ -3952,19 +4052,29 @@
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
       <c r="DC18" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="DD18" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="DF18" s="10"/>
-      <c r="DG18" s="10"/>
-      <c r="DH18" s="10"/>
-      <c r="DI18" s="10"/>
-      <c r="DJ18" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE18" s="64">
+        <v>21.4872</v>
+      </c>
+      <c r="DF18" s="64">
+        <v>0.18941611603321</v>
+      </c>
+      <c r="DG18" s="64">
+        <v>22.221818181818</v>
+      </c>
+      <c r="DH18" s="64">
+        <v>0.080113683475766</v>
+      </c>
+      <c r="DI18" s="64">
+        <v>21.854509090909</v>
+      </c>
+      <c r="DJ18" s="64">
+        <v>0.13476489975449</v>
+      </c>
       <c r="DK18" s="10"/>
       <c r="DL18" s="10"/>
       <c r="DM18" s="10"/>
@@ -3974,52 +4084,52 @@
     </row>
     <row r="19" spans="1:120">
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H19" s="10"/>
       <c r="J19" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P19" s="10"/>
       <c r="R19" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="V19" s="10"/>
       <c r="W19" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Z19" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4028,7 +4138,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AH19" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -4037,7 +4147,7 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="10"/>
       <c r="AP19" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
@@ -4046,10 +4156,10 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AX19" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AY19" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AZ19" s="10"/>
       <c r="BA19" s="10"/>
@@ -4063,13 +4173,13 @@
       <c r="BI19" s="11"/>
       <c r="BJ19" s="11"/>
       <c r="BL19" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="BM19" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN19" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
@@ -4083,26 +4193,16 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
       <c r="CA19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB19" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC19" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD19" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE19" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF19" s="64">
-        <v>0</v>
-      </c>
-      <c r="CG19" s="64">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC19" s="10"/>
+      <c r="CD19" s="10"/>
+      <c r="CE19" s="10"/>
+      <c r="CF19" s="10"/>
+      <c r="CG19" s="10"/>
       <c r="CH19" s="10"/>
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
@@ -4110,16 +4210,26 @@
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CO19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ19" s="10"/>
-      <c r="CR19" s="10"/>
-      <c r="CS19" s="10"/>
-      <c r="CT19" s="10"/>
-      <c r="CU19" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="CP19" s="64">
+        <v>2.019</v>
+      </c>
+      <c r="CQ19" s="64">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="64">
+        <v>3.664</v>
+      </c>
+      <c r="CS19" s="64">
+        <v>0.64456703814783</v>
+      </c>
+      <c r="CT19" s="64">
+        <v>2.8415</v>
+      </c>
+      <c r="CU19" s="64">
+        <v>0.32228351907392</v>
+      </c>
       <c r="CV19" s="10"/>
       <c r="CW19" s="10"/>
       <c r="CX19" s="10"/>
@@ -4127,19 +4237,29 @@
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
       <c r="DC19" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="DD19" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="DF19" s="10"/>
-      <c r="DG19" s="10"/>
-      <c r="DH19" s="10"/>
-      <c r="DI19" s="10"/>
-      <c r="DJ19" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE19" s="64">
+        <v>13.46</v>
+      </c>
+      <c r="DF19" s="64">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="64">
+        <v>22.304</v>
+      </c>
+      <c r="DH19" s="64">
+        <v>2.2633177875427</v>
+      </c>
+      <c r="DI19" s="64">
+        <v>17.882</v>
+      </c>
+      <c r="DJ19" s="64">
+        <v>1.1316588937714</v>
+      </c>
       <c r="DK19" s="10"/>
       <c r="DL19" s="10"/>
       <c r="DM19" s="10"/>
@@ -4149,52 +4269,52 @@
     </row>
     <row r="20" spans="1:120">
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H20" s="10"/>
       <c r="J20" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="P20" s="10"/>
       <c r="R20" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="X20" s="10"/>
       <c r="Z20" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -4203,7 +4323,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AH20" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -4212,7 +4332,7 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AP20" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
@@ -4221,10 +4341,10 @@
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
       <c r="AX20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY20" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="AY20" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="AZ20" s="10"/>
       <c r="BA20" s="10"/>
@@ -4238,13 +4358,13 @@
       <c r="BI20" s="11"/>
       <c r="BJ20" s="11"/>
       <c r="BL20" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BM20" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN20" s="10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
@@ -4258,7 +4378,7 @@
       <c r="BX20" s="11"/>
       <c r="BY20" s="11"/>
       <c r="CA20" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CB20" s="37"/>
       <c r="CC20" s="8"/>
@@ -4273,16 +4393,26 @@
       <c r="CL20" s="8"/>
       <c r="CM20" s="9"/>
       <c r="CO20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CQ20" s="10"/>
-      <c r="CR20" s="10"/>
-      <c r="CS20" s="10"/>
-      <c r="CT20" s="10"/>
-      <c r="CU20" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="CP20" s="64">
+        <v>13.022028496815</v>
+      </c>
+      <c r="CQ20" s="64">
+        <v>0.11138180946499</v>
+      </c>
+      <c r="CR20" s="64">
+        <v>11.410854925894</v>
+      </c>
+      <c r="CS20" s="64">
+        <v>0.013745928075019</v>
+      </c>
+      <c r="CT20" s="64">
+        <v>12.216441711354</v>
+      </c>
+      <c r="CU20" s="64">
+        <v>0.062563868770002</v>
+      </c>
       <c r="CV20" s="10"/>
       <c r="CW20" s="10"/>
       <c r="CX20" s="10"/>
@@ -4290,19 +4420,29 @@
       <c r="CZ20" s="10"/>
       <c r="DA20" s="10"/>
       <c r="DC20" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="DD20" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="DF20" s="10"/>
-      <c r="DG20" s="10"/>
-      <c r="DH20" s="10"/>
-      <c r="DI20" s="10"/>
-      <c r="DJ20" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE20" s="64">
+        <v>25.337222057325</v>
+      </c>
+      <c r="DF20" s="64">
+        <v>0.0058624497902395</v>
+      </c>
+      <c r="DG20" s="64">
+        <v>25.58661255449</v>
+      </c>
+      <c r="DH20" s="64">
+        <v>0.0034454321615896</v>
+      </c>
+      <c r="DI20" s="64">
+        <v>25.461917305907</v>
+      </c>
+      <c r="DJ20" s="64">
+        <v>0.0046539409759145</v>
+      </c>
       <c r="DK20" s="10"/>
       <c r="DL20" s="10"/>
       <c r="DM20" s="10"/>
@@ -4312,52 +4452,52 @@
     </row>
     <row r="21" spans="1:120">
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H21" s="10"/>
       <c r="J21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="P21" s="10"/>
       <c r="R21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="V21" s="10"/>
       <c r="W21" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Z21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -4366,7 +4506,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AH21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -4375,7 +4515,7 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
       <c r="AP21" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -4384,10 +4524,10 @@
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
       <c r="AX21" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="AY21" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="AZ21" s="10"/>
       <c r="BA21" s="10"/>
@@ -4401,13 +4541,13 @@
       <c r="BI21" s="11"/>
       <c r="BJ21" s="11"/>
       <c r="BL21" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="BM21" s="28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BN21" s="10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="BO21" s="10"/>
       <c r="BP21" s="10"/>
@@ -4421,26 +4561,16 @@
       <c r="BX21" s="11"/>
       <c r="BY21" s="11"/>
       <c r="CA21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB21" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC21" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD21" s="64">
-        <v>1839.1660423529</v>
-      </c>
-      <c r="CE21" s="64">
-        <v>0.060235294117647</v>
-      </c>
-      <c r="CF21" s="64">
-        <v>1786.6626276894</v>
-      </c>
-      <c r="CG21" s="64">
-        <v>0.039996235294118</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CC21" s="10"/>
+      <c r="CD21" s="10"/>
+      <c r="CE21" s="10"/>
+      <c r="CF21" s="10"/>
+      <c r="CG21" s="10"/>
       <c r="CH21" s="10"/>
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
@@ -4448,16 +4578,26 @@
       <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
       <c r="CO21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="CP21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="CQ21" s="10"/>
-      <c r="CR21" s="10"/>
-      <c r="CS21" s="10"/>
-      <c r="CT21" s="10"/>
-      <c r="CU21" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="CP21" s="64">
+        <v>0.4905</v>
+      </c>
+      <c r="CQ21" s="64">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="64">
+        <v>1.024</v>
+      </c>
+      <c r="CS21" s="64">
+        <v>0</v>
+      </c>
+      <c r="CT21" s="64">
+        <v>0.75725</v>
+      </c>
+      <c r="CU21" s="64">
+        <v>0</v>
+      </c>
       <c r="CV21" s="10"/>
       <c r="CW21" s="10"/>
       <c r="CX21" s="10"/>
@@ -4465,19 +4605,29 @@
       <c r="CZ21" s="10"/>
       <c r="DA21" s="10"/>
       <c r="DC21" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="DD21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DE21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="DF21" s="10"/>
-      <c r="DG21" s="10"/>
-      <c r="DH21" s="10"/>
-      <c r="DI21" s="10"/>
-      <c r="DJ21" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="DE21" s="64">
+        <v>4.576365</v>
+      </c>
+      <c r="DF21" s="64">
+        <v>0</v>
+      </c>
+      <c r="DG21" s="64">
+        <v>9.216</v>
+      </c>
+      <c r="DH21" s="64">
+        <v>0</v>
+      </c>
+      <c r="DI21" s="64">
+        <v>6.8961825</v>
+      </c>
+      <c r="DJ21" s="64">
+        <v>0</v>
+      </c>
       <c r="DK21" s="10"/>
       <c r="DL21" s="10"/>
       <c r="DM21" s="10"/>
@@ -4487,52 +4637,52 @@
     </row>
     <row r="22" spans="1:120">
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H22" s="10"/>
       <c r="J22" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P22" s="10"/>
       <c r="R22" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="10" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Z22" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -4541,7 +4691,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AH22" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -4550,7 +4700,7 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
       <c r="AP22" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
@@ -4559,10 +4709,10 @@
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
       <c r="AX22" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="AY22" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="AZ22" s="10"/>
       <c r="BA22" s="10"/>
@@ -4576,13 +4726,13 @@
       <c r="BI22" s="11"/>
       <c r="BJ22" s="11"/>
       <c r="BL22" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="BM22" s="28" t="s">
         <v>41</v>
       </c>
       <c r="BN22" s="10" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
@@ -4597,26 +4747,16 @@
       <c r="BY22" s="3"/>
       <c r="BZ22" s="19"/>
       <c r="CA22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB22" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC22" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD22" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE22" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF22" s="64">
-        <v>0</v>
-      </c>
-      <c r="CG22" s="64">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC22" s="10"/>
+      <c r="CD22" s="10"/>
+      <c r="CE22" s="10"/>
+      <c r="CF22" s="10"/>
+      <c r="CG22" s="10"/>
       <c r="CH22" s="10"/>
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
@@ -4624,16 +4764,26 @@
       <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
       <c r="CO22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="CP22" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="CQ22" s="10"/>
-      <c r="CR22" s="10"/>
-      <c r="CS22" s="10"/>
-      <c r="CT22" s="10"/>
-      <c r="CU22" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="CP22" s="64">
+        <v>26.347357142857</v>
+      </c>
+      <c r="CQ22" s="64">
+        <v>7.7925357047986</v>
+      </c>
+      <c r="CR22" s="64">
+        <v>2.4137142857143</v>
+      </c>
+      <c r="CS22" s="64">
+        <v>0</v>
+      </c>
+      <c r="CT22" s="64">
+        <v>14.380535714286</v>
+      </c>
+      <c r="CU22" s="64">
+        <v>3.8962678523993</v>
+      </c>
       <c r="CV22" s="10"/>
       <c r="CW22" s="10"/>
       <c r="CX22" s="10"/>
@@ -4641,19 +4791,29 @@
       <c r="CZ22" s="10"/>
       <c r="DA22" s="10"/>
       <c r="DC22" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="DD22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="DE22" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="DF22" s="10"/>
-      <c r="DG22" s="10"/>
-      <c r="DH22" s="10"/>
-      <c r="DI22" s="10"/>
-      <c r="DJ22" s="10"/>
+      <c r="DE22" s="64">
+        <v>17.568428571429</v>
+      </c>
+      <c r="DF22" s="64">
+        <v>1.9279588029241</v>
+      </c>
+      <c r="DG22" s="64">
+        <v>8.2651428571429</v>
+      </c>
+      <c r="DH22" s="64">
+        <v>0</v>
+      </c>
+      <c r="DI22" s="64">
+        <v>12.916785714286</v>
+      </c>
+      <c r="DJ22" s="64">
+        <v>0.96397940146206</v>
+      </c>
       <c r="DK22" s="10"/>
       <c r="DL22" s="10"/>
       <c r="DM22" s="10"/>
@@ -4663,52 +4823,52 @@
     </row>
     <row r="23" spans="1:120">
       <c r="B23" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H23" s="10"/>
       <c r="J23" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="P23" s="10"/>
       <c r="R23" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Z23" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -4717,7 +4877,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AH23" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -4726,7 +4886,7 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
       <c r="AP23" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
@@ -4735,7 +4895,7 @@
       <c r="AU23" s="10"/>
       <c r="AV23" s="10"/>
       <c r="AX23" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
@@ -4750,13 +4910,13 @@
       <c r="BI23" s="11"/>
       <c r="BJ23" s="11"/>
       <c r="BL23" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="BM23" s="32" t="s">
         <v>41</v>
       </c>
       <c r="BN23" s="10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
@@ -4771,7 +4931,7 @@
       <c r="BY23" s="3"/>
       <c r="BZ23" s="19"/>
       <c r="CA23" s="34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CB23" s="37"/>
       <c r="CC23" s="35"/>
@@ -4786,16 +4946,26 @@
       <c r="CL23" s="35"/>
       <c r="CM23" s="36"/>
       <c r="CO23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP23" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="CQ23" s="10"/>
-      <c r="CR23" s="10"/>
-      <c r="CS23" s="10"/>
-      <c r="CT23" s="10"/>
-      <c r="CU23" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="CP23" s="64">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="64">
+        <v>0</v>
+      </c>
+      <c r="CR23" s="64">
+        <v>0</v>
+      </c>
+      <c r="CS23" s="64">
+        <v>0</v>
+      </c>
+      <c r="CT23" s="64">
+        <v>0</v>
+      </c>
+      <c r="CU23" s="64">
+        <v>0</v>
+      </c>
       <c r="CV23" s="10"/>
       <c r="CW23" s="10"/>
       <c r="CX23" s="10"/>
@@ -4803,19 +4973,29 @@
       <c r="CZ23" s="10"/>
       <c r="DA23" s="10"/>
       <c r="DC23" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="DD23" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="DE23" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="DF23" s="10"/>
-      <c r="DG23" s="10"/>
-      <c r="DH23" s="10"/>
-      <c r="DI23" s="10"/>
-      <c r="DJ23" s="10"/>
+      <c r="DE23" s="64">
+        <v>0</v>
+      </c>
+      <c r="DF23" s="64">
+        <v>0</v>
+      </c>
+      <c r="DG23" s="64">
+        <v>0</v>
+      </c>
+      <c r="DH23" s="64">
+        <v>0</v>
+      </c>
+      <c r="DI23" s="64">
+        <v>0</v>
+      </c>
+      <c r="DJ23" s="64">
+        <v>0</v>
+      </c>
       <c r="DK23" s="10"/>
       <c r="DL23" s="10"/>
       <c r="DM23" s="10"/>
@@ -4829,96 +5009,96 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="W24" s="28"/>
       <c r="X24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="Z24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AC24" s="28"/>
       <c r="AD24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AH24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AM24" s="28"/>
       <c r="AN24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AP24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AU24" s="28"/>
       <c r="AV24" s="28" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AY24" s="10" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="AZ24" s="10"/>
       <c r="BA24" s="10"/>
@@ -4932,11 +5112,11 @@
       <c r="BI24" s="11"/>
       <c r="BJ24" s="11"/>
       <c r="BL24" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="BM24" s="10"/>
       <c r="BN24" s="10" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
@@ -4950,26 +5130,16 @@
       <c r="BX24" s="11"/>
       <c r="BY24" s="11"/>
       <c r="CA24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB24" s="64">
-        <v>20230.776263355</v>
-      </c>
-      <c r="CC24" s="64">
-        <v>1.430976681093</v>
-      </c>
-      <c r="CD24" s="64">
-        <v>101134.99797247</v>
-      </c>
-      <c r="CE24" s="64">
-        <v>3.3123144991659</v>
-      </c>
-      <c r="CF24" s="64">
-        <v>119725.92734819</v>
-      </c>
-      <c r="CG24" s="64">
-        <v>2.6801849922934</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC24" s="10"/>
+      <c r="CD24" s="10"/>
+      <c r="CE24" s="10"/>
+      <c r="CF24" s="10"/>
+      <c r="CG24" s="10"/>
       <c r="CH24" s="10"/>
       <c r="CI24" s="10"/>
       <c r="CJ24" s="10"/>
@@ -4977,16 +5147,26 @@
       <c r="CL24" s="10"/>
       <c r="CM24" s="10"/>
       <c r="CO24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="CP24" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CQ24" s="10"/>
-      <c r="CR24" s="10"/>
-      <c r="CS24" s="10"/>
-      <c r="CT24" s="10"/>
-      <c r="CU24" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="CP24" s="64">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="64">
+        <v>0</v>
+      </c>
+      <c r="CR24" s="64">
+        <v>0</v>
+      </c>
+      <c r="CS24" s="64">
+        <v>0</v>
+      </c>
+      <c r="CT24" s="64">
+        <v>0</v>
+      </c>
+      <c r="CU24" s="64">
+        <v>0</v>
+      </c>
       <c r="CV24" s="10"/>
       <c r="CW24" s="10"/>
       <c r="CX24" s="10"/>
@@ -4994,17 +5174,27 @@
       <c r="CZ24" s="10"/>
       <c r="DA24" s="10"/>
       <c r="DC24" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="DD24" s="10"/>
-      <c r="DE24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="DF24" s="10"/>
-      <c r="DG24" s="10"/>
-      <c r="DH24" s="10"/>
-      <c r="DI24" s="10"/>
-      <c r="DJ24" s="10"/>
+      <c r="DE24" s="64">
+        <v>0</v>
+      </c>
+      <c r="DF24" s="64">
+        <v>0</v>
+      </c>
+      <c r="DG24" s="64">
+        <v>0</v>
+      </c>
+      <c r="DH24" s="64">
+        <v>0</v>
+      </c>
+      <c r="DI24" s="64">
+        <v>0</v>
+      </c>
+      <c r="DJ24" s="64">
+        <v>0</v>
+      </c>
       <c r="DK24" s="10"/>
       <c r="DL24" s="10"/>
       <c r="DM24" s="10"/>
@@ -5028,26 +5218,16 @@
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
       <c r="CA25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB25" s="64">
-        <v>195513.66578846</v>
-      </c>
-      <c r="CC25" s="64">
-        <v>13.829202247917</v>
-      </c>
-      <c r="CD25" s="64">
-        <v>946728.50816634</v>
-      </c>
-      <c r="CE25" s="64">
-        <v>31.006700224849</v>
-      </c>
-      <c r="CF25" s="64">
-        <v>1127269.6016054</v>
-      </c>
-      <c r="CG25" s="64">
-        <v>25.2350609046</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC25" s="10"/>
+      <c r="CD25" s="10"/>
+      <c r="CE25" s="10"/>
+      <c r="CF25" s="10"/>
+      <c r="CG25" s="10"/>
       <c r="CH25" s="10"/>
       <c r="CI25" s="10"/>
       <c r="CJ25" s="10"/>
@@ -5057,10 +5237,10 @@
     </row>
     <row r="26" spans="1:120">
       <c r="AX26" s="38" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="BL26" s="38" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="BM26" s="33"/>
       <c r="BN26" s="12"/>
@@ -5076,7 +5256,7 @@
       <c r="BX26" s="12"/>
       <c r="BY26" s="12"/>
       <c r="CA26" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="CB26" s="37"/>
       <c r="CC26" s="35"/>
@@ -5091,15 +5271,15 @@
       <c r="CL26" s="35"/>
       <c r="CM26" s="36"/>
       <c r="CO26" s="41" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:120">
       <c r="AX27" s="39" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="BL27" s="38" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="BM27" s="33"/>
       <c r="BN27" s="12"/>
@@ -5115,26 +5295,16 @@
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
       <c r="CA27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB27" s="64">
-        <v>35380.486578503</v>
-      </c>
-      <c r="CC27" s="64">
-        <v>2.5025560364318</v>
-      </c>
-      <c r="CD27" s="64">
-        <v>79032.477057425</v>
-      </c>
-      <c r="CE27" s="64">
-        <v>2.5884256183361</v>
-      </c>
-      <c r="CF27" s="64">
-        <v>114338.11638347</v>
-      </c>
-      <c r="CG27" s="64">
-        <v>2.5595734388162</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB27" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="CC27" s="10"/>
+      <c r="CD27" s="10"/>
+      <c r="CE27" s="10"/>
+      <c r="CF27" s="10"/>
+      <c r="CG27" s="10"/>
       <c r="CH27" s="10"/>
       <c r="CI27" s="10"/>
       <c r="CJ27" s="10"/>
@@ -5142,12 +5312,12 @@
       <c r="CL27" s="10"/>
       <c r="CM27" s="10"/>
       <c r="DC27" s="41" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:120">
       <c r="AX28" s="38" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="BM28" s="33"/>
       <c r="BN28" s="12"/>
@@ -5163,26 +5333,16 @@
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
       <c r="CA28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB28" s="64">
-        <v>786877.83246903</v>
-      </c>
-      <c r="CC28" s="64">
-        <v>55.65796460177</v>
-      </c>
-      <c r="CD28" s="64">
-        <v>917141.12289035</v>
-      </c>
-      <c r="CE28" s="64">
-        <v>30.037671429608</v>
-      </c>
-      <c r="CF28" s="64">
-        <v>1726350.594906</v>
-      </c>
-      <c r="CG28" s="64">
-        <v>38.646089935454</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC28" s="10"/>
+      <c r="CD28" s="10"/>
+      <c r="CE28" s="10"/>
+      <c r="CF28" s="10"/>
+      <c r="CG28" s="10"/>
       <c r="CH28" s="10"/>
       <c r="CI28" s="10"/>
       <c r="CJ28" s="10"/>
@@ -5192,10 +5352,10 @@
     </row>
     <row r="29" spans="1:120">
       <c r="BL29" s="38" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="CA29" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="CB29" s="37"/>
       <c r="CC29" s="35"/>
@@ -5212,29 +5372,19 @@
     </row>
     <row r="30" spans="1:120">
       <c r="BL30" s="38" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="CA30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB30" s="64">
-        <v>11801.017511298</v>
-      </c>
-      <c r="CC30" s="64">
-        <v>0.83471739551709</v>
-      </c>
-      <c r="CD30" s="64">
-        <v>20219.345851715</v>
-      </c>
-      <c r="CE30" s="64">
-        <v>0.66221222891129</v>
-      </c>
-      <c r="CF30" s="64">
-        <v>32170.725545627</v>
-      </c>
-      <c r="CG30" s="64">
-        <v>0.72017396489084</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC30" s="10"/>
+      <c r="CD30" s="10"/>
+      <c r="CE30" s="10"/>
+      <c r="CF30" s="10"/>
+      <c r="CG30" s="10"/>
       <c r="CH30" s="10"/>
       <c r="CI30" s="10"/>
       <c r="CJ30" s="10"/>
@@ -5244,26 +5394,16 @@
     </row>
     <row r="31" spans="1:120">
       <c r="CA31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB31" s="64">
-        <v>305013.48945156</v>
-      </c>
-      <c r="CC31" s="64">
-        <v>21.574416381371</v>
-      </c>
-      <c r="CD31" s="64">
-        <v>625075.36150249</v>
-      </c>
-      <c r="CE31" s="64">
-        <v>20.472103865961</v>
-      </c>
-      <c r="CF31" s="64">
-        <v>931049.66922403</v>
-      </c>
-      <c r="CG31" s="64">
-        <v>20.842480871138</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC31" s="10"/>
+      <c r="CD31" s="10"/>
+      <c r="CE31" s="10"/>
+      <c r="CF31" s="10"/>
+      <c r="CG31" s="10"/>
       <c r="CH31" s="10"/>
       <c r="CI31" s="10"/>
       <c r="CJ31" s="10"/>
@@ -5273,7 +5413,7 @@
     </row>
     <row r="32" spans="1:120">
       <c r="CA32" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="CB32" s="37"/>
       <c r="CC32" s="35"/>
@@ -5290,26 +5430,16 @@
     </row>
     <row r="33" spans="1:120">
       <c r="CA33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB33" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC33" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD33" s="64">
-        <v>1837.2526066584</v>
-      </c>
-      <c r="CE33" s="64">
-        <v>0.060172626387176</v>
-      </c>
-      <c r="CF33" s="64">
-        <v>1784.8038156153</v>
-      </c>
-      <c r="CG33" s="64">
-        <v>0.039954623921085</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CC33" s="10"/>
+      <c r="CD33" s="10"/>
+      <c r="CE33" s="10"/>
+      <c r="CF33" s="10"/>
+      <c r="CG33" s="10"/>
       <c r="CH33" s="10"/>
       <c r="CI33" s="10"/>
       <c r="CJ33" s="10"/>
@@ -5319,26 +5449,16 @@
     </row>
     <row r="34" spans="1:120">
       <c r="CA34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB34" s="64">
-        <v>48865.521615464</v>
-      </c>
-      <c r="CC34" s="64">
-        <v>3.4563884761966</v>
-      </c>
-      <c r="CD34" s="64">
-        <v>33085.854405408</v>
-      </c>
-      <c r="CE34" s="64">
-        <v>1.0836086168129</v>
-      </c>
-      <c r="CF34" s="64">
-        <v>84019.582820347</v>
-      </c>
-      <c r="CG34" s="64">
-        <v>1.8808626495659</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10"/>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
       <c r="CH34" s="10"/>
       <c r="CI34" s="10"/>
       <c r="CJ34" s="10"/>
@@ -5348,7 +5468,7 @@
     </row>
     <row r="35" spans="1:120">
       <c r="CA35" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="CB35" s="37"/>
       <c r="CC35" s="35"/>
@@ -5365,26 +5485,16 @@
     </row>
     <row r="36" spans="1:120">
       <c r="CA36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB36" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC36" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD36" s="64">
-        <v>1839.1660423529</v>
-      </c>
-      <c r="CE36" s="64">
-        <v>0.060235294117647</v>
-      </c>
-      <c r="CF36" s="64">
-        <v>1786.6626276894</v>
-      </c>
-      <c r="CG36" s="64">
-        <v>0.039996235294118</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB36" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC36" s="10"/>
+      <c r="CD36" s="10"/>
+      <c r="CE36" s="10"/>
+      <c r="CF36" s="10"/>
+      <c r="CG36" s="10"/>
       <c r="CH36" s="10"/>
       <c r="CI36" s="10"/>
       <c r="CJ36" s="10"/>
@@ -5394,26 +5504,16 @@
     </row>
     <row r="37" spans="1:120">
       <c r="CA37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB37" s="64">
-        <v>1684.0175256637</v>
-      </c>
-      <c r="CC37" s="64">
-        <v>0.11911504424779</v>
-      </c>
-      <c r="CD37" s="64">
-        <v>7354.7507337173</v>
-      </c>
-      <c r="CE37" s="64">
-        <v>0.24087850874012</v>
-      </c>
-      <c r="CF37" s="64">
-        <v>8932.6345090481</v>
-      </c>
-      <c r="CG37" s="64">
-        <v>0.19996598467069</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB37" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CC37" s="10"/>
+      <c r="CD37" s="10"/>
+      <c r="CE37" s="10"/>
+      <c r="CF37" s="10"/>
+      <c r="CG37" s="10"/>
       <c r="CH37" s="10"/>
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
@@ -5423,7 +5523,7 @@
     </row>
     <row r="38" spans="1:120">
       <c r="CA38" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="CB38" s="37"/>
       <c r="CC38" s="35"/>
@@ -5440,26 +5540,16 @@
     </row>
     <row r="39" spans="1:120">
       <c r="CA39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB39" s="64">
-        <v>16853.070088289</v>
-      </c>
-      <c r="CC39" s="64">
-        <v>1.1920625282604</v>
-      </c>
-      <c r="CD39" s="64">
-        <v>64345.936818325</v>
-      </c>
-      <c r="CE39" s="64">
-        <v>2.1074206136215</v>
-      </c>
-      <c r="CF39" s="64">
-        <v>80401.145356748</v>
-      </c>
-      <c r="CG39" s="64">
-        <v>1.7998602969402</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB39" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC39" s="10"/>
+      <c r="CD39" s="10"/>
+      <c r="CE39" s="10"/>
+      <c r="CF39" s="10"/>
+      <c r="CG39" s="10"/>
       <c r="CH39" s="10"/>
       <c r="CI39" s="10"/>
       <c r="CJ39" s="10"/>
@@ -5469,26 +5559,16 @@
     </row>
     <row r="40" spans="1:120">
       <c r="CA40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB40" s="64">
-        <v>411206.52851367</v>
-      </c>
-      <c r="CC40" s="64">
-        <v>29.085732833796</v>
-      </c>
-      <c r="CD40" s="64">
-        <v>933848.60556278</v>
-      </c>
-      <c r="CE40" s="64">
-        <v>30.584865162835</v>
-      </c>
-      <c r="CF40" s="64">
-        <v>1343748.4322921</v>
-      </c>
-      <c r="CG40" s="64">
-        <v>30.081156700278</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CC40" s="10"/>
+      <c r="CD40" s="10"/>
+      <c r="CE40" s="10"/>
+      <c r="CF40" s="10"/>
+      <c r="CG40" s="10"/>
       <c r="CH40" s="10"/>
       <c r="CI40" s="10"/>
       <c r="CJ40" s="10"/>
@@ -5498,7 +5578,7 @@
     </row>
     <row r="41" spans="1:120">
       <c r="CA41" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="CB41" s="37"/>
       <c r="CC41" s="35"/>
@@ -5515,26 +5595,16 @@
     </row>
     <row r="42" spans="1:120">
       <c r="CA42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB42" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC42" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD42" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE42" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF42" s="64">
-        <v>0</v>
-      </c>
-      <c r="CG42" s="64">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB42" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC42" s="10"/>
+      <c r="CD42" s="10"/>
+      <c r="CE42" s="10"/>
+      <c r="CF42" s="10"/>
+      <c r="CG42" s="10"/>
       <c r="CH42" s="10"/>
       <c r="CI42" s="10"/>
       <c r="CJ42" s="10"/>
@@ -5544,26 +5614,16 @@
     </row>
     <row r="43" spans="1:120">
       <c r="CA43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB43" s="64">
-        <v>3374.4824671533</v>
-      </c>
-      <c r="CC43" s="64">
-        <v>0.23868613138686</v>
-      </c>
-      <c r="CD43" s="64">
-        <v>1839.1660423529</v>
-      </c>
-      <c r="CE43" s="64">
-        <v>0.060235294117647</v>
-      </c>
-      <c r="CF43" s="64">
-        <v>5369.1931688865</v>
-      </c>
-      <c r="CG43" s="64">
-        <v>0.1201947754401</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB43" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC43" s="10"/>
+      <c r="CD43" s="10"/>
+      <c r="CE43" s="10"/>
+      <c r="CF43" s="10"/>
+      <c r="CG43" s="10"/>
       <c r="CH43" s="10"/>
       <c r="CI43" s="10"/>
       <c r="CJ43" s="10"/>
@@ -5573,7 +5633,7 @@
     </row>
     <row r="44" spans="1:120">
       <c r="CA44" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="CB44" s="35"/>
       <c r="CC44" s="35"/>
@@ -5590,26 +5650,16 @@
     </row>
     <row r="45" spans="1:120">
       <c r="CA45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB45" s="64">
-        <v>1687.2412335766</v>
-      </c>
-      <c r="CC45" s="64">
-        <v>0.11934306569343</v>
-      </c>
-      <c r="CD45" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE45" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF45" s="64">
-        <v>1791.2652705985</v>
-      </c>
-      <c r="CG45" s="64">
-        <v>0.040099270072993</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB45" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC45" s="10"/>
+      <c r="CD45" s="10"/>
+      <c r="CE45" s="10"/>
+      <c r="CF45" s="10"/>
+      <c r="CG45" s="10"/>
       <c r="CH45" s="10"/>
       <c r="CI45" s="10"/>
       <c r="CJ45" s="10"/>
@@ -5619,26 +5669,16 @@
     </row>
     <row r="46" spans="1:120">
       <c r="CA46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB46" s="64">
-        <v>21911.570081106</v>
-      </c>
-      <c r="CC46" s="64">
-        <v>1.5498637038951</v>
-      </c>
-      <c r="CD46" s="64">
-        <v>12874.162296471</v>
-      </c>
-      <c r="CE46" s="64">
-        <v>0.42164705882353</v>
-      </c>
-      <c r="CF46" s="64">
-        <v>35769.129689969</v>
-      </c>
-      <c r="CG46" s="64">
-        <v>0.80072785156758</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB46" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="CC46" s="10"/>
+      <c r="CD46" s="10"/>
+      <c r="CE46" s="10"/>
+      <c r="CF46" s="10"/>
+      <c r="CG46" s="10"/>
       <c r="CH46" s="10"/>
       <c r="CI46" s="10"/>
       <c r="CJ46" s="10"/>
@@ -5648,7 +5688,7 @@
     </row>
     <row r="47" spans="1:120">
       <c r="CA47" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="CB47" s="35"/>
       <c r="CC47" s="35"/>
@@ -5665,26 +5705,16 @@
     </row>
     <row r="48" spans="1:120">
       <c r="CA48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB48" s="64">
-        <v>266303.65231669</v>
-      </c>
-      <c r="CC48" s="64">
-        <v>18.836366513791</v>
-      </c>
-      <c r="CD48" s="64">
-        <v>1020297.0632961</v>
-      </c>
-      <c r="CE48" s="64">
-        <v>33.416174657286</v>
-      </c>
-      <c r="CF48" s="64">
-        <v>1273892.3903048</v>
-      </c>
-      <c r="CG48" s="64">
-        <v>28.517359121072</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC48" s="10"/>
+      <c r="CD48" s="10"/>
+      <c r="CE48" s="10"/>
+      <c r="CF48" s="10"/>
+      <c r="CG48" s="10"/>
       <c r="CH48" s="10"/>
       <c r="CI48" s="10"/>
       <c r="CJ48" s="10"/>
@@ -5694,26 +5724,16 @@
     </row>
     <row r="49" spans="1:120">
       <c r="CA49" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB49" s="64">
-        <v>935161.638549</v>
-      </c>
-      <c r="CC49" s="64">
-        <v>66.146473096053</v>
-      </c>
-      <c r="CD49" s="64">
-        <v>1531168.0940889</v>
-      </c>
-      <c r="CE49" s="64">
-        <v>50.147924856749</v>
-      </c>
-      <c r="CF49" s="64">
-        <v>2480274.686747</v>
-      </c>
-      <c r="CG49" s="64">
-        <v>55.523437065155</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB49" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC49" s="10"/>
+      <c r="CD49" s="10"/>
+      <c r="CE49" s="10"/>
+      <c r="CF49" s="10"/>
+      <c r="CG49" s="10"/>
       <c r="CH49" s="10"/>
       <c r="CI49" s="10"/>
       <c r="CJ49" s="10"/>
@@ -5723,7 +5743,7 @@
     </row>
     <row r="50" spans="1:120">
       <c r="CA50" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="CB50" s="35"/>
       <c r="CC50" s="35"/>
@@ -5740,26 +5760,16 @@
     </row>
     <row r="51" spans="1:120">
       <c r="CA51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB51" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC51" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD51" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE51" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF51" s="64">
-        <v>0</v>
-      </c>
-      <c r="CG51" s="64">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="CB51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC51" s="10"/>
+      <c r="CD51" s="10"/>
+      <c r="CE51" s="10"/>
+      <c r="CF51" s="10"/>
+      <c r="CG51" s="10"/>
       <c r="CH51" s="10"/>
       <c r="CI51" s="10"/>
       <c r="CJ51" s="10"/>
@@ -5769,26 +5779,16 @@
     </row>
     <row r="52" spans="1:120">
       <c r="CA52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB52" s="64">
-        <v>0</v>
-      </c>
-      <c r="CC52" s="64">
-        <v>0</v>
-      </c>
-      <c r="CD52" s="64">
-        <v>0</v>
-      </c>
-      <c r="CE52" s="64">
-        <v>0</v>
-      </c>
-      <c r="CF52" s="64">
-        <v>0</v>
-      </c>
-      <c r="CG52" s="64">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="CB52" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC52" s="10"/>
+      <c r="CD52" s="10"/>
+      <c r="CE52" s="10"/>
+      <c r="CF52" s="10"/>
+      <c r="CG52" s="10"/>
       <c r="CH52" s="10"/>
       <c r="CI52" s="10"/>
       <c r="CJ52" s="10"/>

--- a/storage/excel/sum11_2.xlsx
+++ b/storage/excel/sum11_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>บทที่ 11 ข้อมูลแหล่งพลังงาน</t>
   </si>
@@ -110,15 +110,6 @@
     <t>ฟืน</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra831(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra831(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra831(328)</t>
-  </si>
-  <si>
     <t>ค่าเฉลี่ย</t>
   </si>
   <si>
@@ -128,289 +119,61 @@
     <t>ถ่าน</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra831(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra831(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra831(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_nu834</t>
-  </si>
-  <si>
     <t>กก.</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_nu833</t>
   </si>
   <si>
     <t>แกลบ</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra831(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra831(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra831(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_nu833</t>
-  </si>
-  <si>
     <t xml:space="preserve">  ขนส่งโดยไม่ใช้เชื้อเพลิง</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra832(225)</t>
   </si>
   <si>
     <t>วัสดุเหลือใช้ทางการเกษตร</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o269_ra831(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o269_ra831(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o269_ra831(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_nu833</t>
-  </si>
-  <si>
     <t xml:space="preserve">  ขนส่งโดยใช้เชื้อเพลิง</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o266_ra832(226)</t>
   </si>
   <si>
     <t>เบนซิน 95</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o269_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o269_nu833</t>
-  </si>
-  <si>
     <t>แก๊สโซฮอล์ 91</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002</t>
   </si>
   <si>
     <t>ลิตร</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra832(225)</t>
-  </si>
-  <si>
     <t>แก๊สโซฮอล์ 95</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o229_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o229_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o267_ra832(226)</t>
   </si>
   <si>
     <t>แก๊สโซฮอล์ อี 20</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o230_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o230_nu820</t>
-  </si>
-  <si>
     <t>แก๊สโซฮอล์ อี 85</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o231_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o231_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra832(225)</t>
   </si>
   <si>
     <t>น้ำมันดีเซล</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o232_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o232_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o268_ra832(226)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ก๊าซธรรมชาติ </t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra811(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o233_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o233_nu820</t>
   </si>
   <si>
     <t xml:space="preserve">ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์ </t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra811(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra811(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra811(328)</t>
-  </si>
-  <si>
     <t>ก๊าซธรรมชาติ</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o234_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o234_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o286_ra832(225)</t>
   </si>
   <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra823(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra823(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra823(328)</t>
-  </si>
-  <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับยานยนต์</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3002,no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3002,no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3002</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o235_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o235_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o286_ra832(226)</t>
   </si>
   <si>
     <t>อื่นๆ</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra831(326)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra831(327)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra831(328)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ch825_o208_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o209_nu826, no_ra808_o81_ti821_ch822_o236_ch825_o210_nu826</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_nu834</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o281_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o282_nu3002, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3001, no_ra808_o81_ti809_ch810_o228_ch3000_o283_nu3002, no_ra808_o81_ti809_ch810_o228_nu820</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o228_ra812(226)</t>
   </si>
   <si>
     <t>น้ำมัน UID = จำนวนครั้งรถจยย, จำนวนครั้งรถยนต์, จำนวนครั้งบรรทุก</t>
@@ -428,70 +191,16 @@
     <t>ในแต่ละครัวเรือนให้หาจำนวนลิตรที่ไปซื้อต่อครั้งด้วยการรวมราคาซื้อต่อครั้งของรถทุกชนิดแล้วหารด้วยราคาน้ำมัน</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra812(225)</t>
-  </si>
-  <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้เฉลี่ยราคาของทั้ง 3 ขนาดถังก่อน UID = (ราคา 4 กก, ราคา 15 กก, ราคา 48 กก) โดยราคาที่เก็บมาเป็นราคาต่อกก แล้ว</t>
   </si>
   <si>
     <t>ก๊าซปิโตรเลียมเหลว สำหรับหุงต้ม ให้ถือว่าออกไปซื้อครั้งละ 1 ถังเท่านั้น ดังนั้นหาจำนวนถังเฉลี่ยที่ซื้อต่อปีจะเท่ากับจำนวนครั้งที่ซื้อต่อปีด้วย(UID ที่ให้เป็นจำนวนถัง 3 ขนาดที่ซื้อต่อปี)</t>
   </si>
   <si>
-    <t>no_ra808_o81_ti809_ch810_o229_ra812(226)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ก๊าซปิโตรเลียมเหลวสำหรับหุงต้ม แต่ละขนาดถังให้เอาขนาถัง(กก) x จำนวนถังที่ซื้อ บวกกันสามขนาดเพื่อให้ปริมาณรวมทั้งหมด </t>
   </si>
   <si>
     <t>แล้วหารด้วยจำนวนถังทั้งหมดต่อปีเพื่อหาค่าเฉลี่ยเบื้องต้น (UID = จำนวนถัง 4 กก, จำนวนถัง 15 กก, จำนวนถัง 48 กก)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o230_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o231_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o232_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o233_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o234_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra812(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti809_ch810_o235_ra812(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra824(226)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti821_ch822_o236_ra824(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra832(225)</t>
-  </si>
-  <si>
-    <t>no_ra808_o81_ti829_ch830_o1_ra832(226)</t>
   </si>
 </sst>
 </file>
@@ -706,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -827,9 +536,6 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -900,6 +606,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="4" fillId="2" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1773,337 +1485,337 @@
       <c r="DP6" s="26"/>
     </row>
     <row r="7" spans="1:120">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="R7" s="47" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="R7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Z7" s="47" t="s">
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Z7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AH7" s="47" t="s">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AH7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AP7" s="47" t="s">
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AP7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="42" t="s">
+      <c r="AX7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="41"/>
+      <c r="BH7" s="41"/>
+      <c r="BI7" s="41"/>
+      <c r="BJ7" s="41"/>
       <c r="BK7" s="6"/>
-      <c r="BL7" s="42" t="s">
+      <c r="BL7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="42"/>
-      <c r="BQ7" s="42"/>
-      <c r="BR7" s="42"/>
-      <c r="BS7" s="42"/>
-      <c r="BT7" s="42"/>
-      <c r="BU7" s="42"/>
-      <c r="BV7" s="42"/>
-      <c r="BW7" s="42"/>
-      <c r="BX7" s="42"/>
-      <c r="BY7" s="42"/>
-      <c r="CA7" s="47" t="s">
+      <c r="BM7" s="41"/>
+      <c r="BN7" s="41"/>
+      <c r="BO7" s="41"/>
+      <c r="BP7" s="41"/>
+      <c r="BQ7" s="41"/>
+      <c r="BR7" s="41"/>
+      <c r="BS7" s="41"/>
+      <c r="BT7" s="41"/>
+      <c r="BU7" s="41"/>
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="41"/>
+      <c r="BX7" s="41"/>
+      <c r="BY7" s="41"/>
+      <c r="CA7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="CB7" s="47"/>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="47"/>
-      <c r="CE7" s="47"/>
-      <c r="CF7" s="47"/>
-      <c r="CG7" s="47"/>
-      <c r="CH7" s="47"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="47"/>
-      <c r="CK7" s="47"/>
-      <c r="CL7" s="47"/>
-      <c r="CM7" s="47"/>
-      <c r="CO7" s="42" t="s">
+      <c r="CB7" s="46"/>
+      <c r="CC7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CE7" s="46"/>
+      <c r="CF7" s="46"/>
+      <c r="CG7" s="46"/>
+      <c r="CH7" s="46"/>
+      <c r="CI7" s="46"/>
+      <c r="CJ7" s="46"/>
+      <c r="CK7" s="46"/>
+      <c r="CL7" s="46"/>
+      <c r="CM7" s="46"/>
+      <c r="CO7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="CP7" s="42"/>
-      <c r="CQ7" s="42"/>
-      <c r="CR7" s="42"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="42"/>
-      <c r="CU7" s="42"/>
-      <c r="CV7" s="42"/>
-      <c r="CW7" s="42"/>
-      <c r="CX7" s="42"/>
-      <c r="CY7" s="42"/>
-      <c r="CZ7" s="42"/>
-      <c r="DA7" s="42"/>
-      <c r="DC7" s="42" t="s">
+      <c r="CP7" s="41"/>
+      <c r="CQ7" s="41"/>
+      <c r="CR7" s="41"/>
+      <c r="CS7" s="41"/>
+      <c r="CT7" s="41"/>
+      <c r="CU7" s="41"/>
+      <c r="CV7" s="41"/>
+      <c r="CW7" s="41"/>
+      <c r="CX7" s="41"/>
+      <c r="CY7" s="41"/>
+      <c r="CZ7" s="41"/>
+      <c r="DA7" s="41"/>
+      <c r="DC7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="DD7" s="42"/>
-      <c r="DE7" s="42"/>
-      <c r="DF7" s="42"/>
-      <c r="DG7" s="42"/>
-      <c r="DH7" s="42"/>
-      <c r="DI7" s="42"/>
-      <c r="DJ7" s="42"/>
-      <c r="DK7" s="42"/>
-      <c r="DL7" s="42"/>
-      <c r="DM7" s="42"/>
-      <c r="DN7" s="42"/>
-      <c r="DO7" s="42"/>
-      <c r="DP7" s="42"/>
+      <c r="DD7" s="41"/>
+      <c r="DE7" s="41"/>
+      <c r="DF7" s="41"/>
+      <c r="DG7" s="41"/>
+      <c r="DH7" s="41"/>
+      <c r="DI7" s="41"/>
+      <c r="DJ7" s="41"/>
+      <c r="DK7" s="41"/>
+      <c r="DL7" s="41"/>
+      <c r="DM7" s="41"/>
+      <c r="DN7" s="41"/>
+      <c r="DO7" s="41"/>
+      <c r="DP7" s="41"/>
     </row>
     <row r="8" spans="1:120">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="J8" s="43" t="s">
+      <c r="H8" s="47"/>
+      <c r="J8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="48" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="48"/>
-      <c r="R8" s="43" t="s">
+      <c r="P8" s="47"/>
+      <c r="R8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="48" t="s">
+      <c r="T8" s="45"/>
+      <c r="U8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48" t="s">
+      <c r="V8" s="47"/>
+      <c r="W8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="48"/>
-      <c r="Z8" s="43" t="s">
+      <c r="X8" s="47"/>
+      <c r="Z8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="45" t="s">
+      <c r="AA8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="48" t="s">
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48" t="s">
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AF8" s="48"/>
-      <c r="AH8" s="43" t="s">
+      <c r="AF8" s="47"/>
+      <c r="AH8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI8" s="45" t="s">
+      <c r="AI8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="48" t="s">
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48" t="s">
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AN8" s="48"/>
-      <c r="AP8" s="43" t="s">
+      <c r="AN8" s="47"/>
+      <c r="AP8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="48" t="s">
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48" t="s">
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AV8" s="48"/>
+      <c r="AV8" s="47"/>
       <c r="AW8" s="1"/>
-      <c r="AX8" s="49" t="s">
+      <c r="AX8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AY8" s="50" t="s">
+      <c r="AY8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="52" t="s">
+      <c r="AZ8" s="50"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="50"/>
+      <c r="BC8" s="50"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="49" t="s">
+      <c r="BL8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BM8" s="61" t="s">
+      <c r="BM8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="BN8" s="50" t="s">
+      <c r="BN8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="BO8" s="51"/>
-      <c r="BP8" s="51"/>
-      <c r="BQ8" s="51"/>
-      <c r="BR8" s="51"/>
-      <c r="BS8" s="51"/>
-      <c r="BT8" s="52" t="s">
+      <c r="BO8" s="50"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="50"/>
+      <c r="BT8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="BU8" s="52"/>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="52"/>
-      <c r="CA8" s="59" t="s">
+      <c r="BU8" s="51"/>
+      <c r="BV8" s="51"/>
+      <c r="BW8" s="51"/>
+      <c r="BX8" s="51"/>
+      <c r="BY8" s="51"/>
+      <c r="CA8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="CB8" s="57" t="s">
+      <c r="CB8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="57"/>
-      <c r="CG8" s="58"/>
-      <c r="CH8" s="48" t="s">
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="56"/>
+      <c r="CG8" s="57"/>
+      <c r="CH8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="CI8" s="48"/>
-      <c r="CJ8" s="48"/>
-      <c r="CK8" s="48"/>
-      <c r="CL8" s="48"/>
-      <c r="CM8" s="48"/>
-      <c r="CO8" s="49" t="s">
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
+      <c r="CL8" s="47"/>
+      <c r="CM8" s="47"/>
+      <c r="CO8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CP8" s="50" t="s">
+      <c r="CP8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="CQ8" s="51"/>
-      <c r="CR8" s="51"/>
-      <c r="CS8" s="51"/>
-      <c r="CT8" s="51"/>
-      <c r="CU8" s="51"/>
-      <c r="CV8" s="52" t="s">
+      <c r="CQ8" s="50"/>
+      <c r="CR8" s="50"/>
+      <c r="CS8" s="50"/>
+      <c r="CT8" s="50"/>
+      <c r="CU8" s="50"/>
+      <c r="CV8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="CW8" s="52"/>
-      <c r="CX8" s="52"/>
-      <c r="CY8" s="52"/>
-      <c r="CZ8" s="52"/>
-      <c r="DA8" s="52"/>
-      <c r="DC8" s="49" t="s">
+      <c r="CW8" s="51"/>
+      <c r="CX8" s="51"/>
+      <c r="CY8" s="51"/>
+      <c r="CZ8" s="51"/>
+      <c r="DA8" s="51"/>
+      <c r="DC8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="DD8" s="61" t="s">
+      <c r="DD8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="DE8" s="50" t="s">
+      <c r="DE8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="DF8" s="51"/>
-      <c r="DG8" s="51"/>
-      <c r="DH8" s="51"/>
-      <c r="DI8" s="51"/>
-      <c r="DJ8" s="51"/>
-      <c r="DK8" s="52" t="s">
+      <c r="DF8" s="50"/>
+      <c r="DG8" s="50"/>
+      <c r="DH8" s="50"/>
+      <c r="DI8" s="50"/>
+      <c r="DJ8" s="50"/>
+      <c r="DK8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="DL8" s="52"/>
-      <c r="DM8" s="52"/>
-      <c r="DN8" s="52"/>
-      <c r="DO8" s="52"/>
-      <c r="DP8" s="52"/>
+      <c r="DL8" s="51"/>
+      <c r="DM8" s="51"/>
+      <c r="DN8" s="51"/>
+      <c r="DO8" s="51"/>
+      <c r="DP8" s="51"/>
     </row>
     <row r="9" spans="1:120">
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2122,7 +1834,7 @@
       <c r="H9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="44"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2141,7 +1853,7 @@
       <c r="P9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="44"/>
+      <c r="R9" s="43"/>
       <c r="S9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2160,7 +1872,7 @@
       <c r="X9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="44"/>
+      <c r="Z9" s="43"/>
       <c r="AA9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2179,7 +1891,7 @@
       <c r="AF9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="44"/>
+      <c r="AH9" s="43"/>
       <c r="AI9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +1910,7 @@
       <c r="AN9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="44"/>
+      <c r="AP9" s="43"/>
       <c r="AQ9" s="17" t="s">
         <v>25</v>
       </c>
@@ -2218,181 +1930,199 @@
         <v>26</v>
       </c>
       <c r="AW9" s="1"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="50" t="s">
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="50" t="s">
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="50" t="s">
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="52" t="s">
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="52" t="s">
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="52"/>
-      <c r="BI9" s="52" t="s">
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BJ9" s="52"/>
+      <c r="BJ9" s="51"/>
       <c r="BK9" s="1"/>
-      <c r="BL9" s="49"/>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="50" t="s">
+      <c r="BL9" s="48"/>
+      <c r="BM9" s="61"/>
+      <c r="BN9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BO9" s="51"/>
-      <c r="BP9" s="50" t="s">
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="BQ9" s="51"/>
-      <c r="BR9" s="50" t="s">
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="BS9" s="53"/>
-      <c r="BT9" s="52" t="s">
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="BU9" s="52"/>
-      <c r="BV9" s="52" t="s">
+      <c r="BU9" s="51"/>
+      <c r="BV9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BW9" s="52"/>
-      <c r="BX9" s="52" t="s">
+      <c r="BW9" s="51"/>
+      <c r="BX9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BY9" s="52"/>
-      <c r="CA9" s="59"/>
-      <c r="CB9" s="57" t="s">
+      <c r="BY9" s="51"/>
+      <c r="CA9" s="58"/>
+      <c r="CB9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CC9" s="57"/>
-      <c r="CD9" s="60" t="s">
+      <c r="CC9" s="56"/>
+      <c r="CD9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="CE9" s="57"/>
-      <c r="CF9" s="60" t="s">
+      <c r="CE9" s="56"/>
+      <c r="CF9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="CG9" s="58"/>
-      <c r="CH9" s="48" t="s">
+      <c r="CG9" s="57"/>
+      <c r="CH9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="48" t="s">
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="CK9" s="48"/>
-      <c r="CL9" s="48" t="s">
+      <c r="CK9" s="47"/>
+      <c r="CL9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="CM9" s="48"/>
-      <c r="CO9" s="49"/>
-      <c r="CP9" s="50" t="s">
+      <c r="CM9" s="47"/>
+      <c r="CO9" s="48"/>
+      <c r="CP9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="CQ9" s="51"/>
-      <c r="CR9" s="50" t="s">
+      <c r="CQ9" s="50"/>
+      <c r="CR9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="CS9" s="51"/>
-      <c r="CT9" s="50" t="s">
+      <c r="CS9" s="50"/>
+      <c r="CT9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="CU9" s="53"/>
-      <c r="CV9" s="52" t="s">
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="CW9" s="52"/>
-      <c r="CX9" s="52" t="s">
+      <c r="CW9" s="51"/>
+      <c r="CX9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="CY9" s="52"/>
-      <c r="CZ9" s="52" t="s">
+      <c r="CY9" s="51"/>
+      <c r="CZ9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="DA9" s="52"/>
-      <c r="DC9" s="49"/>
-      <c r="DD9" s="62"/>
-      <c r="DE9" s="50" t="s">
+      <c r="DA9" s="51"/>
+      <c r="DC9" s="48"/>
+      <c r="DD9" s="61"/>
+      <c r="DE9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="DF9" s="51"/>
-      <c r="DG9" s="50" t="s">
+      <c r="DF9" s="50"/>
+      <c r="DG9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="DH9" s="51"/>
-      <c r="DI9" s="50" t="s">
+      <c r="DH9" s="50"/>
+      <c r="DI9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="DJ9" s="53"/>
-      <c r="DK9" s="52" t="s">
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="DL9" s="52"/>
-      <c r="DM9" s="52" t="s">
+      <c r="DL9" s="51"/>
+      <c r="DM9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="DN9" s="52"/>
-      <c r="DO9" s="52" t="s">
+      <c r="DN9" s="51"/>
+      <c r="DO9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="DP9" s="52"/>
+      <c r="DP9" s="51"/>
     </row>
     <row r="10" spans="1:120">
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="C10" s="63">
+        <v>107177.86433335</v>
+      </c>
+      <c r="D10" s="63">
+        <v>2.3992840135361</v>
+      </c>
+      <c r="E10" s="63">
+        <v>10715.579512589</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0.23987899721875</v>
+      </c>
+      <c r="G10" s="63">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="10"/>
+      <c r="K10" s="63">
+        <v>33690.021637013</v>
+      </c>
+      <c r="L10" s="63">
+        <v>2.3829849492927</v>
+      </c>
+      <c r="M10" s="63">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="N10" s="63">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="O10" s="63">
+        <v>0</v>
+      </c>
+      <c r="P10" s="63">
+        <v>0</v>
+      </c>
       <c r="R10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="10"/>
+      <c r="S10" s="63">
+        <v>73509.238623283</v>
+      </c>
+      <c r="T10" s="63">
+        <v>2.4075317327918</v>
+      </c>
+      <c r="U10" s="63">
+        <v>9190.0899046812</v>
+      </c>
+      <c r="V10" s="63">
+        <v>0.30098846739682</v>
+      </c>
+      <c r="W10" s="63">
+        <v>0</v>
+      </c>
+      <c r="X10" s="63">
+        <v>0</v>
+      </c>
       <c r="Z10" s="5" t="s">
         <v>30</v>
       </c>
@@ -2420,82 +2150,82 @@
       <c r="AT10" s="10"/>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10"/>
-      <c r="AX10" s="49"/>
+      <c r="AX10" s="48"/>
       <c r="AY10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AZ10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BB10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BC10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BD10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BE10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BF10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BG10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BH10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BJ10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL10" s="49"/>
-      <c r="BM10" s="63"/>
+        <v>32</v>
+      </c>
+      <c r="BL10" s="48"/>
+      <c r="BM10" s="62"/>
       <c r="BN10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BO10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BP10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BQ10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BR10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BS10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BT10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BU10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BV10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BW10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BX10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BY10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="CA10" s="59"/>
+        <v>32</v>
+      </c>
+      <c r="CA10" s="58"/>
       <c r="CB10" s="18" t="s">
         <v>25</v>
       </c>
@@ -2532,130 +2262,148 @@
       <c r="CM10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="CO10" s="49"/>
+      <c r="CO10" s="48"/>
       <c r="CP10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CQ10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="CR10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CS10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="CT10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CU10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="CV10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CW10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="CX10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CY10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="CZ10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DA10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="DC10" s="49"/>
-      <c r="DD10" s="63"/>
+        <v>32</v>
+      </c>
+      <c r="DC10" s="48"/>
+      <c r="DD10" s="62"/>
       <c r="DE10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DF10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="DG10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DH10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="DI10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DJ10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="DK10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DL10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="DM10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DN10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="DO10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="DP10" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:120">
       <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="C11" s="63">
+        <v>1050677.1388825</v>
+      </c>
+      <c r="D11" s="63">
+        <v>23.520461789275</v>
+      </c>
+      <c r="E11" s="63">
+        <v>151901.31463619</v>
+      </c>
+      <c r="F11" s="63">
+        <v>3.4004633149638</v>
+      </c>
+      <c r="G11" s="63">
+        <v>7145.2932519598</v>
+      </c>
+      <c r="H11" s="63">
+        <v>0.15995455757668</v>
+      </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="K11" s="63">
+        <v>288195.88015031</v>
+      </c>
+      <c r="L11" s="63">
+        <v>20.384862089012</v>
+      </c>
+      <c r="M11" s="63">
+        <v>48868.745323377</v>
+      </c>
+      <c r="N11" s="63">
+        <v>3.4566164976423</v>
+      </c>
+      <c r="O11" s="63">
+        <v>3368.0350513274</v>
+      </c>
+      <c r="P11" s="63">
+        <v>0.23823008849558</v>
+      </c>
       <c r="R11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="S11" s="63">
+        <v>766597.38841464</v>
+      </c>
+      <c r="T11" s="63">
+        <v>25.107150794226</v>
+      </c>
+      <c r="U11" s="63">
+        <v>102958.85652926</v>
+      </c>
+      <c r="V11" s="63">
+        <v>3.3720484514398</v>
+      </c>
+      <c r="W11" s="63">
+        <v>3674.5052133169</v>
+      </c>
+      <c r="X11" s="63">
+        <v>0.12034525277435</v>
+      </c>
       <c r="Z11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -2664,7 +2412,7 @@
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AH11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
@@ -2673,7 +2421,7 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
       <c r="AP11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
@@ -2684,14 +2432,24 @@
       <c r="AX11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AY11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
+      <c r="AY11" s="63">
+        <v>30.395333333333</v>
+      </c>
+      <c r="AZ11" s="63">
+        <v>3.7336047931631</v>
+      </c>
+      <c r="BA11" s="63">
+        <v>45.399796363636</v>
+      </c>
+      <c r="BB11" s="63">
+        <v>1.3673319489451</v>
+      </c>
+      <c r="BC11" s="63">
+        <v>37.897564848485</v>
+      </c>
+      <c r="BD11" s="63">
+        <v>2.5504683710541</v>
+      </c>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="10"/>
@@ -2702,56 +2460,66 @@
         <v>30</v>
       </c>
       <c r="BM11" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="10"/>
-      <c r="BR11" s="10"/>
-      <c r="BS11" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN11" s="63">
+        <v>172.10905555556</v>
+      </c>
+      <c r="BO11" s="63">
+        <v>22.699973270011</v>
+      </c>
+      <c r="BP11" s="63">
+        <v>146.52387878788</v>
+      </c>
+      <c r="BQ11" s="63">
+        <v>4.2874724440862</v>
+      </c>
+      <c r="BR11" s="63">
+        <v>159.31646717172</v>
+      </c>
+      <c r="BS11" s="63">
+        <v>13.493722857049</v>
+      </c>
       <c r="BT11" s="10"/>
       <c r="BU11" s="10"/>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="10"/>
       <c r="BY11" s="10"/>
-      <c r="CA11" s="54" t="s">
+      <c r="CA11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="CB11" s="55"/>
-      <c r="CC11" s="55"/>
-      <c r="CD11" s="55"/>
-      <c r="CE11" s="55"/>
-      <c r="CF11" s="55"/>
-      <c r="CG11" s="55"/>
-      <c r="CH11" s="55"/>
-      <c r="CI11" s="55"/>
-      <c r="CJ11" s="55"/>
-      <c r="CK11" s="55"/>
-      <c r="CL11" s="55"/>
-      <c r="CM11" s="56"/>
+      <c r="CB11" s="54"/>
+      <c r="CC11" s="54"/>
+      <c r="CD11" s="54"/>
+      <c r="CE11" s="54"/>
+      <c r="CF11" s="54"/>
+      <c r="CG11" s="54"/>
+      <c r="CH11" s="54"/>
+      <c r="CI11" s="54"/>
+      <c r="CJ11" s="54"/>
+      <c r="CK11" s="54"/>
+      <c r="CL11" s="54"/>
+      <c r="CM11" s="55"/>
       <c r="CO11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CP11" s="64">
+      <c r="CP11" s="63">
         <v>3.1925722222222</v>
       </c>
-      <c r="CQ11" s="64">
+      <c r="CQ11" s="63">
         <v>0.27565630784712</v>
       </c>
-      <c r="CR11" s="64">
+      <c r="CR11" s="63">
         <v>2.165503030303</v>
       </c>
-      <c r="CS11" s="64">
+      <c r="CS11" s="63">
         <v>0.23290850544061</v>
       </c>
-      <c r="CT11" s="64">
+      <c r="CT11" s="63">
         <v>2.6790376262626</v>
       </c>
-      <c r="CU11" s="64">
+      <c r="CU11" s="63">
         <v>0.25428240664386</v>
       </c>
       <c r="CV11" s="10"/>
@@ -2764,24 +2532,24 @@
         <v>30</v>
       </c>
       <c r="DD11" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DE11" s="64">
+        <v>34</v>
+      </c>
+      <c r="DE11" s="63">
         <v>11.619111111111</v>
       </c>
-      <c r="DF11" s="64">
+      <c r="DF11" s="63">
         <v>2.5094722688819</v>
       </c>
-      <c r="DG11" s="64">
+      <c r="DG11" s="63">
         <v>39.836606060606</v>
       </c>
-      <c r="DH11" s="64">
+      <c r="DH11" s="63">
         <v>3.3203516637791</v>
       </c>
-      <c r="DI11" s="64">
+      <c r="DI11" s="63">
         <v>25.727858585859</v>
       </c>
-      <c r="DJ11" s="64">
+      <c r="DJ11" s="63">
         <v>2.9149119663305</v>
       </c>
       <c r="DK11" s="10"/>
@@ -2793,52 +2561,70 @@
     </row>
     <row r="12" spans="1:120">
       <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="63">
+        <v>0</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0</v>
+      </c>
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63">
+        <v>0</v>
+      </c>
+      <c r="H12" s="63">
+        <v>0</v>
+      </c>
       <c r="J12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0</v>
+      </c>
+      <c r="L12" s="63">
+        <v>0</v>
+      </c>
+      <c r="M12" s="63">
+        <v>0</v>
+      </c>
+      <c r="N12" s="63">
+        <v>0</v>
+      </c>
+      <c r="O12" s="63">
+        <v>0</v>
+      </c>
+      <c r="P12" s="63">
+        <v>0</v>
+      </c>
       <c r="R12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X12" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="S12" s="63">
+        <v>0</v>
+      </c>
+      <c r="T12" s="63">
+        <v>0</v>
+      </c>
+      <c r="U12" s="63">
+        <v>0</v>
+      </c>
+      <c r="V12" s="63">
+        <v>0</v>
+      </c>
+      <c r="W12" s="63">
+        <v>0</v>
+      </c>
+      <c r="X12" s="63">
+        <v>0</v>
+      </c>
       <c r="Z12" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -2847,7 +2633,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AH12" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
@@ -2856,7 +2642,7 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
       <c r="AP12" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
@@ -2865,16 +2651,26 @@
       <c r="AU12" s="10"/>
       <c r="AV12" s="10"/>
       <c r="AX12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="AY12" s="63">
+        <v>59.6636271809</v>
+      </c>
+      <c r="AZ12" s="63">
+        <v>0.25626181727602</v>
+      </c>
+      <c r="BA12" s="63">
+        <v>39.701456381057</v>
+      </c>
+      <c r="BB12" s="63">
+        <v>0.069040203650691</v>
+      </c>
+      <c r="BC12" s="63">
+        <v>49.682541780978</v>
+      </c>
+      <c r="BD12" s="63">
+        <v>0.16265101046336</v>
+      </c>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
@@ -2882,19 +2678,29 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
       <c r="BL12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BM12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="10"/>
-      <c r="BR12" s="10"/>
-      <c r="BS12" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN12" s="63">
+        <v>45.027892868075</v>
+      </c>
+      <c r="BO12" s="63">
+        <v>0.43013464489442</v>
+      </c>
+      <c r="BP12" s="63">
+        <v>47.340969431517</v>
+      </c>
+      <c r="BQ12" s="63">
+        <v>0.064436982330428</v>
+      </c>
+      <c r="BR12" s="63">
+        <v>46.184431149796</v>
+      </c>
+      <c r="BS12" s="63">
+        <v>0.24728581361242</v>
+      </c>
       <c r="BT12" s="10"/>
       <c r="BU12" s="10"/>
       <c r="BV12" s="10"/>
@@ -2902,16 +2708,26 @@
       <c r="BX12" s="10"/>
       <c r="BY12" s="10"/>
       <c r="CA12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="CC12" s="10"/>
-      <c r="CD12" s="10"/>
-      <c r="CE12" s="10"/>
-      <c r="CF12" s="10"/>
-      <c r="CG12" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB12" s="63">
+        <v>25263.486592869</v>
+      </c>
+      <c r="CC12" s="63">
+        <v>1.7869536851625</v>
+      </c>
+      <c r="CD12" s="63">
+        <v>51462.207343381</v>
+      </c>
+      <c r="CE12" s="63">
+        <v>1.6854602161456</v>
+      </c>
+      <c r="CF12" s="63">
+        <v>76814.159573672</v>
+      </c>
+      <c r="CG12" s="63">
+        <v>1.7195620217353</v>
+      </c>
       <c r="CH12" s="10"/>
       <c r="CI12" s="10"/>
       <c r="CJ12" s="10"/>
@@ -2919,24 +2735,24 @@
       <c r="CL12" s="10"/>
       <c r="CM12" s="10"/>
       <c r="CO12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP12" s="64">
+        <v>33</v>
+      </c>
+      <c r="CP12" s="63">
         <v>5.0254568411387</v>
       </c>
-      <c r="CQ12" s="64">
+      <c r="CQ12" s="63">
         <v>0.0061699169152455</v>
       </c>
-      <c r="CR12" s="64">
+      <c r="CR12" s="63">
         <v>2.9205556857378</v>
       </c>
-      <c r="CS12" s="64">
+      <c r="CS12" s="63">
         <v>0.0047830579233412</v>
       </c>
-      <c r="CT12" s="64">
+      <c r="CT12" s="63">
         <v>3.9730062634382</v>
       </c>
-      <c r="CU12" s="64">
+      <c r="CU12" s="63">
         <v>0.0054764874192933</v>
       </c>
       <c r="CV12" s="10"/>
@@ -2946,27 +2762,27 @@
       <c r="CZ12" s="10"/>
       <c r="DA12" s="10"/>
       <c r="DC12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="DD12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DE12" s="64">
+        <v>34</v>
+      </c>
+      <c r="DE12" s="63">
         <v>13.58191184573</v>
       </c>
-      <c r="DF12" s="64">
+      <c r="DF12" s="63">
         <v>0.014909436841232</v>
       </c>
-      <c r="DG12" s="64">
+      <c r="DG12" s="63">
         <v>27.492585761475</v>
       </c>
-      <c r="DH12" s="64">
+      <c r="DH12" s="63">
         <v>0.048633585257719</v>
       </c>
-      <c r="DI12" s="64">
+      <c r="DI12" s="63">
         <v>20.537248803602</v>
       </c>
-      <c r="DJ12" s="64">
+      <c r="DJ12" s="63">
         <v>0.031771511049476</v>
       </c>
       <c r="DK12" s="10"/>
@@ -2978,52 +2794,70 @@
     </row>
     <row r="13" spans="1:120">
       <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="C13" s="63">
+        <v>0</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
+      <c r="F13" s="63">
+        <v>0</v>
+      </c>
+      <c r="G13" s="63">
+        <v>0</v>
+      </c>
+      <c r="H13" s="63">
+        <v>0</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0</v>
+      </c>
+      <c r="L13" s="63">
+        <v>0</v>
+      </c>
+      <c r="M13" s="63">
+        <v>0</v>
+      </c>
+      <c r="N13" s="63">
+        <v>0</v>
+      </c>
+      <c r="O13" s="63">
+        <v>0</v>
+      </c>
+      <c r="P13" s="63">
+        <v>0</v>
+      </c>
       <c r="R13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="S13" s="63">
+        <v>0</v>
+      </c>
+      <c r="T13" s="63">
+        <v>0</v>
+      </c>
+      <c r="U13" s="63">
+        <v>0</v>
+      </c>
+      <c r="V13" s="63">
+        <v>0</v>
+      </c>
+      <c r="W13" s="63">
+        <v>0</v>
+      </c>
+      <c r="X13" s="63">
+        <v>0</v>
+      </c>
       <c r="Z13" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -3032,7 +2866,7 @@
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
       <c r="AH13" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
@@ -3041,7 +2875,7 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="10"/>
       <c r="AP13" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
@@ -3050,16 +2884,26 @@
       <c r="AU13" s="10"/>
       <c r="AV13" s="10"/>
       <c r="AX13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="AY13" s="63">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="63">
+        <v>0</v>
+      </c>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
@@ -3067,19 +2911,29 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
       <c r="BL13" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="BM13" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO13" s="10"/>
-      <c r="BP13" s="10"/>
-      <c r="BQ13" s="10"/>
-      <c r="BR13" s="10"/>
-      <c r="BS13" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="63">
+        <v>0</v>
+      </c>
       <c r="BT13" s="10"/>
       <c r="BU13" s="10"/>
       <c r="BV13" s="10"/>
@@ -3087,16 +2941,26 @@
       <c r="BX13" s="10"/>
       <c r="BY13" s="10"/>
       <c r="CA13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="CC13" s="10"/>
-      <c r="CD13" s="10"/>
-      <c r="CE13" s="10"/>
-      <c r="CF13" s="10"/>
-      <c r="CG13" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB13" s="63">
+        <v>10110.552569808</v>
+      </c>
+      <c r="CC13" s="63">
+        <v>0.71514630837801</v>
+      </c>
+      <c r="CD13" s="63">
+        <v>31237.121184583</v>
+      </c>
+      <c r="CE13" s="63">
+        <v>1.0230599840429</v>
+      </c>
+      <c r="CF13" s="63">
+        <v>41079.284272264</v>
+      </c>
+      <c r="CG13" s="63">
+        <v>0.91960098901952</v>
+      </c>
       <c r="CH13" s="10"/>
       <c r="CI13" s="10"/>
       <c r="CJ13" s="10"/>
@@ -3104,24 +2968,24 @@
       <c r="CL13" s="10"/>
       <c r="CM13" s="10"/>
       <c r="CO13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="CP13" s="64">
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="64">
-        <v>0</v>
-      </c>
-      <c r="CR13" s="64">
-        <v>0</v>
-      </c>
-      <c r="CS13" s="64">
-        <v>0</v>
-      </c>
-      <c r="CT13" s="64">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="64">
+        <v>35</v>
+      </c>
+      <c r="CP13" s="63">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="63">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="63">
         <v>0</v>
       </c>
       <c r="CV13" s="10"/>
@@ -3131,27 +2995,27 @@
       <c r="CZ13" s="10"/>
       <c r="DA13" s="10"/>
       <c r="DC13" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="DD13" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DE13" s="64">
-        <v>0</v>
-      </c>
-      <c r="DF13" s="64">
-        <v>0</v>
-      </c>
-      <c r="DG13" s="64">
-        <v>0</v>
-      </c>
-      <c r="DH13" s="64">
-        <v>0</v>
-      </c>
-      <c r="DI13" s="64">
-        <v>0</v>
-      </c>
-      <c r="DJ13" s="64">
+        <v>34</v>
+      </c>
+      <c r="DE13" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="63">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="63">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="63">
         <v>0</v>
       </c>
       <c r="DK13" s="10"/>
@@ -3163,52 +3027,70 @@
     </row>
     <row r="14" spans="1:120">
       <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="63">
+        <v>886090.24131755</v>
+      </c>
+      <c r="D14" s="63">
+        <v>19.836018974322</v>
+      </c>
+      <c r="E14" s="63">
+        <v>364471.47280702</v>
+      </c>
+      <c r="F14" s="63">
+        <v>8.1590595552084</v>
+      </c>
+      <c r="G14" s="63">
+        <v>0</v>
+      </c>
+      <c r="H14" s="63">
+        <v>0</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="K14" s="63">
+        <v>148328.93799075</v>
+      </c>
+      <c r="L14" s="63">
+        <v>10.491700794522</v>
+      </c>
+      <c r="M14" s="63">
+        <v>67412.280353155</v>
+      </c>
+      <c r="N14" s="63">
+        <v>4.7682501130418</v>
+      </c>
+      <c r="O14" s="63">
+        <v>0</v>
+      </c>
+      <c r="P14" s="63">
+        <v>0</v>
+      </c>
       <c r="R14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="S14" s="63">
+        <v>750027.67311221</v>
+      </c>
+      <c r="T14" s="63">
+        <v>24.564469137593</v>
+      </c>
+      <c r="U14" s="63">
+        <v>301510.33823991</v>
+      </c>
+      <c r="V14" s="63">
+        <v>9.8748908391963</v>
+      </c>
+      <c r="W14" s="63">
+        <v>0</v>
+      </c>
+      <c r="X14" s="63">
+        <v>0</v>
+      </c>
       <c r="Z14" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -3217,7 +3099,7 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
       <c r="AH14" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -3226,7 +3108,7 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
       <c r="AP14" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
@@ -3235,16 +3117,26 @@
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AX14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="AY14" s="63">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="63">
+        <v>0</v>
+      </c>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
@@ -3252,19 +3144,29 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
       <c r="BL14" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="BM14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO14" s="10"/>
-      <c r="BP14" s="10"/>
-      <c r="BQ14" s="10"/>
-      <c r="BR14" s="10"/>
-      <c r="BS14" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="BN14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="63">
+        <v>0</v>
+      </c>
       <c r="BT14" s="10"/>
       <c r="BU14" s="10"/>
       <c r="BV14" s="10"/>
@@ -3272,7 +3174,7 @@
       <c r="BX14" s="10"/>
       <c r="BY14" s="10"/>
       <c r="CA14" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="CB14" s="37"/>
       <c r="CC14" s="8"/>
@@ -3287,24 +3189,24 @@
       <c r="CL14" s="8"/>
       <c r="CM14" s="9"/>
       <c r="CO14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP14" s="64">
-        <v>0</v>
-      </c>
-      <c r="CQ14" s="64">
-        <v>0</v>
-      </c>
-      <c r="CR14" s="64">
-        <v>0</v>
-      </c>
-      <c r="CS14" s="64">
-        <v>0</v>
-      </c>
-      <c r="CT14" s="64">
-        <v>0</v>
-      </c>
-      <c r="CU14" s="64">
+        <v>37</v>
+      </c>
+      <c r="CP14" s="63">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT14" s="63">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="63">
         <v>0</v>
       </c>
       <c r="CV14" s="10"/>
@@ -3314,27 +3216,27 @@
       <c r="CZ14" s="10"/>
       <c r="DA14" s="10"/>
       <c r="DC14" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="DD14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DE14" s="64">
-        <v>0</v>
-      </c>
-      <c r="DF14" s="64">
-        <v>0</v>
-      </c>
-      <c r="DG14" s="64">
-        <v>0</v>
-      </c>
-      <c r="DH14" s="64">
-        <v>0</v>
-      </c>
-      <c r="DI14" s="64">
-        <v>0</v>
-      </c>
-      <c r="DJ14" s="64">
+        <v>34</v>
+      </c>
+      <c r="DE14" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF14" s="63">
+        <v>0</v>
+      </c>
+      <c r="DG14" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH14" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI14" s="63">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="63">
         <v>0</v>
       </c>
       <c r="DK14" s="10"/>
@@ -3346,52 +3248,70 @@
     </row>
     <row r="15" spans="1:120">
       <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="63">
+        <v>1006062.0272071</v>
+      </c>
+      <c r="D15" s="63">
+        <v>22.521707756708</v>
+      </c>
+      <c r="E15" s="63">
+        <v>838199.33070833</v>
+      </c>
+      <c r="F15" s="63">
+        <v>18.763932896351</v>
+      </c>
+      <c r="G15" s="63">
+        <v>0</v>
+      </c>
+      <c r="H15" s="63">
+        <v>0</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="63">
+        <v>399386.1687549</v>
+      </c>
+      <c r="L15" s="63">
+        <v>28.249647309605</v>
+      </c>
+      <c r="M15" s="63">
+        <v>424556.16781829</v>
+      </c>
+      <c r="N15" s="63">
+        <v>30.029988372844</v>
+      </c>
+      <c r="O15" s="63">
+        <v>0</v>
+      </c>
+      <c r="P15" s="63">
+        <v>0</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="S15" s="63">
+        <v>599156.74113274</v>
+      </c>
+      <c r="T15" s="63">
+        <v>19.623232320302</v>
+      </c>
+      <c r="U15" s="63">
+        <v>398854.11142169</v>
+      </c>
+      <c r="V15" s="63">
+        <v>13.063037354029</v>
+      </c>
+      <c r="W15" s="63">
+        <v>0</v>
+      </c>
+      <c r="X15" s="63">
+        <v>0</v>
+      </c>
       <c r="Z15" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -3400,7 +3320,7 @@
       <c r="AE15" s="10"/>
       <c r="AF15" s="10"/>
       <c r="AH15" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
@@ -3409,7 +3329,7 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="10"/>
       <c r="AP15" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
@@ -3418,16 +3338,26 @@
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AX15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="AY15" s="63">
+        <v>73.715580295567</v>
+      </c>
+      <c r="AZ15" s="63">
+        <v>0.51289752686565</v>
+      </c>
+      <c r="BA15" s="63">
+        <v>91.524911854103</v>
+      </c>
+      <c r="BB15" s="63">
+        <v>0.04722697824178</v>
+      </c>
+      <c r="BC15" s="63">
+        <v>82.620246074835</v>
+      </c>
+      <c r="BD15" s="63">
+        <v>0.28006225255371</v>
+      </c>
       <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
@@ -3435,19 +3365,29 @@
       <c r="BI15" s="10"/>
       <c r="BJ15" s="10"/>
       <c r="BL15" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="BM15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO15" s="10"/>
-      <c r="BP15" s="10"/>
-      <c r="BQ15" s="10"/>
-      <c r="BR15" s="10"/>
-      <c r="BS15" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="BN15" s="64">
+        <v>43.047135390612</v>
+      </c>
+      <c r="BO15" s="63">
+        <v>0.098409847395474</v>
+      </c>
+      <c r="BP15" s="63">
+        <v>87.052351741961</v>
+      </c>
+      <c r="BQ15" s="63">
+        <v>0.045740545755692</v>
+      </c>
+      <c r="BR15" s="63">
+        <v>65.049743566287</v>
+      </c>
+      <c r="BS15" s="63">
+        <v>0.072075196575583</v>
+      </c>
       <c r="BT15" s="10"/>
       <c r="BU15" s="10"/>
       <c r="BV15" s="10"/>
@@ -3455,16 +3395,26 @@
       <c r="BX15" s="10"/>
       <c r="BY15" s="10"/>
       <c r="CA15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="CC15" s="10"/>
-      <c r="CD15" s="10"/>
-      <c r="CE15" s="10"/>
-      <c r="CF15" s="10"/>
-      <c r="CG15" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB15" s="63">
+        <v>173556.96379658</v>
+      </c>
+      <c r="CC15" s="63">
+        <v>12.276146243783</v>
+      </c>
+      <c r="CD15" s="63">
+        <v>417295.52117328</v>
+      </c>
+      <c r="CE15" s="63">
+        <v>13.667019656198</v>
+      </c>
+      <c r="CF15" s="63">
+        <v>589640.14584898</v>
+      </c>
+      <c r="CG15" s="63">
+        <v>13.199686189626</v>
+      </c>
       <c r="CH15" s="10"/>
       <c r="CI15" s="10"/>
       <c r="CJ15" s="10"/>
@@ -3472,24 +3422,24 @@
       <c r="CL15" s="10"/>
       <c r="CM15" s="10"/>
       <c r="CO15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="CP15" s="64">
+        <v>39</v>
+      </c>
+      <c r="CP15" s="63">
         <v>14.108511162228</v>
       </c>
-      <c r="CQ15" s="64">
+      <c r="CQ15" s="63">
         <v>0.28525769746262</v>
       </c>
-      <c r="CR15" s="64">
+      <c r="CR15" s="63">
         <v>6.9130984802432</v>
       </c>
-      <c r="CS15" s="64">
+      <c r="CS15" s="63">
         <v>0.016965494196325</v>
       </c>
-      <c r="CT15" s="64">
+      <c r="CT15" s="63">
         <v>10.510804821235</v>
       </c>
-      <c r="CU15" s="64">
+      <c r="CU15" s="63">
         <v>0.15111159582947</v>
       </c>
       <c r="CV15" s="10"/>
@@ -3499,27 +3449,27 @@
       <c r="CZ15" s="10"/>
       <c r="DA15" s="10"/>
       <c r="DC15" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="DD15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE15" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE15" s="63">
         <v>32.602869975787</v>
       </c>
-      <c r="DF15" s="64">
+      <c r="DF15" s="63">
         <v>0.014243813291625</v>
       </c>
-      <c r="DG15" s="64">
+      <c r="DG15" s="63">
         <v>33.896661155015</v>
       </c>
-      <c r="DH15" s="64">
+      <c r="DH15" s="63">
         <v>0.0062152403034936</v>
       </c>
-      <c r="DI15" s="64">
+      <c r="DI15" s="63">
         <v>33.249765565401</v>
       </c>
-      <c r="DJ15" s="64">
+      <c r="DJ15" s="63">
         <v>0.010229526797559</v>
       </c>
       <c r="DK15" s="10"/>
@@ -3531,52 +3481,70 @@
     </row>
     <row r="16" spans="1:120">
       <c r="B16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="63">
+        <v>580722.52912642</v>
+      </c>
+      <c r="D16" s="63">
+        <v>13.000056393172</v>
+      </c>
+      <c r="E16" s="63">
+        <v>382497.86564323</v>
+      </c>
+      <c r="F16" s="63">
+        <v>8.5625984428572</v>
+      </c>
+      <c r="G16" s="63">
+        <v>0</v>
+      </c>
+      <c r="H16" s="63">
+        <v>0</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="K16" s="63">
+        <v>160094.49471501</v>
+      </c>
+      <c r="L16" s="63">
+        <v>11.323909954137</v>
+      </c>
+      <c r="M16" s="63">
+        <v>156720.01224785</v>
+      </c>
+      <c r="N16" s="63">
+        <v>11.08522382275</v>
+      </c>
+      <c r="O16" s="63">
+        <v>0</v>
+      </c>
+      <c r="P16" s="63">
+        <v>0</v>
+      </c>
       <c r="R16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="X16" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="S16" s="63">
+        <v>422828.32678589</v>
+      </c>
+      <c r="T16" s="63">
+        <v>13.848226880395</v>
+      </c>
+      <c r="U16" s="63">
+        <v>222466.38056832</v>
+      </c>
+      <c r="V16" s="63">
+        <v>7.2860892144774</v>
+      </c>
+      <c r="W16" s="63">
+        <v>0</v>
+      </c>
+      <c r="X16" s="63">
+        <v>0</v>
+      </c>
       <c r="Z16" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3585,7 +3553,7 @@
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
       <c r="AH16" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
@@ -3594,7 +3562,7 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
       <c r="AP16" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
@@ -3603,16 +3571,26 @@
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AX16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="AY16" s="63">
+        <v>97.897981897147</v>
+      </c>
+      <c r="AZ16" s="63">
+        <v>0.12048136780989</v>
+      </c>
+      <c r="BA16" s="63">
+        <v>95.517805714286</v>
+      </c>
+      <c r="BB16" s="63">
+        <v>0.063329251748347</v>
+      </c>
+      <c r="BC16" s="63">
+        <v>96.707893805716</v>
+      </c>
+      <c r="BD16" s="63">
+        <v>0.091905309779116</v>
+      </c>
       <c r="BE16" s="11"/>
       <c r="BF16" s="11"/>
       <c r="BG16" s="11"/>
@@ -3620,19 +3598,29 @@
       <c r="BI16" s="11"/>
       <c r="BJ16" s="11"/>
       <c r="BL16" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="BM16" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="BN16" s="63">
+        <v>272.56936755951</v>
+      </c>
+      <c r="BO16" s="63">
+        <v>0.24743462032838</v>
+      </c>
+      <c r="BP16" s="63">
+        <v>131.79088053288</v>
+      </c>
+      <c r="BQ16" s="63">
+        <v>0.063383127550856</v>
+      </c>
+      <c r="BR16" s="63">
+        <v>202.1801240462</v>
+      </c>
+      <c r="BS16" s="63">
+        <v>0.15540887393962</v>
+      </c>
       <c r="BT16" s="10"/>
       <c r="BU16" s="10"/>
       <c r="BV16" s="10"/>
@@ -3640,16 +3628,26 @@
       <c r="BX16" s="10"/>
       <c r="BY16" s="10"/>
       <c r="CA16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC16" s="10"/>
-      <c r="CD16" s="10"/>
-      <c r="CE16" s="10"/>
-      <c r="CF16" s="10"/>
-      <c r="CG16" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB16" s="63">
+        <v>166875.69672844</v>
+      </c>
+      <c r="CC16" s="63">
+        <v>11.803562431367</v>
+      </c>
+      <c r="CD16" s="63">
+        <v>457774.39502629</v>
+      </c>
+      <c r="CE16" s="63">
+        <v>14.99276013636</v>
+      </c>
+      <c r="CF16" s="63">
+        <v>621870.26354933</v>
+      </c>
+      <c r="CG16" s="63">
+        <v>13.921189707483</v>
+      </c>
       <c r="CH16" s="10"/>
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
@@ -3657,24 +3655,24 @@
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CO16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="CP16" s="64">
+        <v>40</v>
+      </c>
+      <c r="CP16" s="63">
         <v>7.2519052578545</v>
       </c>
-      <c r="CQ16" s="64">
+      <c r="CQ16" s="63">
         <v>0.027624620335876</v>
       </c>
-      <c r="CR16" s="64">
+      <c r="CR16" s="63">
         <v>9.5030891195335</v>
       </c>
-      <c r="CS16" s="64">
+      <c r="CS16" s="63">
         <v>0.017685368260664</v>
       </c>
-      <c r="CT16" s="64">
+      <c r="CT16" s="63">
         <v>8.377497188694</v>
       </c>
-      <c r="CU16" s="64">
+      <c r="CU16" s="63">
         <v>0.02265499429827</v>
       </c>
       <c r="CV16" s="10"/>
@@ -3684,27 +3682,27 @@
       <c r="CZ16" s="10"/>
       <c r="DA16" s="10"/>
       <c r="DC16" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="DD16" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE16" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE16" s="63">
         <v>25.75524507789</v>
       </c>
-      <c r="DF16" s="64">
+      <c r="DF16" s="63">
         <v>0.0050589151450254</v>
       </c>
-      <c r="DG16" s="64">
+      <c r="DG16" s="63">
         <v>27.142109854227</v>
       </c>
-      <c r="DH16" s="64">
+      <c r="DH16" s="63">
         <v>0.0058080725711521</v>
       </c>
-      <c r="DI16" s="64">
+      <c r="DI16" s="63">
         <v>26.448677466059</v>
       </c>
-      <c r="DJ16" s="64">
+      <c r="DJ16" s="63">
         <v>0.0054334938580887</v>
       </c>
       <c r="DK16" s="10"/>
@@ -3716,52 +3714,70 @@
     </row>
     <row r="17" spans="1:120">
       <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="63">
+        <v>25032.425088148</v>
+      </c>
+      <c r="D17" s="63">
+        <v>0.56037594803375</v>
+      </c>
+      <c r="E17" s="63">
+        <v>60771.961547815</v>
+      </c>
+      <c r="F17" s="63">
+        <v>1.3604413254532</v>
+      </c>
+      <c r="G17" s="63">
+        <v>0</v>
+      </c>
+      <c r="H17" s="63">
+        <v>0</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="K17" s="63">
+        <v>20214.65772379</v>
+      </c>
+      <c r="L17" s="63">
+        <v>1.4298365738647</v>
+      </c>
+      <c r="M17" s="63">
+        <v>28650.863891674</v>
+      </c>
+      <c r="N17" s="63">
+        <v>2.0265519023319</v>
+      </c>
+      <c r="O17" s="63">
+        <v>0</v>
+      </c>
+      <c r="P17" s="63">
+        <v>0</v>
+      </c>
       <c r="R17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="S17" s="63">
+        <v>3676.4186490114</v>
+      </c>
+      <c r="T17" s="63">
+        <v>0.12040792050482</v>
+      </c>
+      <c r="U17" s="63">
+        <v>31246.688363055</v>
+      </c>
+      <c r="V17" s="63">
+        <v>1.0233733226953</v>
+      </c>
+      <c r="W17" s="63">
+        <v>0</v>
+      </c>
+      <c r="X17" s="63">
+        <v>0</v>
+      </c>
       <c r="Z17" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -3770,7 +3786,7 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AH17" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
@@ -3779,7 +3795,7 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="10"/>
       <c r="AP17" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="10"/>
@@ -3788,16 +3804,26 @@
       <c r="AU17" s="10"/>
       <c r="AV17" s="10"/>
       <c r="AX17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="AY17" s="63">
+        <v>129.10866650462</v>
+      </c>
+      <c r="AZ17" s="63">
+        <v>1.531244960864</v>
+      </c>
+      <c r="BA17" s="63">
+        <v>88.349669790916</v>
+      </c>
+      <c r="BB17" s="63">
+        <v>0.072870502458348</v>
+      </c>
+      <c r="BC17" s="63">
+        <v>108.72916814777</v>
+      </c>
+      <c r="BD17" s="63">
+        <v>0.80205773166115</v>
+      </c>
       <c r="BE17" s="11"/>
       <c r="BF17" s="11"/>
       <c r="BG17" s="11"/>
@@ -3805,19 +3831,29 @@
       <c r="BI17" s="11"/>
       <c r="BJ17" s="11"/>
       <c r="BL17" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="BM17" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10"/>
-      <c r="BR17" s="10"/>
-      <c r="BS17" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="BN17" s="63">
+        <v>110.35811375556</v>
+      </c>
+      <c r="BO17" s="63">
+        <v>0.28494005441573</v>
+      </c>
+      <c r="BP17" s="63">
+        <v>56.243007558483</v>
+      </c>
+      <c r="BQ17" s="63">
+        <v>0.022465713826341</v>
+      </c>
+      <c r="BR17" s="63">
+        <v>83.300560657021</v>
+      </c>
+      <c r="BS17" s="63">
+        <v>0.15370288412104</v>
+      </c>
       <c r="BT17" s="10"/>
       <c r="BU17" s="10"/>
       <c r="BV17" s="10"/>
@@ -3825,7 +3861,7 @@
       <c r="BX17" s="10"/>
       <c r="BY17" s="10"/>
       <c r="CA17" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="CB17" s="37"/>
       <c r="CC17" s="8"/>
@@ -3840,24 +3876,24 @@
       <c r="CL17" s="8"/>
       <c r="CM17" s="9"/>
       <c r="CO17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="CP17" s="64">
+        <v>42</v>
+      </c>
+      <c r="CP17" s="63">
         <v>6.6004479217307</v>
       </c>
-      <c r="CQ17" s="64">
+      <c r="CQ17" s="63">
         <v>0.13108360563212</v>
       </c>
-      <c r="CR17" s="64">
+      <c r="CR17" s="63">
         <v>7.5621205067463</v>
       </c>
-      <c r="CS17" s="64">
+      <c r="CS17" s="63">
         <v>0.015662443722735</v>
       </c>
-      <c r="CT17" s="64">
+      <c r="CT17" s="63">
         <v>7.0812842142385</v>
       </c>
-      <c r="CU17" s="64">
+      <c r="CU17" s="63">
         <v>0.073373024677426</v>
       </c>
       <c r="CV17" s="10"/>
@@ -3867,27 +3903,27 @@
       <c r="CZ17" s="10"/>
       <c r="DA17" s="10"/>
       <c r="DC17" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="DD17" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE17" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE17" s="63">
         <v>27.499939353427</v>
       </c>
-      <c r="DF17" s="64">
+      <c r="DF17" s="63">
         <v>0.0053461826140021</v>
       </c>
-      <c r="DG17" s="64">
+      <c r="DG17" s="63">
         <v>28.945639990387</v>
       </c>
-      <c r="DH17" s="64">
+      <c r="DH17" s="63">
         <v>0.0034003129081996</v>
       </c>
-      <c r="DI17" s="64">
+      <c r="DI17" s="63">
         <v>28.222789671907</v>
       </c>
-      <c r="DJ17" s="64">
+      <c r="DJ17" s="63">
         <v>0.0043732477611008</v>
       </c>
       <c r="DK17" s="10"/>
@@ -3899,52 +3935,70 @@
     </row>
     <row r="18" spans="1:120">
       <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="63">
+        <v>5358.1290709941</v>
+      </c>
+      <c r="D18" s="63">
+        <v>0.11994709450932</v>
+      </c>
+      <c r="E18" s="63">
+        <v>5361.1680657434</v>
+      </c>
+      <c r="F18" s="63">
+        <v>0.12001512545549</v>
+      </c>
+      <c r="G18" s="63">
+        <v>0</v>
+      </c>
+      <c r="H18" s="63">
+        <v>0</v>
+      </c>
       <c r="J18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="K18" s="63">
+        <v>0</v>
+      </c>
+      <c r="L18" s="63">
+        <v>0</v>
+      </c>
+      <c r="M18" s="63">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="N18" s="63">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="O18" s="63">
+        <v>0</v>
+      </c>
+      <c r="P18" s="63">
+        <v>0</v>
+      </c>
       <c r="R18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="X18" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="S18" s="63">
+        <v>5515.5846913643</v>
+      </c>
+      <c r="T18" s="63">
+        <v>0.18064321462247</v>
+      </c>
+      <c r="U18" s="63">
+        <v>3678.3320847059</v>
+      </c>
+      <c r="V18" s="63">
+        <v>0.12047058823529</v>
+      </c>
+      <c r="W18" s="63">
+        <v>0</v>
+      </c>
+      <c r="X18" s="63">
+        <v>0</v>
+      </c>
       <c r="Z18" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -3953,7 +4007,7 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AH18" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
@@ -3962,7 +4016,7 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
       <c r="AP18" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="10"/>
@@ -3971,16 +4025,26 @@
       <c r="AU18" s="10"/>
       <c r="AV18" s="10"/>
       <c r="AX18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="AY18" s="63">
+        <v>51.3766</v>
+      </c>
+      <c r="AZ18" s="63">
+        <v>0.89999952185688</v>
+      </c>
+      <c r="BA18" s="63">
+        <v>41.620363636364</v>
+      </c>
+      <c r="BB18" s="63">
+        <v>3.1079697473725</v>
+      </c>
+      <c r="BC18" s="63">
+        <v>46.498481818182</v>
+      </c>
+      <c r="BD18" s="63">
+        <v>2.0039846346147</v>
+      </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11"/>
       <c r="BG18" s="11"/>
@@ -3988,19 +4052,29 @@
       <c r="BI18" s="11"/>
       <c r="BJ18" s="11"/>
       <c r="BL18" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="BM18" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO18" s="10"/>
-      <c r="BP18" s="10"/>
-      <c r="BQ18" s="10"/>
-      <c r="BR18" s="10"/>
-      <c r="BS18" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="BN18" s="63">
+        <v>35.925122836911</v>
+      </c>
+      <c r="BO18" s="63">
+        <v>0.027599003614305</v>
+      </c>
+      <c r="BP18" s="63">
+        <v>13.194840492502</v>
+      </c>
+      <c r="BQ18" s="63">
+        <v>0.0047181568297228</v>
+      </c>
+      <c r="BR18" s="63">
+        <v>24.559981664707</v>
+      </c>
+      <c r="BS18" s="63">
+        <v>0.016158580222014</v>
+      </c>
       <c r="BT18" s="10"/>
       <c r="BU18" s="10"/>
       <c r="BV18" s="10"/>
@@ -4008,16 +4082,26 @@
       <c r="BX18" s="10"/>
       <c r="BY18" s="10"/>
       <c r="CA18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC18" s="10"/>
-      <c r="CD18" s="10"/>
-      <c r="CE18" s="10"/>
-      <c r="CF18" s="10"/>
-      <c r="CG18" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB18" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="63">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="63">
+        <v>0</v>
+      </c>
       <c r="CH18" s="10"/>
       <c r="CI18" s="10"/>
       <c r="CJ18" s="10"/>
@@ -4025,24 +4109,24 @@
       <c r="CL18" s="10"/>
       <c r="CM18" s="10"/>
       <c r="CO18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CP18" s="64">
+        <v>43</v>
+      </c>
+      <c r="CP18" s="63">
         <v>2.4583</v>
       </c>
-      <c r="CQ18" s="64">
+      <c r="CQ18" s="63">
         <v>0.079634270953557</v>
       </c>
-      <c r="CR18" s="64">
+      <c r="CR18" s="63">
         <v>10.766036363636</v>
       </c>
-      <c r="CS18" s="64">
+      <c r="CS18" s="63">
         <v>2.9866240653801</v>
       </c>
-      <c r="CT18" s="64">
+      <c r="CT18" s="63">
         <v>6.6121681818182</v>
       </c>
-      <c r="CU18" s="64">
+      <c r="CU18" s="63">
         <v>1.5331291681668</v>
       </c>
       <c r="CV18" s="10"/>
@@ -4052,27 +4136,27 @@
       <c r="CZ18" s="10"/>
       <c r="DA18" s="10"/>
       <c r="DC18" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="DD18" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE18" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE18" s="63">
         <v>21.4872</v>
       </c>
-      <c r="DF18" s="64">
+      <c r="DF18" s="63">
         <v>0.18941611603321</v>
       </c>
-      <c r="DG18" s="64">
+      <c r="DG18" s="63">
         <v>22.221818181818</v>
       </c>
-      <c r="DH18" s="64">
+      <c r="DH18" s="63">
         <v>0.080113683475766</v>
       </c>
-      <c r="DI18" s="64">
+      <c r="DI18" s="63">
         <v>21.854509090909</v>
       </c>
-      <c r="DJ18" s="64">
+      <c r="DJ18" s="63">
         <v>0.13476489975449</v>
       </c>
       <c r="DK18" s="10"/>
@@ -4084,52 +4168,70 @@
     </row>
     <row r="19" spans="1:120">
       <c r="B19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="63">
+        <v>664716.05831853</v>
+      </c>
+      <c r="D19" s="63">
+        <v>14.880335806133</v>
+      </c>
+      <c r="E19" s="63">
+        <v>757644.99789052</v>
+      </c>
+      <c r="F19" s="63">
+        <v>16.960643344418</v>
+      </c>
+      <c r="G19" s="63">
+        <v>0</v>
+      </c>
+      <c r="H19" s="63">
+        <v>0</v>
+      </c>
       <c r="J19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="K19" s="63">
+        <v>203930.52970887</v>
+      </c>
+      <c r="L19" s="63">
+        <v>14.42454944771</v>
+      </c>
+      <c r="M19" s="63">
+        <v>224129.06889309</v>
+      </c>
+      <c r="N19" s="63">
+        <v>15.853245914347</v>
+      </c>
+      <c r="O19" s="63">
+        <v>0</v>
+      </c>
+      <c r="P19" s="63">
+        <v>0</v>
+      </c>
       <c r="R19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="X19" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="S19" s="63">
+        <v>461383.843426</v>
+      </c>
+      <c r="T19" s="63">
+        <v>15.110974686299</v>
+      </c>
+      <c r="U19" s="63">
+        <v>534969.61947706</v>
+      </c>
+      <c r="V19" s="63">
+        <v>17.521013128309</v>
+      </c>
+      <c r="W19" s="63">
+        <v>0</v>
+      </c>
+      <c r="X19" s="63">
+        <v>0</v>
+      </c>
       <c r="Z19" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4138,7 +4240,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AH19" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -4147,7 +4249,7 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="10"/>
       <c r="AP19" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
@@ -4156,16 +4258,26 @@
       <c r="AU19" s="10"/>
       <c r="AV19" s="10"/>
       <c r="AX19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="AY19" s="63">
+        <v>16.152</v>
+      </c>
+      <c r="AZ19" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="63">
+        <v>49.536</v>
+      </c>
+      <c r="BB19" s="63">
+        <v>5.0079403617322</v>
+      </c>
+      <c r="BC19" s="63">
+        <v>32.844</v>
+      </c>
+      <c r="BD19" s="63">
+        <v>2.5039701808661</v>
+      </c>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11"/>
       <c r="BG19" s="11"/>
@@ -4173,19 +4285,29 @@
       <c r="BI19" s="11"/>
       <c r="BJ19" s="11"/>
       <c r="BL19" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="BM19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO19" s="10"/>
-      <c r="BP19" s="10"/>
-      <c r="BQ19" s="10"/>
-      <c r="BR19" s="10"/>
-      <c r="BS19" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="BN19" s="63">
+        <v>1.1435044247788</v>
+      </c>
+      <c r="BO19" s="63">
+        <v>0.0014290946182487</v>
+      </c>
+      <c r="BP19" s="63">
+        <v>3.3185438689595</v>
+      </c>
+      <c r="BQ19" s="63">
+        <v>0.0062548175697622</v>
+      </c>
+      <c r="BR19" s="63">
+        <v>2.2310241468691</v>
+      </c>
+      <c r="BS19" s="63">
+        <v>0.0038419560940054</v>
+      </c>
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
       <c r="BV19" s="11"/>
@@ -4193,16 +4315,26 @@
       <c r="BX19" s="11"/>
       <c r="BY19" s="11"/>
       <c r="CA19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC19" s="10"/>
-      <c r="CD19" s="10"/>
-      <c r="CE19" s="10"/>
-      <c r="CF19" s="10"/>
-      <c r="CG19" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB19" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="63">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="63">
+        <v>0</v>
+      </c>
       <c r="CH19" s="10"/>
       <c r="CI19" s="10"/>
       <c r="CJ19" s="10"/>
@@ -4210,24 +4342,24 @@
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
       <c r="CO19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CP19" s="64">
+        <v>44</v>
+      </c>
+      <c r="CP19" s="63">
         <v>2.019</v>
       </c>
-      <c r="CQ19" s="64">
-        <v>0</v>
-      </c>
-      <c r="CR19" s="64">
+      <c r="CQ19" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="63">
         <v>3.664</v>
       </c>
-      <c r="CS19" s="64">
+      <c r="CS19" s="63">
         <v>0.64456703814783</v>
       </c>
-      <c r="CT19" s="64">
+      <c r="CT19" s="63">
         <v>2.8415</v>
       </c>
-      <c r="CU19" s="64">
+      <c r="CU19" s="63">
         <v>0.32228351907392</v>
       </c>
       <c r="CV19" s="10"/>
@@ -4237,27 +4369,27 @@
       <c r="CZ19" s="10"/>
       <c r="DA19" s="10"/>
       <c r="DC19" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="DD19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE19" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE19" s="63">
         <v>13.46</v>
       </c>
-      <c r="DF19" s="64">
-        <v>0</v>
-      </c>
-      <c r="DG19" s="64">
+      <c r="DF19" s="63">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="63">
         <v>22.304</v>
       </c>
-      <c r="DH19" s="64">
+      <c r="DH19" s="63">
         <v>2.2633177875427</v>
       </c>
-      <c r="DI19" s="64">
+      <c r="DI19" s="63">
         <v>17.882</v>
       </c>
-      <c r="DJ19" s="64">
+      <c r="DJ19" s="63">
         <v>1.1316588937714</v>
       </c>
       <c r="DK19" s="10"/>
@@ -4269,52 +4401,70 @@
     </row>
     <row r="20" spans="1:120">
       <c r="B20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="63">
+        <v>1791.2652705985</v>
+      </c>
+      <c r="D20" s="63">
+        <v>0.040099270072993</v>
+      </c>
+      <c r="E20" s="63">
+        <v>3577.927898288</v>
+      </c>
+      <c r="F20" s="63">
+        <v>0.08009550536711</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0</v>
+      </c>
+      <c r="H20" s="63">
+        <v>0</v>
+      </c>
       <c r="J20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="K20" s="63">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="L20" s="63">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="M20" s="63">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="N20" s="63">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="O20" s="63">
+        <v>0</v>
+      </c>
+      <c r="P20" s="63">
+        <v>0</v>
+      </c>
       <c r="R20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="X20" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="S20" s="63">
+        <v>0</v>
+      </c>
+      <c r="T20" s="63">
+        <v>0</v>
+      </c>
+      <c r="U20" s="63">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="V20" s="63">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="W20" s="63">
+        <v>0</v>
+      </c>
+      <c r="X20" s="63">
+        <v>0</v>
+      </c>
       <c r="Z20" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -4323,7 +4473,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AH20" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -4332,7 +4482,7 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
       <c r="AP20" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
@@ -4341,16 +4491,26 @@
       <c r="AU20" s="10"/>
       <c r="AV20" s="10"/>
       <c r="AX20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="AY20" s="63">
+        <v>105.06704254777</v>
+      </c>
+      <c r="AZ20" s="63">
+        <v>0.31739317307107</v>
+      </c>
+      <c r="BA20" s="63">
+        <v>50.053774367916</v>
+      </c>
+      <c r="BB20" s="63">
+        <v>0.0076934879684228</v>
+      </c>
+      <c r="BC20" s="63">
+        <v>77.560408457844</v>
+      </c>
+      <c r="BD20" s="63">
+        <v>0.16254333051975</v>
+      </c>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11"/>
       <c r="BG20" s="11"/>
@@ -4358,19 +4518,29 @@
       <c r="BI20" s="11"/>
       <c r="BJ20" s="11"/>
       <c r="BL20" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="BM20" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO20" s="10"/>
-      <c r="BP20" s="10"/>
-      <c r="BQ20" s="10"/>
-      <c r="BR20" s="10"/>
-      <c r="BS20" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="BN20" s="63">
+        <v>471.4130771878</v>
+      </c>
+      <c r="BO20" s="63">
+        <v>0.83898262040771</v>
+      </c>
+      <c r="BP20" s="63">
+        <v>553.5882469678</v>
+      </c>
+      <c r="BQ20" s="63">
+        <v>0.70816327231443</v>
+      </c>
+      <c r="BR20" s="63">
+        <v>512.5006620778</v>
+      </c>
+      <c r="BS20" s="63">
+        <v>0.77357294636107</v>
+      </c>
       <c r="BT20" s="11"/>
       <c r="BU20" s="11"/>
       <c r="BV20" s="11"/>
@@ -4378,7 +4548,7 @@
       <c r="BX20" s="11"/>
       <c r="BY20" s="11"/>
       <c r="CA20" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="CB20" s="37"/>
       <c r="CC20" s="8"/>
@@ -4393,24 +4563,24 @@
       <c r="CL20" s="8"/>
       <c r="CM20" s="9"/>
       <c r="CO20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CP20" s="64">
+        <v>45</v>
+      </c>
+      <c r="CP20" s="63">
         <v>13.022028496815</v>
       </c>
-      <c r="CQ20" s="64">
+      <c r="CQ20" s="63">
         <v>0.11138180946499</v>
       </c>
-      <c r="CR20" s="64">
+      <c r="CR20" s="63">
         <v>11.410854925894</v>
       </c>
-      <c r="CS20" s="64">
+      <c r="CS20" s="63">
         <v>0.013745928075019</v>
       </c>
-      <c r="CT20" s="64">
+      <c r="CT20" s="63">
         <v>12.216441711354</v>
       </c>
-      <c r="CU20" s="64">
+      <c r="CU20" s="63">
         <v>0.062563868770002</v>
       </c>
       <c r="CV20" s="10"/>
@@ -4420,27 +4590,27 @@
       <c r="CZ20" s="10"/>
       <c r="DA20" s="10"/>
       <c r="DC20" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="DD20" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE20" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE20" s="63">
         <v>25.337222057325</v>
       </c>
-      <c r="DF20" s="64">
+      <c r="DF20" s="63">
         <v>0.0058624497902395</v>
       </c>
-      <c r="DG20" s="64">
+      <c r="DG20" s="63">
         <v>25.58661255449</v>
       </c>
-      <c r="DH20" s="64">
+      <c r="DH20" s="63">
         <v>0.0034454321615896</v>
       </c>
-      <c r="DI20" s="64">
+      <c r="DI20" s="63">
         <v>25.461917305907</v>
       </c>
-      <c r="DJ20" s="64">
+      <c r="DJ20" s="63">
         <v>0.0046539409759145</v>
       </c>
       <c r="DK20" s="10"/>
@@ -4452,52 +4622,70 @@
     </row>
     <row r="21" spans="1:120">
       <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="63">
+        <v>16093.771577932</v>
+      </c>
+      <c r="D21" s="63">
+        <v>0.36027522198368</v>
+      </c>
+      <c r="E21" s="63">
+        <v>21466.623382636</v>
+      </c>
+      <c r="F21" s="63">
+        <v>0.48055189965688</v>
+      </c>
+      <c r="G21" s="63">
+        <v>0</v>
+      </c>
+      <c r="H21" s="63">
+        <v>0</v>
+      </c>
       <c r="J21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="K21" s="63">
+        <v>5061.7237007299</v>
+      </c>
+      <c r="L21" s="63">
+        <v>0.35802919708029</v>
+      </c>
+      <c r="M21" s="63">
+        <v>18537.087613953</v>
+      </c>
+      <c r="N21" s="63">
+        <v>1.3111775725082</v>
+      </c>
+      <c r="O21" s="63">
+        <v>0</v>
+      </c>
+      <c r="P21" s="63">
+        <v>0</v>
+      </c>
       <c r="R21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X21" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="S21" s="63">
+        <v>11034.996254118</v>
+      </c>
+      <c r="T21" s="63">
+        <v>0.36141176470588</v>
+      </c>
+      <c r="U21" s="63">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="V21" s="63">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="W21" s="63">
+        <v>0</v>
+      </c>
+      <c r="X21" s="63">
+        <v>0</v>
+      </c>
       <c r="Z21" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -4506,7 +4694,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AH21" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -4515,7 +4703,7 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
       <c r="AP21" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -4524,16 +4712,26 @@
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
       <c r="AX21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY21" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="AY21" s="63">
+        <v>23.544</v>
+      </c>
+      <c r="AZ21" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="63">
+        <v>24.576</v>
+      </c>
+      <c r="BB21" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="63">
+        <v>24.06</v>
+      </c>
+      <c r="BD21" s="63">
+        <v>0</v>
+      </c>
       <c r="BE21" s="11"/>
       <c r="BF21" s="11"/>
       <c r="BG21" s="11"/>
@@ -4541,19 +4739,29 @@
       <c r="BI21" s="11"/>
       <c r="BJ21" s="11"/>
       <c r="BL21" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="BM21" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO21" s="10"/>
-      <c r="BP21" s="10"/>
-      <c r="BQ21" s="10"/>
-      <c r="BR21" s="10"/>
-      <c r="BS21" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="BN21" s="63">
+        <v>3.5816354199477</v>
+      </c>
+      <c r="BO21" s="63">
+        <v>0.038942115416921</v>
+      </c>
+      <c r="BP21" s="63">
+        <v>0.48188235294118</v>
+      </c>
+      <c r="BQ21" s="63">
+        <v>0.0009594646357999</v>
+      </c>
+      <c r="BR21" s="63">
+        <v>2.0317588864444</v>
+      </c>
+      <c r="BS21" s="63">
+        <v>0.01995079002636</v>
+      </c>
       <c r="BT21" s="11"/>
       <c r="BU21" s="11"/>
       <c r="BV21" s="11"/>
@@ -4561,16 +4769,26 @@
       <c r="BX21" s="11"/>
       <c r="BY21" s="11"/>
       <c r="CA21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CC21" s="10"/>
-      <c r="CD21" s="10"/>
-      <c r="CE21" s="10"/>
-      <c r="CF21" s="10"/>
-      <c r="CG21" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB21" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="63">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="CE21" s="63">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="CF21" s="63">
+        <v>1786.6626276894</v>
+      </c>
+      <c r="CG21" s="63">
+        <v>0.039996235294118</v>
+      </c>
       <c r="CH21" s="10"/>
       <c r="CI21" s="10"/>
       <c r="CJ21" s="10"/>
@@ -4578,24 +4796,24 @@
       <c r="CL21" s="10"/>
       <c r="CM21" s="10"/>
       <c r="CO21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CP21" s="64">
+        <v>46</v>
+      </c>
+      <c r="CP21" s="63">
         <v>0.4905</v>
       </c>
-      <c r="CQ21" s="64">
-        <v>0</v>
-      </c>
-      <c r="CR21" s="64">
+      <c r="CQ21" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="63">
         <v>1.024</v>
       </c>
-      <c r="CS21" s="64">
-        <v>0</v>
-      </c>
-      <c r="CT21" s="64">
+      <c r="CS21" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT21" s="63">
         <v>0.75725</v>
       </c>
-      <c r="CU21" s="64">
+      <c r="CU21" s="63">
         <v>0</v>
       </c>
       <c r="CV21" s="10"/>
@@ -4605,27 +4823,27 @@
       <c r="CZ21" s="10"/>
       <c r="DA21" s="10"/>
       <c r="DC21" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="DD21" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="DE21" s="64">
+        <v>41</v>
+      </c>
+      <c r="DE21" s="63">
         <v>4.576365</v>
       </c>
-      <c r="DF21" s="64">
-        <v>0</v>
-      </c>
-      <c r="DG21" s="64">
+      <c r="DF21" s="63">
+        <v>0</v>
+      </c>
+      <c r="DG21" s="63">
         <v>9.216</v>
       </c>
-      <c r="DH21" s="64">
-        <v>0</v>
-      </c>
-      <c r="DI21" s="64">
+      <c r="DH21" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI21" s="63">
         <v>6.8961825</v>
       </c>
-      <c r="DJ21" s="64">
+      <c r="DJ21" s="63">
         <v>0</v>
       </c>
       <c r="DK21" s="10"/>
@@ -4637,52 +4855,70 @@
     </row>
     <row r="22" spans="1:120">
       <c r="B22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C22" s="63">
+        <v>3189505.4509916</v>
+      </c>
+      <c r="D22" s="63">
+        <v>71.400279220429</v>
+      </c>
+      <c r="E22" s="63">
+        <v>568261.97731824</v>
+      </c>
+      <c r="F22" s="63">
+        <v>12.721114440567</v>
+      </c>
+      <c r="G22" s="63">
+        <v>1784.8038156153</v>
+      </c>
+      <c r="H22" s="63">
+        <v>0.039954623921085</v>
+      </c>
       <c r="J22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="K22" s="63">
+        <v>995924.88891315</v>
+      </c>
+      <c r="L22" s="63">
+        <v>70.444419611136</v>
+      </c>
+      <c r="M22" s="63">
+        <v>213973.38441251</v>
+      </c>
+      <c r="N22" s="63">
+        <v>15.13490730573</v>
+      </c>
+      <c r="O22" s="63">
+        <v>0</v>
+      </c>
+      <c r="P22" s="63">
+        <v>0</v>
+      </c>
       <c r="R22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="X22" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="S22" s="63">
+        <v>2194835.3275097</v>
+      </c>
+      <c r="T22" s="63">
+        <v>71.883967215493</v>
+      </c>
+      <c r="U22" s="63">
+        <v>351119.98549107</v>
+      </c>
+      <c r="V22" s="63">
+        <v>11.499677087111</v>
+      </c>
+      <c r="W22" s="63">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="X22" s="63">
+        <v>0.060172626387176</v>
+      </c>
       <c r="Z22" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -4691,7 +4927,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AH22" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -4700,7 +4936,7 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
       <c r="AP22" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
@@ -4709,16 +4945,26 @@
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
       <c r="AX22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="AY22" s="63">
+        <v>80.994857142857</v>
+      </c>
+      <c r="AZ22" s="63">
+        <v>9.4832692939438</v>
+      </c>
+      <c r="BA22" s="63">
+        <v>21.942857142857</v>
+      </c>
+      <c r="BB22" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="63">
+        <v>51.468857142857</v>
+      </c>
+      <c r="BD22" s="63">
+        <v>4.7416346469719</v>
+      </c>
       <c r="BE22" s="11"/>
       <c r="BF22" s="11"/>
       <c r="BG22" s="11"/>
@@ -4726,19 +4972,29 @@
       <c r="BI22" s="11"/>
       <c r="BJ22" s="11"/>
       <c r="BL22" s="4" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="BM22" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO22" s="10"/>
-      <c r="BP22" s="10"/>
-      <c r="BQ22" s="10"/>
-      <c r="BR22" s="10"/>
-      <c r="BS22" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="BN22" s="63">
+        <v>23.417985915383</v>
+      </c>
+      <c r="BO22" s="63">
+        <v>0.045955385186375</v>
+      </c>
+      <c r="BP22" s="63">
+        <v>4.9168552051409</v>
+      </c>
+      <c r="BQ22" s="63">
+        <v>0.0033362587533393</v>
+      </c>
+      <c r="BR22" s="63">
+        <v>14.167420560262</v>
+      </c>
+      <c r="BS22" s="65">
+        <v>0.024645821969857</v>
+      </c>
       <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
@@ -4747,16 +5003,26 @@
       <c r="BY22" s="3"/>
       <c r="BZ22" s="19"/>
       <c r="CA22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC22" s="10"/>
-      <c r="CD22" s="10"/>
-      <c r="CE22" s="10"/>
-      <c r="CF22" s="10"/>
-      <c r="CG22" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB22" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD22" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="63">
+        <v>0</v>
+      </c>
+      <c r="CG22" s="63">
+        <v>0</v>
+      </c>
       <c r="CH22" s="10"/>
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
@@ -4764,24 +5030,24 @@
       <c r="CL22" s="10"/>
       <c r="CM22" s="10"/>
       <c r="CO22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP22" s="64">
+        <v>47</v>
+      </c>
+      <c r="CP22" s="63">
         <v>26.347357142857</v>
       </c>
-      <c r="CQ22" s="64">
+      <c r="CQ22" s="63">
         <v>7.7925357047986</v>
       </c>
-      <c r="CR22" s="64">
+      <c r="CR22" s="63">
         <v>2.4137142857143</v>
       </c>
-      <c r="CS22" s="64">
-        <v>0</v>
-      </c>
-      <c r="CT22" s="64">
+      <c r="CS22" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT22" s="63">
         <v>14.380535714286</v>
       </c>
-      <c r="CU22" s="64">
+      <c r="CU22" s="63">
         <v>3.8962678523993</v>
       </c>
       <c r="CV22" s="10"/>
@@ -4791,27 +5057,27 @@
       <c r="CZ22" s="10"/>
       <c r="DA22" s="10"/>
       <c r="DC22" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="DD22" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="DE22" s="64">
+        <v>34</v>
+      </c>
+      <c r="DE22" s="63">
         <v>17.568428571429</v>
       </c>
-      <c r="DF22" s="64">
+      <c r="DF22" s="63">
         <v>1.9279588029241</v>
       </c>
-      <c r="DG22" s="64">
+      <c r="DG22" s="63">
         <v>8.2651428571429</v>
       </c>
-      <c r="DH22" s="64">
-        <v>0</v>
-      </c>
-      <c r="DI22" s="64">
+      <c r="DH22" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI22" s="63">
         <v>12.916785714286</v>
       </c>
-      <c r="DJ22" s="64">
+      <c r="DJ22" s="63">
         <v>0.96397940146206</v>
       </c>
       <c r="DK22" s="10"/>
@@ -4823,52 +5089,70 @@
     </row>
     <row r="23" spans="1:120">
       <c r="B23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="C23" s="63">
+        <v>0</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0</v>
+      </c>
+      <c r="E23" s="63">
+        <v>0</v>
+      </c>
+      <c r="F23" s="63">
+        <v>0</v>
+      </c>
+      <c r="G23" s="63">
+        <v>0</v>
+      </c>
+      <c r="H23" s="63">
+        <v>0</v>
+      </c>
       <c r="J23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="K23" s="63">
+        <v>0</v>
+      </c>
+      <c r="L23" s="63">
+        <v>0</v>
+      </c>
+      <c r="M23" s="63">
+        <v>0</v>
+      </c>
+      <c r="N23" s="63">
+        <v>0</v>
+      </c>
+      <c r="O23" s="63">
+        <v>0</v>
+      </c>
+      <c r="P23" s="63">
+        <v>0</v>
+      </c>
       <c r="R23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="X23" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="S23" s="63">
+        <v>0</v>
+      </c>
+      <c r="T23" s="63">
+        <v>0</v>
+      </c>
+      <c r="U23" s="63">
+        <v>0</v>
+      </c>
+      <c r="V23" s="63">
+        <v>0</v>
+      </c>
+      <c r="W23" s="63">
+        <v>0</v>
+      </c>
+      <c r="X23" s="63">
+        <v>0</v>
+      </c>
       <c r="Z23" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -4877,7 +5161,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AH23" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -4886,7 +5170,7 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
       <c r="AP23" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
@@ -4895,14 +5179,26 @@
       <c r="AU23" s="10"/>
       <c r="AV23" s="10"/>
       <c r="AX23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="AY23" s="63">
+        <v>8.5089885177453</v>
+      </c>
+      <c r="AZ23" s="63">
+        <v>0.0097298094099909</v>
+      </c>
+      <c r="BA23" s="63">
+        <v>5.8641593883934</v>
+      </c>
+      <c r="BB23" s="63">
+        <v>0.00059976722404126</v>
+      </c>
+      <c r="BC23" s="63">
+        <v>7.1865739530693</v>
+      </c>
+      <c r="BD23" s="63">
+        <v>0.0051647883170161</v>
+      </c>
       <c r="BE23" s="11"/>
       <c r="BF23" s="11"/>
       <c r="BG23" s="11"/>
@@ -4910,19 +5206,29 @@
       <c r="BI23" s="11"/>
       <c r="BJ23" s="11"/>
       <c r="BL23" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="BM23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN23" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
-      <c r="BR23" s="10"/>
-      <c r="BS23" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="BN23" s="63">
+        <v>1.5825894299898</v>
+      </c>
+      <c r="BO23" s="63">
+        <v>0.0014121985725104</v>
+      </c>
+      <c r="BP23" s="63">
+        <v>1.0444990743389</v>
+      </c>
+      <c r="BQ23" s="63">
+        <v>7.9284275235685E-5</v>
+      </c>
+      <c r="BR23" s="63">
+        <v>1.3135442521643</v>
+      </c>
+      <c r="BS23" s="65">
+        <v>0.00074574142387302</v>
+      </c>
       <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
@@ -4931,7 +5237,7 @@
       <c r="BY23" s="3"/>
       <c r="BZ23" s="19"/>
       <c r="CA23" s="34" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="CB23" s="37"/>
       <c r="CC23" s="35"/>
@@ -4946,25 +5252,25 @@
       <c r="CL23" s="35"/>
       <c r="CM23" s="36"/>
       <c r="CO23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CP23" s="64">
-        <v>0</v>
-      </c>
-      <c r="CQ23" s="64">
-        <v>0</v>
-      </c>
-      <c r="CR23" s="64">
-        <v>0</v>
-      </c>
-      <c r="CS23" s="64">
-        <v>0</v>
-      </c>
-      <c r="CT23" s="64">
-        <v>0</v>
-      </c>
-      <c r="CU23" s="64">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="CP23" s="63">
+        <v>1.3657681053068</v>
+      </c>
+      <c r="CQ23" s="63">
+        <v>0.0011333833592837</v>
+      </c>
+      <c r="CR23" s="63">
+        <v>0.67432174177712</v>
+      </c>
+      <c r="CS23" s="63">
+        <v>0.0002144240102826</v>
+      </c>
+      <c r="CT23" s="63">
+        <v>1.020044923542</v>
+      </c>
+      <c r="CU23" s="63">
+        <v>0.00067390368478316</v>
       </c>
       <c r="CV23" s="10"/>
       <c r="CW23" s="10"/>
@@ -4973,28 +5279,28 @@
       <c r="CZ23" s="10"/>
       <c r="DA23" s="10"/>
       <c r="DC23" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="DD23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="DE23" s="64">
-        <v>0</v>
-      </c>
-      <c r="DF23" s="64">
-        <v>0</v>
-      </c>
-      <c r="DG23" s="64">
-        <v>0</v>
-      </c>
-      <c r="DH23" s="64">
-        <v>0</v>
-      </c>
-      <c r="DI23" s="64">
-        <v>0</v>
-      </c>
-      <c r="DJ23" s="64">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="DE23" s="63">
+        <v>92.582120061512</v>
+      </c>
+      <c r="DF23" s="63">
+        <v>0.024812462330167</v>
+      </c>
+      <c r="DG23" s="63">
+        <v>91.452722724076</v>
+      </c>
+      <c r="DH23" s="63">
+        <v>0.0069225142040881</v>
+      </c>
+      <c r="DI23" s="63">
+        <v>92.017421392794</v>
+      </c>
+      <c r="DJ23" s="63">
+        <v>0.015867488267128</v>
       </c>
       <c r="DK23" s="10"/>
       <c r="DL23" s="10"/>
@@ -5009,102 +5315,112 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="W24" s="28"/>
       <c r="X24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="Z24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AC24" s="28"/>
       <c r="AD24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AE24" s="28"/>
       <c r="AF24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AH24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AM24" s="28"/>
       <c r="AN24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AP24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AU24" s="28"/>
       <c r="AV24" s="28" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY24" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="AY24" s="63">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="63">
+        <v>0</v>
+      </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -5112,17 +5428,27 @@
       <c r="BI24" s="11"/>
       <c r="BJ24" s="11"/>
       <c r="BL24" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="BM24" s="10"/>
-      <c r="BN24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO24" s="10"/>
-      <c r="BP24" s="10"/>
-      <c r="BQ24" s="10"/>
-      <c r="BR24" s="10"/>
-      <c r="BS24" s="11"/>
+      <c r="BN24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="63">
+        <v>0</v>
+      </c>
       <c r="BT24" s="11"/>
       <c r="BU24" s="11"/>
       <c r="BV24" s="11"/>
@@ -5130,16 +5456,26 @@
       <c r="BX24" s="11"/>
       <c r="BY24" s="11"/>
       <c r="CA24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="CC24" s="10"/>
-      <c r="CD24" s="10"/>
-      <c r="CE24" s="10"/>
-      <c r="CF24" s="10"/>
-      <c r="CG24" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB24" s="63">
+        <v>20230.776263355</v>
+      </c>
+      <c r="CC24" s="63">
+        <v>1.430976681093</v>
+      </c>
+      <c r="CD24" s="63">
+        <v>101134.99797247</v>
+      </c>
+      <c r="CE24" s="63">
+        <v>3.3123144991659</v>
+      </c>
+      <c r="CF24" s="63">
+        <v>119725.92734819</v>
+      </c>
+      <c r="CG24" s="63">
+        <v>2.6801849922934</v>
+      </c>
       <c r="CH24" s="10"/>
       <c r="CI24" s="10"/>
       <c r="CJ24" s="10"/>
@@ -5147,24 +5483,24 @@
       <c r="CL24" s="10"/>
       <c r="CM24" s="10"/>
       <c r="CO24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CP24" s="64">
-        <v>0</v>
-      </c>
-      <c r="CQ24" s="64">
-        <v>0</v>
-      </c>
-      <c r="CR24" s="64">
-        <v>0</v>
-      </c>
-      <c r="CS24" s="64">
-        <v>0</v>
-      </c>
-      <c r="CT24" s="64">
-        <v>0</v>
-      </c>
-      <c r="CU24" s="64">
+        <v>51</v>
+      </c>
+      <c r="CP24" s="63">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR24" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS24" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT24" s="63">
+        <v>0</v>
+      </c>
+      <c r="CU24" s="63">
         <v>0</v>
       </c>
       <c r="CV24" s="10"/>
@@ -5174,25 +5510,25 @@
       <c r="CZ24" s="10"/>
       <c r="DA24" s="10"/>
       <c r="DC24" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="DD24" s="10"/>
-      <c r="DE24" s="64">
-        <v>0</v>
-      </c>
-      <c r="DF24" s="64">
-        <v>0</v>
-      </c>
-      <c r="DG24" s="64">
-        <v>0</v>
-      </c>
-      <c r="DH24" s="64">
-        <v>0</v>
-      </c>
-      <c r="DI24" s="64">
-        <v>0</v>
-      </c>
-      <c r="DJ24" s="64">
+      <c r="DE24" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF24" s="63">
+        <v>0</v>
+      </c>
+      <c r="DG24" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH24" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI24" s="63">
+        <v>0</v>
+      </c>
+      <c r="DJ24" s="63">
         <v>0</v>
       </c>
       <c r="DK24" s="10"/>
@@ -5218,16 +5554,26 @@
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
       <c r="CA25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB25" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CC25" s="10"/>
-      <c r="CD25" s="10"/>
-      <c r="CE25" s="10"/>
-      <c r="CF25" s="10"/>
-      <c r="CG25" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB25" s="63">
+        <v>195513.66578846</v>
+      </c>
+      <c r="CC25" s="63">
+        <v>13.829202247917</v>
+      </c>
+      <c r="CD25" s="63">
+        <v>946728.50816634</v>
+      </c>
+      <c r="CE25" s="63">
+        <v>31.006700224849</v>
+      </c>
+      <c r="CF25" s="63">
+        <v>1127269.6016054</v>
+      </c>
+      <c r="CG25" s="63">
+        <v>25.2350609046</v>
+      </c>
       <c r="CH25" s="10"/>
       <c r="CI25" s="10"/>
       <c r="CJ25" s="10"/>
@@ -5237,10 +5583,10 @@
     </row>
     <row r="26" spans="1:120">
       <c r="AX26" s="38" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="BL26" s="38" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="BM26" s="33"/>
       <c r="BN26" s="12"/>
@@ -5256,7 +5602,7 @@
       <c r="BX26" s="12"/>
       <c r="BY26" s="12"/>
       <c r="CA26" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="CB26" s="37"/>
       <c r="CC26" s="35"/>
@@ -5270,16 +5616,16 @@
       <c r="CK26" s="35"/>
       <c r="CL26" s="35"/>
       <c r="CM26" s="36"/>
-      <c r="CO26" s="41" t="s">
-        <v>134</v>
+      <c r="CO26" s="40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:120">
       <c r="AX27" s="39" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="BL27" s="38" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="BM27" s="33"/>
       <c r="BN27" s="12"/>
@@ -5295,29 +5641,39 @@
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
       <c r="CA27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB27" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="CC27" s="10"/>
-      <c r="CD27" s="10"/>
-      <c r="CE27" s="10"/>
-      <c r="CF27" s="10"/>
-      <c r="CG27" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB27" s="63">
+        <v>35380.486578503</v>
+      </c>
+      <c r="CC27" s="63">
+        <v>2.5025560364318</v>
+      </c>
+      <c r="CD27" s="63">
+        <v>79032.477057425</v>
+      </c>
+      <c r="CE27" s="63">
+        <v>2.5884256183361</v>
+      </c>
+      <c r="CF27" s="63">
+        <v>114338.11638347</v>
+      </c>
+      <c r="CG27" s="63">
+        <v>2.5595734388162</v>
+      </c>
       <c r="CH27" s="10"/>
       <c r="CI27" s="10"/>
       <c r="CJ27" s="10"/>
       <c r="CK27" s="10"/>
       <c r="CL27" s="10"/>
       <c r="CM27" s="10"/>
-      <c r="DC27" s="41" t="s">
-        <v>138</v>
+      <c r="DC27" s="40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:120">
       <c r="AX28" s="38" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="BM28" s="33"/>
       <c r="BN28" s="12"/>
@@ -5333,16 +5689,26 @@
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
       <c r="CA28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="10"/>
-      <c r="CE28" s="10"/>
-      <c r="CF28" s="10"/>
-      <c r="CG28" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB28" s="63">
+        <v>786877.83246903</v>
+      </c>
+      <c r="CC28" s="63">
+        <v>55.65796460177</v>
+      </c>
+      <c r="CD28" s="63">
+        <v>917141.12289035</v>
+      </c>
+      <c r="CE28" s="63">
+        <v>30.037671429608</v>
+      </c>
+      <c r="CF28" s="63">
+        <v>1726350.594906</v>
+      </c>
+      <c r="CG28" s="63">
+        <v>38.646089935454</v>
+      </c>
       <c r="CH28" s="10"/>
       <c r="CI28" s="10"/>
       <c r="CJ28" s="10"/>
@@ -5352,10 +5718,10 @@
     </row>
     <row r="29" spans="1:120">
       <c r="BL29" s="38" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="CA29" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="CB29" s="37"/>
       <c r="CC29" s="35"/>
@@ -5372,19 +5738,29 @@
     </row>
     <row r="30" spans="1:120">
       <c r="BL30" s="38" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="CA30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="CC30" s="10"/>
-      <c r="CD30" s="10"/>
-      <c r="CE30" s="10"/>
-      <c r="CF30" s="10"/>
-      <c r="CG30" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB30" s="63">
+        <v>11801.017511298</v>
+      </c>
+      <c r="CC30" s="63">
+        <v>0.83471739551709</v>
+      </c>
+      <c r="CD30" s="63">
+        <v>20219.345851715</v>
+      </c>
+      <c r="CE30" s="63">
+        <v>0.66221222891129</v>
+      </c>
+      <c r="CF30" s="63">
+        <v>32170.725545627</v>
+      </c>
+      <c r="CG30" s="63">
+        <v>0.72017396489084</v>
+      </c>
       <c r="CH30" s="10"/>
       <c r="CI30" s="10"/>
       <c r="CJ30" s="10"/>
@@ -5394,16 +5770,26 @@
     </row>
     <row r="31" spans="1:120">
       <c r="CA31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB31" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CC31" s="10"/>
-      <c r="CD31" s="10"/>
-      <c r="CE31" s="10"/>
-      <c r="CF31" s="10"/>
-      <c r="CG31" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB31" s="63">
+        <v>305013.48945156</v>
+      </c>
+      <c r="CC31" s="63">
+        <v>21.574416381371</v>
+      </c>
+      <c r="CD31" s="63">
+        <v>625075.36150249</v>
+      </c>
+      <c r="CE31" s="63">
+        <v>20.472103865961</v>
+      </c>
+      <c r="CF31" s="63">
+        <v>931049.66922403</v>
+      </c>
+      <c r="CG31" s="63">
+        <v>20.842480871138</v>
+      </c>
       <c r="CH31" s="10"/>
       <c r="CI31" s="10"/>
       <c r="CJ31" s="10"/>
@@ -5413,7 +5799,7 @@
     </row>
     <row r="32" spans="1:120">
       <c r="CA32" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="CB32" s="37"/>
       <c r="CC32" s="35"/>
@@ -5430,16 +5816,26 @@
     </row>
     <row r="33" spans="1:120">
       <c r="CA33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB33" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="CC33" s="10"/>
-      <c r="CD33" s="10"/>
-      <c r="CE33" s="10"/>
-      <c r="CF33" s="10"/>
-      <c r="CG33" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB33" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="63">
+        <v>1837.2526066584</v>
+      </c>
+      <c r="CE33" s="63">
+        <v>0.060172626387176</v>
+      </c>
+      <c r="CF33" s="63">
+        <v>1784.8038156153</v>
+      </c>
+      <c r="CG33" s="63">
+        <v>0.039954623921085</v>
+      </c>
       <c r="CH33" s="10"/>
       <c r="CI33" s="10"/>
       <c r="CJ33" s="10"/>
@@ -5449,16 +5845,26 @@
     </row>
     <row r="34" spans="1:120">
       <c r="CA34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB34" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="CC34" s="10"/>
-      <c r="CD34" s="10"/>
-      <c r="CE34" s="10"/>
-      <c r="CF34" s="10"/>
-      <c r="CG34" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB34" s="63">
+        <v>48865.521615464</v>
+      </c>
+      <c r="CC34" s="63">
+        <v>3.4563884761966</v>
+      </c>
+      <c r="CD34" s="63">
+        <v>33085.854405408</v>
+      </c>
+      <c r="CE34" s="63">
+        <v>1.0836086168129</v>
+      </c>
+      <c r="CF34" s="63">
+        <v>84019.582820347</v>
+      </c>
+      <c r="CG34" s="63">
+        <v>1.8808626495659</v>
+      </c>
       <c r="CH34" s="10"/>
       <c r="CI34" s="10"/>
       <c r="CJ34" s="10"/>
@@ -5468,7 +5874,7 @@
     </row>
     <row r="35" spans="1:120">
       <c r="CA35" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="CB35" s="37"/>
       <c r="CC35" s="35"/>
@@ -5485,16 +5891,26 @@
     </row>
     <row r="36" spans="1:120">
       <c r="CA36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="CC36" s="10"/>
-      <c r="CD36" s="10"/>
-      <c r="CE36" s="10"/>
-      <c r="CF36" s="10"/>
-      <c r="CG36" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB36" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC36" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD36" s="63">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="CE36" s="63">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="CF36" s="63">
+        <v>1786.6626276894</v>
+      </c>
+      <c r="CG36" s="63">
+        <v>0.039996235294118</v>
+      </c>
       <c r="CH36" s="10"/>
       <c r="CI36" s="10"/>
       <c r="CJ36" s="10"/>
@@ -5504,16 +5920,26 @@
     </row>
     <row r="37" spans="1:120">
       <c r="CA37" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB37" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CC37" s="10"/>
-      <c r="CD37" s="10"/>
-      <c r="CE37" s="10"/>
-      <c r="CF37" s="10"/>
-      <c r="CG37" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB37" s="63">
+        <v>1684.0175256637</v>
+      </c>
+      <c r="CC37" s="63">
+        <v>0.11911504424779</v>
+      </c>
+      <c r="CD37" s="63">
+        <v>7354.7507337173</v>
+      </c>
+      <c r="CE37" s="63">
+        <v>0.24087850874012</v>
+      </c>
+      <c r="CF37" s="63">
+        <v>8932.6345090481</v>
+      </c>
+      <c r="CG37" s="63">
+        <v>0.19996598467069</v>
+      </c>
       <c r="CH37" s="10"/>
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
@@ -5523,7 +5949,7 @@
     </row>
     <row r="38" spans="1:120">
       <c r="CA38" s="4" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="CB38" s="37"/>
       <c r="CC38" s="35"/>
@@ -5540,16 +5966,26 @@
     </row>
     <row r="39" spans="1:120">
       <c r="CA39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="CC39" s="10"/>
-      <c r="CD39" s="10"/>
-      <c r="CE39" s="10"/>
-      <c r="CF39" s="10"/>
-      <c r="CG39" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB39" s="63">
+        <v>16853.070088289</v>
+      </c>
+      <c r="CC39" s="63">
+        <v>1.1920625282604</v>
+      </c>
+      <c r="CD39" s="63">
+        <v>64345.936818325</v>
+      </c>
+      <c r="CE39" s="63">
+        <v>2.1074206136215</v>
+      </c>
+      <c r="CF39" s="63">
+        <v>80401.145356748</v>
+      </c>
+      <c r="CG39" s="63">
+        <v>1.7998602969402</v>
+      </c>
       <c r="CH39" s="10"/>
       <c r="CI39" s="10"/>
       <c r="CJ39" s="10"/>
@@ -5559,16 +5995,26 @@
     </row>
     <row r="40" spans="1:120">
       <c r="CA40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="CC40" s="10"/>
-      <c r="CD40" s="10"/>
-      <c r="CE40" s="10"/>
-      <c r="CF40" s="10"/>
-      <c r="CG40" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB40" s="63">
+        <v>411206.52851367</v>
+      </c>
+      <c r="CC40" s="63">
+        <v>29.085732833796</v>
+      </c>
+      <c r="CD40" s="63">
+        <v>933848.60556278</v>
+      </c>
+      <c r="CE40" s="63">
+        <v>30.584865162835</v>
+      </c>
+      <c r="CF40" s="63">
+        <v>1343748.4322921</v>
+      </c>
+      <c r="CG40" s="63">
+        <v>30.081156700278</v>
+      </c>
       <c r="CH40" s="10"/>
       <c r="CI40" s="10"/>
       <c r="CJ40" s="10"/>
@@ -5578,7 +6024,7 @@
     </row>
     <row r="41" spans="1:120">
       <c r="CA41" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="CB41" s="37"/>
       <c r="CC41" s="35"/>
@@ -5595,16 +6041,26 @@
     </row>
     <row r="42" spans="1:120">
       <c r="CA42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB42" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC42" s="10"/>
-      <c r="CD42" s="10"/>
-      <c r="CE42" s="10"/>
-      <c r="CF42" s="10"/>
-      <c r="CG42" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB42" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD42" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE42" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="63">
+        <v>0</v>
+      </c>
+      <c r="CG42" s="63">
+        <v>0</v>
+      </c>
       <c r="CH42" s="10"/>
       <c r="CI42" s="10"/>
       <c r="CJ42" s="10"/>
@@ -5614,16 +6070,26 @@
     </row>
     <row r="43" spans="1:120">
       <c r="CA43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB43" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="CC43" s="10"/>
-      <c r="CD43" s="10"/>
-      <c r="CE43" s="10"/>
-      <c r="CF43" s="10"/>
-      <c r="CG43" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB43" s="63">
+        <v>3374.4824671533</v>
+      </c>
+      <c r="CC43" s="63">
+        <v>0.23868613138686</v>
+      </c>
+      <c r="CD43" s="63">
+        <v>1839.1660423529</v>
+      </c>
+      <c r="CE43" s="63">
+        <v>0.060235294117647</v>
+      </c>
+      <c r="CF43" s="63">
+        <v>5369.1931688865</v>
+      </c>
+      <c r="CG43" s="63">
+        <v>0.1201947754401</v>
+      </c>
       <c r="CH43" s="10"/>
       <c r="CI43" s="10"/>
       <c r="CJ43" s="10"/>
@@ -5633,7 +6099,7 @@
     </row>
     <row r="44" spans="1:120">
       <c r="CA44" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="CB44" s="35"/>
       <c r="CC44" s="35"/>
@@ -5650,16 +6116,26 @@
     </row>
     <row r="45" spans="1:120">
       <c r="CA45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB45" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="CC45" s="10"/>
-      <c r="CD45" s="10"/>
-      <c r="CE45" s="10"/>
-      <c r="CF45" s="10"/>
-      <c r="CG45" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB45" s="63">
+        <v>1687.2412335766</v>
+      </c>
+      <c r="CC45" s="63">
+        <v>0.11934306569343</v>
+      </c>
+      <c r="CD45" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE45" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF45" s="63">
+        <v>1791.2652705985</v>
+      </c>
+      <c r="CG45" s="63">
+        <v>0.040099270072993</v>
+      </c>
       <c r="CH45" s="10"/>
       <c r="CI45" s="10"/>
       <c r="CJ45" s="10"/>
@@ -5669,16 +6145,26 @@
     </row>
     <row r="46" spans="1:120">
       <c r="CA46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB46" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="CC46" s="10"/>
-      <c r="CD46" s="10"/>
-      <c r="CE46" s="10"/>
-      <c r="CF46" s="10"/>
-      <c r="CG46" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB46" s="63">
+        <v>21911.570081106</v>
+      </c>
+      <c r="CC46" s="63">
+        <v>1.5498637038951</v>
+      </c>
+      <c r="CD46" s="63">
+        <v>12874.162296471</v>
+      </c>
+      <c r="CE46" s="63">
+        <v>0.42164705882353</v>
+      </c>
+      <c r="CF46" s="63">
+        <v>35769.129689969</v>
+      </c>
+      <c r="CG46" s="63">
+        <v>0.80072785156758</v>
+      </c>
       <c r="CH46" s="10"/>
       <c r="CI46" s="10"/>
       <c r="CJ46" s="10"/>
@@ -5688,7 +6174,7 @@
     </row>
     <row r="47" spans="1:120">
       <c r="CA47" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="CB47" s="35"/>
       <c r="CC47" s="35"/>
@@ -5705,16 +6191,26 @@
     </row>
     <row r="48" spans="1:120">
       <c r="CA48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB48" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="CC48" s="10"/>
-      <c r="CD48" s="10"/>
-      <c r="CE48" s="10"/>
-      <c r="CF48" s="10"/>
-      <c r="CG48" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB48" s="63">
+        <v>266303.65231669</v>
+      </c>
+      <c r="CC48" s="63">
+        <v>18.836366513791</v>
+      </c>
+      <c r="CD48" s="63">
+        <v>1020297.0632961</v>
+      </c>
+      <c r="CE48" s="63">
+        <v>33.416174657286</v>
+      </c>
+      <c r="CF48" s="63">
+        <v>1273892.3903048</v>
+      </c>
+      <c r="CG48" s="63">
+        <v>28.517359121072</v>
+      </c>
       <c r="CH48" s="10"/>
       <c r="CI48" s="10"/>
       <c r="CJ48" s="10"/>
@@ -5724,16 +6220,26 @@
     </row>
     <row r="49" spans="1:120">
       <c r="CA49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB49" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="CC49" s="10"/>
-      <c r="CD49" s="10"/>
-      <c r="CE49" s="10"/>
-      <c r="CF49" s="10"/>
-      <c r="CG49" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB49" s="63">
+        <v>935161.638549</v>
+      </c>
+      <c r="CC49" s="63">
+        <v>66.146473096053</v>
+      </c>
+      <c r="CD49" s="63">
+        <v>1531168.0940889</v>
+      </c>
+      <c r="CE49" s="63">
+        <v>50.147924856749</v>
+      </c>
+      <c r="CF49" s="63">
+        <v>2480274.686747</v>
+      </c>
+      <c r="CG49" s="63">
+        <v>55.523437065155</v>
+      </c>
       <c r="CH49" s="10"/>
       <c r="CI49" s="10"/>
       <c r="CJ49" s="10"/>
@@ -5743,7 +6249,7 @@
     </row>
     <row r="50" spans="1:120">
       <c r="CA50" s="4" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="CB50" s="35"/>
       <c r="CC50" s="35"/>
@@ -5760,16 +6266,26 @@
     </row>
     <row r="51" spans="1:120">
       <c r="CA51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB51" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC51" s="10"/>
-      <c r="CD51" s="10"/>
-      <c r="CE51" s="10"/>
-      <c r="CF51" s="10"/>
-      <c r="CG51" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="CB51" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC51" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD51" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF51" s="63">
+        <v>0</v>
+      </c>
+      <c r="CG51" s="63">
+        <v>0</v>
+      </c>
       <c r="CH51" s="10"/>
       <c r="CI51" s="10"/>
       <c r="CJ51" s="10"/>
@@ -5779,16 +6295,26 @@
     </row>
     <row r="52" spans="1:120">
       <c r="CA52" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="CB52" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="CC52" s="10"/>
-      <c r="CD52" s="10"/>
-      <c r="CE52" s="10"/>
-      <c r="CF52" s="10"/>
-      <c r="CG52" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="CB52" s="63">
+        <v>0</v>
+      </c>
+      <c r="CC52" s="63">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="63">
+        <v>0</v>
+      </c>
+      <c r="CE52" s="63">
+        <v>0</v>
+      </c>
+      <c r="CF52" s="63">
+        <v>0</v>
+      </c>
+      <c r="CG52" s="63">
+        <v>0</v>
+      </c>
       <c r="CH52" s="10"/>
       <c r="CI52" s="10"/>
       <c r="CJ52" s="10"/>
